--- a/data/third_party_scenarios.xlsx
+++ b/data/third_party_scenarios.xlsx
@@ -4841,7 +4841,7 @@
   <dimension ref="B1:BF76"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="37" defaultRowHeight="15" x14ac:dyDescent="0"/>

--- a/data/third_party_scenarios.xlsx
+++ b/data/third_party_scenarios.xlsx
@@ -4841,7 +4841,7 @@
   <dimension ref="B1:BF76"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="37" defaultRowHeight="15" x14ac:dyDescent="0"/>

--- a/data/third_party_scenarios.xlsx
+++ b/data/third_party_scenarios.xlsx
@@ -4840,8 +4840,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:BF76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="37" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -5145,7 +5145,7 @@
       </c>
       <c r="D7" s="53" t="str">
         <f>AG75</f>
-        <v/>
+        <v>Florida,Michigan,Pennsylvania,Wisconsin</v>
       </c>
       <c r="E7" s="53"/>
       <c r="F7" s="53"/>
@@ -5266,13 +5266,13 @@
       <c r="C10" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="D10" s="46" t="str">
+      <c r="D10" s="46">
         <f>IF(stein_split_needed="","",stein_split_needed)</f>
-        <v/>
+        <v>0.14826379668536194</v>
       </c>
       <c r="E10" s="46">
         <f>IF(johnson_split_needed="","",johnson_split_needed)</f>
-        <v>0.73916777074439377</v>
+        <v>0.7734551674342649</v>
       </c>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
@@ -5358,26 +5358,26 @@
         <v>4</v>
       </c>
       <c r="D12" s="8">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="E12" s="49">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="F12" s="10">
         <f>SUM(Table1[adjusted_electors_clinton])</f>
-        <v>233</v>
+        <v>308</v>
       </c>
       <c r="G12" s="35">
         <f>clinton_national+pct_stein_to_clinton*stein_national</f>
-        <v>64046433.5</v>
+        <v>63913673.600000001</v>
       </c>
       <c r="H12" s="35">
         <f>clinton_national+pct_johnson_to_clinton*johnson_national</f>
-        <v>65632752.5</v>
+        <v>67432847.299999997</v>
       </c>
       <c r="I12" s="35">
         <f>clinton_national+pct_stein_to_clinton*stein_national+pct_johnson_to_clinton*johnson_national</f>
-        <v>66296552</v>
+        <v>67963886.900000006</v>
       </c>
       <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
@@ -5408,27 +5408,27 @@
       </c>
       <c r="D13" s="9">
         <f>1-pct_stein_to_clinton</f>
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="E13" s="9">
         <f>1-pct_johnson_to_clinton</f>
-        <v>0.5</v>
+        <v>9.9999999999999978E-2</v>
       </c>
       <c r="F13" s="10">
         <f>SUM(Table1[adjusted_electors_trump])</f>
-        <v>305</v>
+        <v>230</v>
       </c>
       <c r="G13" s="36">
         <f>trump_national+pct_stein_to_trump*stein_national</f>
-        <v>62954876.5</v>
+        <v>63087636.399999999</v>
       </c>
       <c r="H13" s="35">
         <f>trump_national+pct_johnson_to_trump*johnson_national</f>
-        <v>64541195.5</v>
+        <v>62741100.700000003</v>
       </c>
       <c r="I13" s="35">
         <f>trump_national+pct_stein_to_trump*stein_national+pct_johnson_to_trump*johnson_national</f>
-        <v>65204995</v>
+        <v>63537660.100000001</v>
       </c>
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
@@ -5459,27 +5459,27 @@
       </c>
       <c r="D14" s="9">
         <f t="shared" ref="D14:I14" si="0">D12-D13</f>
-        <v>0</v>
+        <v>-0.19999999999999996</v>
       </c>
       <c r="E14" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="F14" s="34">
         <f t="shared" si="0"/>
-        <v>-72</v>
+        <v>78</v>
       </c>
       <c r="G14" s="11">
         <f t="shared" si="0"/>
-        <v>1091557</v>
+        <v>826037.20000000298</v>
       </c>
       <c r="H14" s="11">
         <f t="shared" si="0"/>
-        <v>1091557</v>
+        <v>4691746.599999994</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" si="0"/>
-        <v>1091557</v>
+        <v>4426226.8000000045</v>
       </c>
       <c r="Q14" s="1"/>
       <c r="R14" s="1"/>
@@ -5613,7 +5613,7 @@
       </c>
       <c r="G17" s="33">
         <f>(total_adjusted_clinton_with_stein_only-clinton_national)/stein_national-pct_stein_to_clinton</f>
-        <v>0</v>
+        <v>1.1102230246251565E-15</v>
       </c>
       <c r="H17" s="33">
         <f>(total_adjusted_clinton_with_johnson_only-clinton_national)/johnson_national-pct_johnson_to_clinton</f>
@@ -5674,11 +5674,11 @@
       </c>
       <c r="G18" s="33">
         <f>(total_adjusted_trump_with_stein_only-trump_national)/stein_national-pct_stein_to_trump</f>
-        <v>0</v>
+        <v>-1.1102230246251565E-15</v>
       </c>
       <c r="H18" s="33">
         <f>(total_adjusted_trump_with_johnson_only-trump_national)/johnson_national-pct_johnson_to_trump</f>
-        <v>0</v>
+        <v>6.8001160258290838E-16</v>
       </c>
       <c r="I18" s="33">
         <f>total_adjusted_trump-(total_adjusted_trump_with_stein_only-trump_national)-(total_adjusted_trump_with_johnson_only-trump_national)-trump_national</f>
@@ -5843,19 +5843,19 @@
       </c>
       <c r="L21" s="21">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-1.5133991837501526E-9</v>
       </c>
       <c r="M21" s="21">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1.280568540096283E-9</v>
       </c>
       <c r="N21" s="21">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>3.7252902984619141E-9</v>
       </c>
       <c r="O21" s="21">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-3.0267983675003052E-9</v>
       </c>
       <c r="P21" s="21">
         <f t="shared" si="2"/>
@@ -5883,7 +5883,7 @@
       </c>
       <c r="V21" s="21">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-3.8417056202888489E-9</v>
       </c>
       <c r="W21" s="21">
         <f t="shared" si="2"/>
@@ -5956,55 +5956,55 @@
       </c>
       <c r="L22" s="41">
         <f>total_adjusted_clinton_with_stein_only-clinton_national</f>
-        <v>663799.5</v>
+        <v>531039.60000000149</v>
       </c>
       <c r="M22" s="41">
         <f>total_adjusted_trump_with_stein_only-trump_national</f>
-        <v>663799.5</v>
+        <v>796559.39999999851</v>
       </c>
       <c r="N22" s="41">
         <f>total_adjusted_clinton_with_johnson_only-clinton_national</f>
-        <v>2250118.5</v>
+        <v>4050213.299999997</v>
       </c>
       <c r="O22" s="41">
         <f>total_adjusted_trump_with_johnson_only-trump_national</f>
-        <v>2250118.5</v>
+        <v>450023.70000000298</v>
       </c>
       <c r="P22" s="41">
         <f>total_adjusted_clinton_with_stein_only</f>
-        <v>64046433.5</v>
+        <v>63913673.600000001</v>
       </c>
       <c r="Q22" s="41">
         <f>total_adjusted_trump_with_stein_only</f>
-        <v>62954876.5</v>
+        <v>63087636.399999999</v>
       </c>
       <c r="R22" s="41">
         <f>total_adjusted_clinton_with_johnson_only</f>
-        <v>65632752.5</v>
+        <v>67432847.299999997</v>
       </c>
       <c r="S22" s="41">
         <f>total_adjusted_trump_with_johnson_only</f>
-        <v>64541195.5</v>
+        <v>62741100.700000003</v>
       </c>
       <c r="T22" s="42">
         <f>total_adjusted_clinton</f>
-        <v>66296552</v>
+        <v>67963886.900000006</v>
       </c>
       <c r="U22" s="42">
         <f>total_adjusted_trump</f>
-        <v>65204995</v>
+        <v>63537660.100000001</v>
       </c>
       <c r="V22" s="42">
         <f>total_adjusted_spread_with_stein_only</f>
-        <v>1091557</v>
+        <v>826037.20000000298</v>
       </c>
       <c r="W22" s="42">
         <f>total_adjusted_spread_with_johnson_only</f>
-        <v>1091557</v>
+        <v>4691746.599999994</v>
       </c>
       <c r="X22" s="42">
         <f>total_adjusted_spread</f>
-        <v>1091557</v>
+        <v>4426226.8000000045</v>
       </c>
       <c r="Y22"/>
       <c r="Z22"/>
@@ -6069,55 +6069,55 @@
       </c>
       <c r="L23" s="22">
         <f t="shared" si="4"/>
-        <v>663799.5</v>
+        <v>531039.6</v>
       </c>
       <c r="M23" s="22">
         <f t="shared" si="4"/>
-        <v>663799.5</v>
+        <v>796559.39999999979</v>
       </c>
       <c r="N23" s="22">
         <f t="shared" si="4"/>
-        <v>2250118.5</v>
+        <v>4050213.3000000007</v>
       </c>
       <c r="O23" s="22">
         <f t="shared" si="4"/>
-        <v>2250118.5</v>
+        <v>450023.69999999995</v>
       </c>
       <c r="P23" s="22">
         <f t="shared" si="4"/>
-        <v>64046433.5</v>
+        <v>63913673.599999987</v>
       </c>
       <c r="Q23" s="22">
         <f t="shared" si="4"/>
-        <v>62954876.5</v>
+        <v>63087636.400000013</v>
       </c>
       <c r="R23" s="22">
         <f t="shared" si="4"/>
-        <v>65632752.5</v>
+        <v>67432847.300000012</v>
       </c>
       <c r="S23" s="22">
         <f t="shared" si="4"/>
-        <v>64541195.5</v>
+        <v>62741100.699999981</v>
       </c>
       <c r="T23" s="22">
         <f t="shared" si="4"/>
-        <v>66296552</v>
+        <v>67963886.900000006</v>
       </c>
       <c r="U23" s="22">
         <f t="shared" si="4"/>
-        <v>65204995</v>
+        <v>63537660.100000001</v>
       </c>
       <c r="V23" s="22">
         <f t="shared" si="4"/>
-        <v>1091557</v>
+        <v>826037.19999999914</v>
       </c>
       <c r="W23" s="22">
         <f t="shared" si="4"/>
-        <v>1091557</v>
+        <v>4691746.5999999978</v>
       </c>
       <c r="X23" s="22">
         <f t="shared" si="4"/>
-        <v>1091557</v>
+        <v>4426226.7999999989</v>
       </c>
       <c r="Y23" s="22">
         <f t="shared" si="4"/>
@@ -6125,7 +6125,7 @@
       </c>
       <c r="Z23" s="22">
         <f t="shared" si="4"/>
-        <v>233</v>
+        <v>314</v>
       </c>
       <c r="AA23"/>
       <c r="AC23"/>
@@ -6141,13 +6141,13 @@
       <c r="AQ23" s="1"/>
       <c r="AR23" s="1"/>
       <c r="AS23" s="1"/>
-      <c r="AT23" s="46" t="str">
+      <c r="AT23" s="46">
         <f t="array" ref="AT23">IF(COUNT(Table1[stein_split_needed])&gt;0,MIN(Table1[stein_split_needed]),"")</f>
-        <v/>
+        <v>0.14826379668536194</v>
       </c>
       <c r="AU23" s="46">
         <f t="array" ref="AU23">IF(COUNT(Table1[johnson_split_needed])&gt;0,MIN(Table1[johnson_split_needed]),"")</f>
-        <v>0.73916777074439377</v>
+        <v>0.7734551674342649</v>
       </c>
       <c r="BC23"/>
       <c r="BE23"/>
@@ -6342,55 +6342,55 @@
       </c>
       <c r="L25" s="12">
         <f>pct_stein_to_clinton*Table1[[#This Row],[orig_vote_stein]]</f>
-        <v>4643.5</v>
+        <v>3714.8</v>
       </c>
       <c r="M25" s="12">
         <f>pct_stein_to_trump*Table1[[#This Row],[orig_vote_stein]]</f>
-        <v>4643.5</v>
+        <v>5572.2</v>
       </c>
       <c r="N25" s="12">
         <f>pct_johnson_to_clinton*Table1[[#This Row],[orig_vote_johnson]]</f>
-        <v>21934.5</v>
+        <v>39482.1</v>
       </c>
       <c r="O25" s="12">
         <f>pct_johnson_to_trump*Table1[[#This Row],[orig_vote_johnson]]</f>
-        <v>21934.5</v>
+        <v>4386.8999999999987</v>
       </c>
       <c r="P25" s="12">
         <f>Table1[[#This Row],[orig_vote_clinton]]+Table1[[#This Row],[stein_votes_to_clinton]]</f>
-        <v>722727.5</v>
+        <v>721798.8</v>
       </c>
       <c r="Q25" s="12">
         <f>Table1[[#This Row],[orig_vote_trump]]+Table1[[#This Row],[stein_votes_to_trump]]</f>
-        <v>1311568.5</v>
+        <v>1312497.2</v>
       </c>
       <c r="R25" s="12">
         <f>Table1[[#This Row],[orig_vote_clinton]]+Table1[[#This Row],[johnson_votes_to_clinton]]</f>
-        <v>740018.5</v>
+        <v>757566.1</v>
       </c>
       <c r="S25" s="12">
         <f>Table1[[#This Row],[orig_vote_trump]]+Table1[[#This Row],[johnson_votes_to_trump]]</f>
-        <v>1328859.5</v>
+        <v>1311311.8999999999</v>
       </c>
       <c r="T25" s="11">
         <f>Table1[[#This Row],[orig_vote_clinton]]+Table1[[#This Row],[stein_votes_to_clinton]]+Table1[[#This Row],[johnson_votes_to_clinton]]</f>
-        <v>744662</v>
+        <v>761280.9</v>
       </c>
       <c r="U25" s="11">
         <f>Table1[[#This Row],[orig_vote_trump]]+Table1[[#This Row],[stein_votes_to_trump]]+Table1[[#This Row],[johnson_votes_to_trump]]</f>
-        <v>1333503</v>
+        <v>1316884.0999999999</v>
       </c>
       <c r="V25" s="11">
         <f>Table1[[#This Row],[adjusted_vote_clinton_with_stein_only]]-Table1[[#This Row],[adjusted_vote_trump_with_stein_only]]</f>
-        <v>-588841</v>
+        <v>-590698.39999999991</v>
       </c>
       <c r="W25" s="11">
         <f>Table1[[#This Row],[adjusted_vote_clinton_with_johnson_only]]-Table1[[#This Row],[adjusted_vote_trump_with_johnson_only]]</f>
-        <v>-588841</v>
+        <v>-553745.79999999993</v>
       </c>
       <c r="X25" s="12">
         <f>Table1[[#This Row],[adjusted_vote_clinton]]-Table1[[#This Row],[adjusted_vote_trump]]</f>
-        <v>-588841</v>
+        <v>-555603.19999999984</v>
       </c>
       <c r="Y25" s="12">
         <f>IF(Table1[[#This Row],[adjusted_spread_with_stein_only]]&gt;0,Table1[[#This Row],[electoral_votes]],0)</f>
@@ -6434,11 +6434,11 @@
       </c>
       <c r="AI25" s="30">
         <f>IF(Table1[[#This Row],[orig_vote_stein]]=0,"",(1-Table1[[#This Row],[adjusted_spread_with_johnson_only]]/Table1[[#This Row],[orig_vote_stein]])/2)</f>
-        <v>32.202433509206415</v>
+        <v>30.312953591041236</v>
       </c>
       <c r="AJ25" s="30">
         <f>(1-Table1[[#This Row],[adjusted_spread_with_stein_only]]/Table1[[#This Row],[orig_vote_johnson]])/2</f>
-        <v>7.2113565387859309</v>
+        <v>7.2325263853746371</v>
       </c>
       <c r="AK25" s="30" t="b">
         <f>AND(Table1[[#This Row],[stein_split_needed_pure]]&gt;=0,Table1[[#This Row],[stein_split_needed_pure]]&lt;=1)</f>
@@ -6470,7 +6470,7 @@
       </c>
       <c r="AR25" s="44">
         <f>adjusted_electors_clinton_with_johnson_only+Table1[[#This Row],[electors_with_split_stein_added]]+Table1[[#This Row],[electors_with_split_stein_dropped]]</f>
-        <v>233</v>
+        <v>314</v>
       </c>
       <c r="AS25" s="44">
         <f>adjusted_electors_clinton_with_stein_only+Table1[[#This Row],[electors_with_split_johnson_added]]+Table1[[#This Row],[electors_with_split_johnson_dropped]]</f>
@@ -6537,55 +6537,55 @@
       </c>
       <c r="L26" s="12">
         <f>pct_stein_to_clinton*Table1[[#This Row],[orig_vote_stein]]</f>
-        <v>2222.5</v>
+        <v>1778</v>
       </c>
       <c r="M26" s="12">
         <f>pct_stein_to_trump*Table1[[#This Row],[orig_vote_stein]]</f>
-        <v>2222.5</v>
+        <v>2667</v>
       </c>
       <c r="N26" s="12">
         <f>pct_johnson_to_clinton*Table1[[#This Row],[orig_vote_johnson]]</f>
-        <v>7296.5</v>
+        <v>13133.7</v>
       </c>
       <c r="O26" s="12">
         <f>pct_johnson_to_trump*Table1[[#This Row],[orig_vote_johnson]]</f>
-        <v>7296.5</v>
+        <v>1459.2999999999997</v>
       </c>
       <c r="P26" s="12">
         <f>Table1[[#This Row],[orig_vote_clinton]]+Table1[[#This Row],[stein_votes_to_clinton]]</f>
-        <v>95229.5</v>
+        <v>94785</v>
       </c>
       <c r="Q26" s="12">
         <f>Table1[[#This Row],[orig_vote_trump]]+Table1[[#This Row],[stein_votes_to_trump]]</f>
-        <v>132637.5</v>
+        <v>133082</v>
       </c>
       <c r="R26" s="12">
         <f>Table1[[#This Row],[orig_vote_clinton]]+Table1[[#This Row],[johnson_votes_to_clinton]]</f>
-        <v>100303.5</v>
+        <v>106140.7</v>
       </c>
       <c r="S26" s="12">
         <f>Table1[[#This Row],[orig_vote_trump]]+Table1[[#This Row],[johnson_votes_to_trump]]</f>
-        <v>137711.5</v>
+        <v>131874.29999999999</v>
       </c>
       <c r="T26" s="11">
         <f>Table1[[#This Row],[orig_vote_clinton]]+Table1[[#This Row],[stein_votes_to_clinton]]+Table1[[#This Row],[johnson_votes_to_clinton]]</f>
-        <v>102526</v>
+        <v>107918.7</v>
       </c>
       <c r="U26" s="11">
         <f>Table1[[#This Row],[orig_vote_trump]]+Table1[[#This Row],[stein_votes_to_trump]]+Table1[[#This Row],[johnson_votes_to_trump]]</f>
-        <v>139934</v>
+        <v>134541.29999999999</v>
       </c>
       <c r="V26" s="11">
         <f>Table1[[#This Row],[adjusted_vote_clinton_with_stein_only]]-Table1[[#This Row],[adjusted_vote_trump_with_stein_only]]</f>
-        <v>-37408</v>
+        <v>-38297</v>
       </c>
       <c r="W26" s="11">
         <f>Table1[[#This Row],[adjusted_vote_clinton_with_johnson_only]]-Table1[[#This Row],[adjusted_vote_trump_with_johnson_only]]</f>
-        <v>-37408</v>
+        <v>-25733.599999999991</v>
       </c>
       <c r="X26" s="12">
         <f>Table1[[#This Row],[adjusted_vote_clinton]]-Table1[[#This Row],[adjusted_vote_trump]]</f>
-        <v>-37408</v>
+        <v>-26622.599999999991</v>
       </c>
       <c r="Y26" s="12">
         <f>IF(Table1[[#This Row],[adjusted_spread_with_stein_only]]&gt;0,Table1[[#This Row],[electoral_votes]],0)</f>
@@ -6629,11 +6629,11 @@
       </c>
       <c r="AI26" s="30">
         <f>IF(Table1[[#This Row],[orig_vote_stein]]=0,"",(1-Table1[[#This Row],[adjusted_spread_with_johnson_only]]/Table1[[#This Row],[orig_vote_stein]])/2)</f>
-        <v>4.7078740157480317</v>
+        <v>3.3946681664791889</v>
       </c>
       <c r="AJ26" s="30">
         <f>(1-Table1[[#This Row],[adjusted_spread_with_stein_only]]/Table1[[#This Row],[orig_vote_johnson]])/2</f>
-        <v>1.7817104091002536</v>
+        <v>1.812170218597958</v>
       </c>
       <c r="AK26" s="30" t="b">
         <f>AND(Table1[[#This Row],[stein_split_needed_pure]]&gt;=0,Table1[[#This Row],[stein_split_needed_pure]]&lt;=1)</f>
@@ -6665,7 +6665,7 @@
       </c>
       <c r="AR26" s="44">
         <f>adjusted_electors_clinton_with_johnson_only+Table1[[#This Row],[electors_with_split_stein_added]]+Table1[[#This Row],[electors_with_split_stein_dropped]]</f>
-        <v>233</v>
+        <v>314</v>
       </c>
       <c r="AS26" s="44">
         <f>adjusted_electors_clinton_with_stein_only+Table1[[#This Row],[electors_with_split_johnson_added]]+Table1[[#This Row],[electors_with_split_johnson_dropped]]</f>
@@ -6681,7 +6681,7 @@
       </c>
       <c r="AV26" s="16">
         <f>IF(Table1[[#This Row],[stein_split_needed_pure]]="","",(Table1[[#This Row],[adjusted_vote_clinton_with_johnson_only]]+Table1[[#This Row],[stein_split_needed_pure]]*Table1[[#This Row],[orig_vote_stein]])-(Table1[[#This Row],[adjusted_vote_trump_with_johnson_only]]+(1-Table1[[#This Row],[stein_split_needed_pure]])*Table1[[#This Row],[orig_vote_stein]]))</f>
-        <v>0</v>
+        <v>-1.4551915228366852E-11</v>
       </c>
       <c r="AW26" s="47">
         <f>IF(Table1[[#This Row],[johnson_split_needed_pure]]="","",(Table1[[#This Row],[adjusted_vote_clinton_with_stein_only]]+Table1[[#This Row],[johnson_split_needed_pure]]*Table1[[#This Row],[orig_vote_johnson]])-(Table1[[#This Row],[adjusted_vote_trump_with_stein_only]]+(1-Table1[[#This Row],[johnson_split_needed_pure]])*Table1[[#This Row],[orig_vote_johnson]]))</f>
@@ -6735,55 +6735,55 @@
       </c>
       <c r="L27" s="12">
         <f>pct_stein_to_clinton*Table1[[#This Row],[orig_vote_stein]]</f>
-        <v>12627.5</v>
+        <v>10102</v>
       </c>
       <c r="M27" s="12">
         <f>pct_stein_to_trump*Table1[[#This Row],[orig_vote_stein]]</f>
-        <v>12627.5</v>
+        <v>15153</v>
       </c>
       <c r="N27" s="12">
         <f>pct_johnson_to_clinton*Table1[[#This Row],[orig_vote_johnson]]</f>
-        <v>40075.5</v>
+        <v>72135.900000000009</v>
       </c>
       <c r="O27" s="12">
         <f>pct_johnson_to_trump*Table1[[#This Row],[orig_vote_johnson]]</f>
-        <v>40075.5</v>
+        <v>8015.0999999999985</v>
       </c>
       <c r="P27" s="12">
         <f>Table1[[#This Row],[orig_vote_clinton]]+Table1[[#This Row],[stein_votes_to_clinton]]</f>
-        <v>948877.5</v>
+        <v>946352</v>
       </c>
       <c r="Q27" s="12">
         <f>Table1[[#This Row],[orig_vote_trump]]+Table1[[#This Row],[stein_votes_to_trump]]</f>
-        <v>1033781.5</v>
+        <v>1036307</v>
       </c>
       <c r="R27" s="12">
         <f>Table1[[#This Row],[orig_vote_clinton]]+Table1[[#This Row],[johnson_votes_to_clinton]]</f>
-        <v>976325.5</v>
+        <v>1008385.9</v>
       </c>
       <c r="S27" s="12">
         <f>Table1[[#This Row],[orig_vote_trump]]+Table1[[#This Row],[johnson_votes_to_trump]]</f>
-        <v>1061229.5</v>
+        <v>1029169.1</v>
       </c>
       <c r="T27" s="11">
         <f>Table1[[#This Row],[orig_vote_clinton]]+Table1[[#This Row],[stein_votes_to_clinton]]+Table1[[#This Row],[johnson_votes_to_clinton]]</f>
-        <v>988953</v>
+        <v>1018487.9</v>
       </c>
       <c r="U27" s="11">
         <f>Table1[[#This Row],[orig_vote_trump]]+Table1[[#This Row],[stein_votes_to_trump]]+Table1[[#This Row],[johnson_votes_to_trump]]</f>
-        <v>1073857</v>
+        <v>1044322.1</v>
       </c>
       <c r="V27" s="11">
         <f>Table1[[#This Row],[adjusted_vote_clinton_with_stein_only]]-Table1[[#This Row],[adjusted_vote_trump_with_stein_only]]</f>
-        <v>-84904</v>
+        <v>-89955</v>
       </c>
       <c r="W27" s="11">
         <f>Table1[[#This Row],[adjusted_vote_clinton_with_johnson_only]]-Table1[[#This Row],[adjusted_vote_trump_with_johnson_only]]</f>
-        <v>-84904</v>
+        <v>-20783.199999999953</v>
       </c>
       <c r="X27" s="12">
         <f>Table1[[#This Row],[adjusted_vote_clinton]]-Table1[[#This Row],[adjusted_vote_trump]]</f>
-        <v>-84904</v>
+        <v>-25834.199999999953</v>
       </c>
       <c r="Y27" s="12">
         <f>IF(Table1[[#This Row],[adjusted_spread_with_stein_only]]&gt;0,Table1[[#This Row],[electoral_votes]],0)</f>
@@ -6827,15 +6827,15 @@
       </c>
       <c r="AI27" s="30">
         <f>IF(Table1[[#This Row],[orig_vote_stein]]=0,"",(1-Table1[[#This Row],[adjusted_spread_with_johnson_only]]/Table1[[#This Row],[orig_vote_stein]])/2)</f>
-        <v>2.1809344684220946</v>
+        <v>0.91146703623044845</v>
       </c>
       <c r="AJ27" s="30">
         <f>(1-Table1[[#This Row],[adjusted_spread_with_stein_only]]/Table1[[#This Row],[orig_vote_johnson]])/2</f>
-        <v>1.0296502850868985</v>
+        <v>1.0611595613279934</v>
       </c>
       <c r="AK27" s="30" t="b">
         <f>AND(Table1[[#This Row],[stein_split_needed_pure]]&gt;=0,Table1[[#This Row],[stein_split_needed_pure]]&lt;=1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL27" s="30" t="b">
         <f>AND(Table1[[#This Row],[johnson_split_needed_pure]]&gt;=0,Table1[[#This Row],[johnson_split_needed_pure]]&lt;=1)</f>
@@ -6843,11 +6843,11 @@
       </c>
       <c r="AM27" s="30" t="b">
         <f>OR(Table1[[#This Row],[in_play_stein]],Table1[[#This Row],[in_play_johnson]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN27" s="51">
         <f t="array" ref="AN27">IF(NOT(Table1[[#This Row],[in_play_stein]]), 0, SUMPRODUCT(IF(Table1[stein_split_needed_pure]&lt;0.5, 0, 1), IF(Table1[in_play_stein], 1, 0), IF(Table1[stein_split_needed_pure]&lt;=Table1[[#This Row],[stein_split_needed_pure]], Table1[electoral_votes], 0)))</f>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AO27" s="51">
         <f t="array" ref="AO27">IF(NOT(Table1[[#This Row],[in_play_johnson]]), 0, SUMPRODUCT(IF(Table1[johnson_split_needed_pure]&lt;0.5, 0, 1), IF(Table1[in_play_johnson], 1, 0), IF(Table1[johnson_split_needed_pure]&lt;=Table1[[#This Row],[johnson_split_needed_pure]], Table1[electoral_votes], 0)))</f>
@@ -6863,15 +6863,15 @@
       </c>
       <c r="AR27" s="44">
         <f>adjusted_electors_clinton_with_johnson_only+Table1[[#This Row],[electors_with_split_stein_added]]+Table1[[#This Row],[electors_with_split_stein_dropped]]</f>
-        <v>233</v>
+        <v>325</v>
       </c>
       <c r="AS27" s="44">
         <f>adjusted_electors_clinton_with_stein_only+Table1[[#This Row],[electors_with_split_johnson_added]]+Table1[[#This Row],[electors_with_split_johnson_dropped]]</f>
         <v>233</v>
       </c>
-      <c r="AT27" s="30" t="str">
+      <c r="AT27" s="30">
         <f>IF(AND(Table1[[#This Row],[in_play_stein]],Table1[[#This Row],[electors_with_split_stein]]&gt;=270),Table1[[#This Row],[stein_split_needed_pure]],"")</f>
-        <v/>
+        <v>0.91146703623044845</v>
       </c>
       <c r="AU27" s="45" t="str">
         <f>IF(AND(Table1[[#This Row],[in_play_johnson]],Table1[[#This Row],[electors_with_split_johnson]]&gt;=270),Table1[[#This Row],[johnson_split_needed_pure]],"")</f>
@@ -6930,55 +6930,55 @@
       </c>
       <c r="L28" s="12">
         <f>pct_stein_to_clinton*Table1[[#This Row],[orig_vote_stein]]</f>
-        <v>4918.5</v>
+        <v>3934.8</v>
       </c>
       <c r="M28" s="12">
         <f>pct_stein_to_trump*Table1[[#This Row],[orig_vote_stein]]</f>
-        <v>4918.5</v>
+        <v>5902.2</v>
       </c>
       <c r="N28" s="12">
         <f>pct_johnson_to_clinton*Table1[[#This Row],[orig_vote_johnson]]</f>
-        <v>14759</v>
+        <v>26566.2</v>
       </c>
       <c r="O28" s="12">
         <f>pct_johnson_to_trump*Table1[[#This Row],[orig_vote_johnson]]</f>
-        <v>14759</v>
+        <v>2951.7999999999993</v>
       </c>
       <c r="P28" s="12">
         <f>Table1[[#This Row],[orig_vote_clinton]]+Table1[[#This Row],[stein_votes_to_clinton]]</f>
-        <v>383647.5</v>
+        <v>382663.8</v>
       </c>
       <c r="Q28" s="12">
         <f>Table1[[#This Row],[orig_vote_trump]]+Table1[[#This Row],[stein_votes_to_trump]]</f>
-        <v>682822.5</v>
+        <v>683806.2</v>
       </c>
       <c r="R28" s="12">
         <f>Table1[[#This Row],[orig_vote_clinton]]+Table1[[#This Row],[johnson_votes_to_clinton]]</f>
-        <v>393488</v>
+        <v>405295.2</v>
       </c>
       <c r="S28" s="12">
         <f>Table1[[#This Row],[orig_vote_trump]]+Table1[[#This Row],[johnson_votes_to_trump]]</f>
-        <v>692663</v>
+        <v>680855.8</v>
       </c>
       <c r="T28" s="11">
         <f>Table1[[#This Row],[orig_vote_clinton]]+Table1[[#This Row],[stein_votes_to_clinton]]+Table1[[#This Row],[johnson_votes_to_clinton]]</f>
-        <v>398406.5</v>
+        <v>409230</v>
       </c>
       <c r="U28" s="11">
         <f>Table1[[#This Row],[orig_vote_trump]]+Table1[[#This Row],[stein_votes_to_trump]]+Table1[[#This Row],[johnson_votes_to_trump]]</f>
-        <v>697581.5</v>
+        <v>686758</v>
       </c>
       <c r="V28" s="11">
         <f>Table1[[#This Row],[adjusted_vote_clinton_with_stein_only]]-Table1[[#This Row],[adjusted_vote_trump_with_stein_only]]</f>
-        <v>-299175</v>
+        <v>-301142.39999999997</v>
       </c>
       <c r="W28" s="11">
         <f>Table1[[#This Row],[adjusted_vote_clinton_with_johnson_only]]-Table1[[#This Row],[adjusted_vote_trump_with_johnson_only]]</f>
-        <v>-299175</v>
+        <v>-275560.60000000003</v>
       </c>
       <c r="X28" s="12">
         <f>Table1[[#This Row],[adjusted_vote_clinton]]-Table1[[#This Row],[adjusted_vote_trump]]</f>
-        <v>-299175</v>
+        <v>-277528</v>
       </c>
       <c r="Y28" s="12">
         <f>IF(Table1[[#This Row],[adjusted_spread_with_stein_only]]&gt;0,Table1[[#This Row],[electoral_votes]],0)</f>
@@ -7022,11 +7022,11 @@
       </c>
       <c r="AI28" s="30">
         <f>IF(Table1[[#This Row],[orig_vote_stein]]=0,"",(1-Table1[[#This Row],[adjusted_spread_with_johnson_only]]/Table1[[#This Row],[orig_vote_stein]])/2)</f>
-        <v>15.706617871302226</v>
+        <v>14.506333231676326</v>
       </c>
       <c r="AJ28" s="30">
         <f>(1-Table1[[#This Row],[adjusted_spread_with_stein_only]]/Table1[[#This Row],[orig_vote_johnson]])/2</f>
-        <v>5.5676705738871197</v>
+        <v>5.6009960024391887</v>
       </c>
       <c r="AK28" s="30" t="b">
         <f>AND(Table1[[#This Row],[stein_split_needed_pure]]&gt;=0,Table1[[#This Row],[stein_split_needed_pure]]&lt;=1)</f>
@@ -7058,7 +7058,7 @@
       </c>
       <c r="AR28" s="44">
         <f>adjusted_electors_clinton_with_johnson_only+Table1[[#This Row],[electors_with_split_stein_added]]+Table1[[#This Row],[electors_with_split_stein_dropped]]</f>
-        <v>233</v>
+        <v>314</v>
       </c>
       <c r="AS28" s="44">
         <f>adjusted_electors_clinton_with_stein_only+Table1[[#This Row],[electors_with_split_johnson_added]]+Table1[[#This Row],[electors_with_split_johnson_dropped]]</f>
@@ -7125,55 +7125,55 @@
       </c>
       <c r="L29" s="12">
         <f>pct_stein_to_clinton*Table1[[#This Row],[orig_vote_stein]]</f>
-        <v>107847</v>
+        <v>86277.6</v>
       </c>
       <c r="M29" s="12">
         <f>pct_stein_to_trump*Table1[[#This Row],[orig_vote_stein]]</f>
-        <v>107847</v>
+        <v>129416.4</v>
       </c>
       <c r="N29" s="12">
         <f>pct_johnson_to_clinton*Table1[[#This Row],[orig_vote_johnson]]</f>
-        <v>197119.5</v>
+        <v>354815.10000000003</v>
       </c>
       <c r="O29" s="12">
         <f>pct_johnson_to_trump*Table1[[#This Row],[orig_vote_johnson]]</f>
-        <v>197119.5</v>
+        <v>39423.899999999994</v>
       </c>
       <c r="P29" s="12">
         <f>Table1[[#This Row],[orig_vote_clinton]]+Table1[[#This Row],[stein_votes_to_clinton]]</f>
-        <v>7338546</v>
+        <v>7316976.5999999996</v>
       </c>
       <c r="Q29" s="12">
         <f>Table1[[#This Row],[orig_vote_trump]]+Table1[[#This Row],[stein_votes_to_trump]]</f>
-        <v>3948981</v>
+        <v>3970550.4</v>
       </c>
       <c r="R29" s="12">
         <f>Table1[[#This Row],[orig_vote_clinton]]+Table1[[#This Row],[johnson_votes_to_clinton]]</f>
-        <v>7427818.5</v>
+        <v>7585514.0999999996</v>
       </c>
       <c r="S29" s="12">
         <f>Table1[[#This Row],[orig_vote_trump]]+Table1[[#This Row],[johnson_votes_to_trump]]</f>
-        <v>4038253.5</v>
+        <v>3880557.9</v>
       </c>
       <c r="T29" s="11">
         <f>Table1[[#This Row],[orig_vote_clinton]]+Table1[[#This Row],[stein_votes_to_clinton]]+Table1[[#This Row],[johnson_votes_to_clinton]]</f>
-        <v>7535665.5</v>
+        <v>7671791.6999999993</v>
       </c>
       <c r="U29" s="11">
         <f>Table1[[#This Row],[orig_vote_trump]]+Table1[[#This Row],[stein_votes_to_trump]]+Table1[[#This Row],[johnson_votes_to_trump]]</f>
-        <v>4146100.5</v>
+        <v>4009974.3</v>
       </c>
       <c r="V29" s="11">
         <f>Table1[[#This Row],[adjusted_vote_clinton_with_stein_only]]-Table1[[#This Row],[adjusted_vote_trump_with_stein_only]]</f>
-        <v>3389565</v>
+        <v>3346426.1999999997</v>
       </c>
       <c r="W29" s="11">
         <f>Table1[[#This Row],[adjusted_vote_clinton_with_johnson_only]]-Table1[[#This Row],[adjusted_vote_trump_with_johnson_only]]</f>
-        <v>3389565</v>
+        <v>3704956.1999999997</v>
       </c>
       <c r="X29" s="12">
         <f>Table1[[#This Row],[adjusted_vote_clinton]]-Table1[[#This Row],[adjusted_vote_trump]]</f>
-        <v>3389565</v>
+        <v>3661817.3999999994</v>
       </c>
       <c r="Y29" s="12">
         <f>IF(Table1[[#This Row],[adjusted_spread_with_stein_only]]&gt;0,Table1[[#This Row],[electoral_votes]],0)</f>
@@ -7217,11 +7217,11 @@
       </c>
       <c r="AI29" s="30">
         <f>IF(Table1[[#This Row],[orig_vote_stein]]=0,"",(1-Table1[[#This Row],[adjusted_spread_with_johnson_only]]/Table1[[#This Row],[orig_vote_stein]])/2)</f>
-        <v>-7.3573465186792397</v>
+        <v>-8.0884544771759987</v>
       </c>
       <c r="AJ29" s="30">
         <f>(1-Table1[[#This Row],[adjusted_spread_with_stein_only]]/Table1[[#This Row],[orig_vote_johnson]])/2</f>
-        <v>-3.7988707357719553</v>
+        <v>-3.7441592536507038</v>
       </c>
       <c r="AK29" s="30" t="b">
         <f>AND(Table1[[#This Row],[stein_split_needed_pure]]&gt;=0,Table1[[#This Row],[stein_split_needed_pure]]&lt;=1)</f>
@@ -7253,7 +7253,7 @@
       </c>
       <c r="AR29" s="44">
         <f>adjusted_electors_clinton_with_johnson_only+Table1[[#This Row],[electors_with_split_stein_added]]+Table1[[#This Row],[electors_with_split_stein_dropped]]</f>
-        <v>233</v>
+        <v>314</v>
       </c>
       <c r="AS29" s="44">
         <f>adjusted_electors_clinton_with_stein_only+Table1[[#This Row],[electors_with_split_johnson_added]]+Table1[[#This Row],[electors_with_split_johnson_dropped]]</f>
@@ -7320,55 +7320,55 @@
       </c>
       <c r="L30" s="12">
         <f>pct_stein_to_clinton*Table1[[#This Row],[orig_vote_stein]]</f>
-        <v>16573.5</v>
+        <v>13258.800000000001</v>
       </c>
       <c r="M30" s="12">
         <f>pct_stein_to_trump*Table1[[#This Row],[orig_vote_stein]]</f>
-        <v>16573.5</v>
+        <v>19888.2</v>
       </c>
       <c r="N30" s="12">
         <f>pct_johnson_to_clinton*Table1[[#This Row],[orig_vote_johnson]]</f>
-        <v>64725.5</v>
+        <v>116505.90000000001</v>
       </c>
       <c r="O30" s="12">
         <f>pct_johnson_to_trump*Table1[[#This Row],[orig_vote_johnson]]</f>
-        <v>64725.5</v>
+        <v>12945.099999999997</v>
       </c>
       <c r="P30" s="12">
         <f>Table1[[#This Row],[orig_vote_clinton]]+Table1[[#This Row],[stein_votes_to_clinton]]</f>
-        <v>1228782.5</v>
+        <v>1225467.8</v>
       </c>
       <c r="Q30" s="12">
         <f>Table1[[#This Row],[orig_vote_trump]]+Table1[[#This Row],[stein_votes_to_trump]]</f>
-        <v>1154028.5</v>
+        <v>1157343.2</v>
       </c>
       <c r="R30" s="12">
         <f>Table1[[#This Row],[orig_vote_clinton]]+Table1[[#This Row],[johnson_votes_to_clinton]]</f>
-        <v>1276934.5</v>
+        <v>1328714.8999999999</v>
       </c>
       <c r="S30" s="12">
         <f>Table1[[#This Row],[orig_vote_trump]]+Table1[[#This Row],[johnson_votes_to_trump]]</f>
-        <v>1202180.5</v>
+        <v>1150400.1000000001</v>
       </c>
       <c r="T30" s="11">
         <f>Table1[[#This Row],[orig_vote_clinton]]+Table1[[#This Row],[stein_votes_to_clinton]]+Table1[[#This Row],[johnson_votes_to_clinton]]</f>
-        <v>1293508</v>
+        <v>1341973.7</v>
       </c>
       <c r="U30" s="11">
         <f>Table1[[#This Row],[orig_vote_trump]]+Table1[[#This Row],[stein_votes_to_trump]]+Table1[[#This Row],[johnson_votes_to_trump]]</f>
-        <v>1218754</v>
+        <v>1170288.3</v>
       </c>
       <c r="V30" s="11">
         <f>Table1[[#This Row],[adjusted_vote_clinton_with_stein_only]]-Table1[[#This Row],[adjusted_vote_trump_with_stein_only]]</f>
-        <v>74754</v>
+        <v>68124.600000000093</v>
       </c>
       <c r="W30" s="11">
         <f>Table1[[#This Row],[adjusted_vote_clinton_with_johnson_only]]-Table1[[#This Row],[adjusted_vote_trump_with_johnson_only]]</f>
-        <v>74754</v>
+        <v>178314.79999999981</v>
       </c>
       <c r="X30" s="12">
         <f>Table1[[#This Row],[adjusted_vote_clinton]]-Table1[[#This Row],[adjusted_vote_trump]]</f>
-        <v>74754</v>
+        <v>171685.39999999991</v>
       </c>
       <c r="Y30" s="12">
         <f>IF(Table1[[#This Row],[adjusted_spread_with_stein_only]]&gt;0,Table1[[#This Row],[electoral_votes]],0)</f>
@@ -7412,11 +7412,11 @@
       </c>
       <c r="AI30" s="30">
         <f>IF(Table1[[#This Row],[orig_vote_stein]]=0,"",(1-Table1[[#This Row],[adjusted_spread_with_johnson_only]]/Table1[[#This Row],[orig_vote_stein]])/2)</f>
-        <v>-0.62761335867499324</v>
+        <v>-2.1897577457990138</v>
       </c>
       <c r="AJ30" s="30">
         <f>(1-Table1[[#This Row],[adjusted_spread_with_stein_only]]/Table1[[#This Row],[orig_vote_johnson]])/2</f>
-        <v>0.2112652663942341</v>
+        <v>0.23687109408193024</v>
       </c>
       <c r="AK30" s="30" t="b">
         <f>AND(Table1[[#This Row],[stein_split_needed_pure]]&gt;=0,Table1[[#This Row],[stein_split_needed_pure]]&lt;=1)</f>
@@ -7448,7 +7448,7 @@
       </c>
       <c r="AR30" s="44">
         <f>adjusted_electors_clinton_with_johnson_only+Table1[[#This Row],[electors_with_split_stein_added]]+Table1[[#This Row],[electors_with_split_stein_dropped]]</f>
-        <v>233</v>
+        <v>314</v>
       </c>
       <c r="AS30" s="44">
         <f>adjusted_electors_clinton_with_stein_only+Table1[[#This Row],[electors_with_split_johnson_added]]+Table1[[#This Row],[electors_with_split_johnson_dropped]]</f>
@@ -7515,55 +7515,55 @@
       </c>
       <c r="L31" s="12">
         <f>pct_stein_to_clinton*Table1[[#This Row],[orig_vote_stein]]</f>
-        <v>11396.5</v>
+        <v>9117.2000000000007</v>
       </c>
       <c r="M31" s="12">
         <f>pct_stein_to_trump*Table1[[#This Row],[orig_vote_stein]]</f>
-        <v>11396.5</v>
+        <v>13675.8</v>
       </c>
       <c r="N31" s="12">
         <f>pct_johnson_to_clinton*Table1[[#This Row],[orig_vote_johnson]]</f>
-        <v>24025.5</v>
+        <v>43245.9</v>
       </c>
       <c r="O31" s="12">
         <f>pct_johnson_to_trump*Table1[[#This Row],[orig_vote_johnson]]</f>
-        <v>24025.5</v>
+        <v>4805.0999999999985</v>
       </c>
       <c r="P31" s="12">
         <f>Table1[[#This Row],[orig_vote_clinton]]+Table1[[#This Row],[stein_votes_to_clinton]]</f>
-        <v>895828.5</v>
+        <v>893549.2</v>
       </c>
       <c r="Q31" s="12">
         <f>Table1[[#This Row],[orig_vote_trump]]+Table1[[#This Row],[stein_votes_to_trump]]</f>
-        <v>679662.5</v>
+        <v>681941.8</v>
       </c>
       <c r="R31" s="12">
         <f>Table1[[#This Row],[orig_vote_clinton]]+Table1[[#This Row],[johnson_votes_to_clinton]]</f>
-        <v>908457.5</v>
+        <v>927677.9</v>
       </c>
       <c r="S31" s="12">
         <f>Table1[[#This Row],[orig_vote_trump]]+Table1[[#This Row],[johnson_votes_to_trump]]</f>
-        <v>692291.5</v>
+        <v>673071.1</v>
       </c>
       <c r="T31" s="11">
         <f>Table1[[#This Row],[orig_vote_clinton]]+Table1[[#This Row],[stein_votes_to_clinton]]+Table1[[#This Row],[johnson_votes_to_clinton]]</f>
-        <v>919854</v>
+        <v>936795.1</v>
       </c>
       <c r="U31" s="11">
         <f>Table1[[#This Row],[orig_vote_trump]]+Table1[[#This Row],[stein_votes_to_trump]]+Table1[[#This Row],[johnson_votes_to_trump]]</f>
-        <v>703688</v>
+        <v>686746.9</v>
       </c>
       <c r="V31" s="11">
         <f>Table1[[#This Row],[adjusted_vote_clinton_with_stein_only]]-Table1[[#This Row],[adjusted_vote_trump_with_stein_only]]</f>
-        <v>216166</v>
+        <v>211607.39999999991</v>
       </c>
       <c r="W31" s="11">
         <f>Table1[[#This Row],[adjusted_vote_clinton_with_johnson_only]]-Table1[[#This Row],[adjusted_vote_trump_with_johnson_only]]</f>
-        <v>216166</v>
+        <v>254606.80000000005</v>
       </c>
       <c r="X31" s="12">
         <f>Table1[[#This Row],[adjusted_vote_clinton]]-Table1[[#This Row],[adjusted_vote_trump]]</f>
-        <v>216166</v>
+        <v>250048.19999999995</v>
       </c>
       <c r="Y31" s="12">
         <f>IF(Table1[[#This Row],[adjusted_spread_with_stein_only]]&gt;0,Table1[[#This Row],[electoral_votes]],0)</f>
@@ -7607,11 +7607,11 @@
       </c>
       <c r="AI31" s="30">
         <f>IF(Table1[[#This Row],[orig_vote_stein]]=0,"",(1-Table1[[#This Row],[adjusted_spread_with_johnson_only]]/Table1[[#This Row],[orig_vote_stein]])/2)</f>
-        <v>-4.24193831439477</v>
+        <v>-5.0851972096696363</v>
       </c>
       <c r="AJ31" s="30">
         <f>(1-Table1[[#This Row],[adjusted_spread_with_stein_only]]/Table1[[#This Row],[orig_vote_johnson]])/2</f>
-        <v>-1.7493392437202138</v>
+        <v>-1.7019042267590674</v>
       </c>
       <c r="AK31" s="30" t="b">
         <f>AND(Table1[[#This Row],[stein_split_needed_pure]]&gt;=0,Table1[[#This Row],[stein_split_needed_pure]]&lt;=1)</f>
@@ -7643,7 +7643,7 @@
       </c>
       <c r="AR31" s="44">
         <f>adjusted_electors_clinton_with_johnson_only+Table1[[#This Row],[electors_with_split_stein_added]]+Table1[[#This Row],[electors_with_split_stein_dropped]]</f>
-        <v>233</v>
+        <v>314</v>
       </c>
       <c r="AS31" s="44">
         <f>adjusted_electors_clinton_with_stein_only+Table1[[#This Row],[electors_with_split_johnson_added]]+Table1[[#This Row],[electors_with_split_johnson_dropped]]</f>
@@ -7710,55 +7710,55 @@
       </c>
       <c r="L32" s="12">
         <f>pct_stein_to_clinton*Table1[[#This Row],[orig_vote_stein]]</f>
-        <v>1997.5</v>
+        <v>1598</v>
       </c>
       <c r="M32" s="12">
         <f>pct_stein_to_trump*Table1[[#This Row],[orig_vote_stein]]</f>
-        <v>1997.5</v>
+        <v>2397</v>
       </c>
       <c r="N32" s="12">
         <f>pct_johnson_to_clinton*Table1[[#This Row],[orig_vote_johnson]]</f>
-        <v>2250.5</v>
+        <v>4050.9</v>
       </c>
       <c r="O32" s="12">
         <f>pct_johnson_to_trump*Table1[[#This Row],[orig_vote_johnson]]</f>
-        <v>2250.5</v>
+        <v>450.09999999999991</v>
       </c>
       <c r="P32" s="12">
         <f>Table1[[#This Row],[orig_vote_clinton]]+Table1[[#This Row],[stein_votes_to_clinton]]</f>
-        <v>262220.5</v>
+        <v>261821</v>
       </c>
       <c r="Q32" s="12">
         <f>Table1[[#This Row],[orig_vote_trump]]+Table1[[#This Row],[stein_votes_to_trump]]</f>
-        <v>13550.5</v>
+        <v>13950</v>
       </c>
       <c r="R32" s="12">
         <f>Table1[[#This Row],[orig_vote_clinton]]+Table1[[#This Row],[johnson_votes_to_clinton]]</f>
-        <v>262473.5</v>
+        <v>264273.90000000002</v>
       </c>
       <c r="S32" s="12">
         <f>Table1[[#This Row],[orig_vote_trump]]+Table1[[#This Row],[johnson_votes_to_trump]]</f>
-        <v>13803.5</v>
+        <v>12003.1</v>
       </c>
       <c r="T32" s="11">
         <f>Table1[[#This Row],[orig_vote_clinton]]+Table1[[#This Row],[stein_votes_to_clinton]]+Table1[[#This Row],[johnson_votes_to_clinton]]</f>
-        <v>264471</v>
+        <v>265871.90000000002</v>
       </c>
       <c r="U32" s="11">
         <f>Table1[[#This Row],[orig_vote_trump]]+Table1[[#This Row],[stein_votes_to_trump]]+Table1[[#This Row],[johnson_votes_to_trump]]</f>
-        <v>15801</v>
+        <v>14400.1</v>
       </c>
       <c r="V32" s="11">
         <f>Table1[[#This Row],[adjusted_vote_clinton_with_stein_only]]-Table1[[#This Row],[adjusted_vote_trump_with_stein_only]]</f>
-        <v>248670</v>
+        <v>247871</v>
       </c>
       <c r="W32" s="11">
         <f>Table1[[#This Row],[adjusted_vote_clinton_with_johnson_only]]-Table1[[#This Row],[adjusted_vote_trump_with_johnson_only]]</f>
-        <v>248670</v>
+        <v>252270.80000000002</v>
       </c>
       <c r="X32" s="12">
         <f>Table1[[#This Row],[adjusted_vote_clinton]]-Table1[[#This Row],[adjusted_vote_trump]]</f>
-        <v>248670</v>
+        <v>251471.80000000002</v>
       </c>
       <c r="Y32" s="12">
         <f>IF(Table1[[#This Row],[adjusted_spread_with_stein_only]]&gt;0,Table1[[#This Row],[electoral_votes]],0)</f>
@@ -7802,11 +7802,11 @@
       </c>
       <c r="AI32" s="30">
         <f>IF(Table1[[#This Row],[orig_vote_stein]]=0,"",(1-Table1[[#This Row],[adjusted_spread_with_johnson_only]]/Table1[[#This Row],[orig_vote_stein]])/2)</f>
-        <v>-30.622653316645806</v>
+        <v>-31.07331664580726</v>
       </c>
       <c r="AJ32" s="30">
         <f>(1-Table1[[#This Row],[adjusted_spread_with_stein_only]]/Table1[[#This Row],[orig_vote_johnson]])/2</f>
-        <v>-27.123861364141302</v>
+        <v>-27.035103310375472</v>
       </c>
       <c r="AK32" s="30" t="b">
         <f>AND(Table1[[#This Row],[stein_split_needed_pure]]&gt;=0,Table1[[#This Row],[stein_split_needed_pure]]&lt;=1)</f>
@@ -7838,7 +7838,7 @@
       </c>
       <c r="AR32" s="44">
         <f>adjusted_electors_clinton_with_johnson_only+Table1[[#This Row],[electors_with_split_stein_added]]+Table1[[#This Row],[electors_with_split_stein_dropped]]</f>
-        <v>233</v>
+        <v>314</v>
       </c>
       <c r="AS32" s="44">
         <f>adjusted_electors_clinton_with_stein_only+Table1[[#This Row],[electors_with_split_johnson_added]]+Table1[[#This Row],[electors_with_split_johnson_dropped]]</f>
@@ -7905,55 +7905,55 @@
       </c>
       <c r="L33" s="12">
         <f>pct_stein_to_clinton*Table1[[#This Row],[orig_vote_stein]]</f>
-        <v>3050</v>
+        <v>2440</v>
       </c>
       <c r="M33" s="12">
         <f>pct_stein_to_trump*Table1[[#This Row],[orig_vote_stein]]</f>
-        <v>3050</v>
+        <v>3660</v>
       </c>
       <c r="N33" s="12">
         <f>pct_johnson_to_clinton*Table1[[#This Row],[orig_vote_johnson]]</f>
-        <v>7375.5</v>
+        <v>13275.9</v>
       </c>
       <c r="O33" s="12">
         <f>pct_johnson_to_trump*Table1[[#This Row],[orig_vote_johnson]]</f>
-        <v>7375.5</v>
+        <v>1475.0999999999997</v>
       </c>
       <c r="P33" s="12">
         <f>Table1[[#This Row],[orig_vote_clinton]]+Table1[[#This Row],[stein_votes_to_clinton]]</f>
-        <v>238631</v>
+        <v>238021</v>
       </c>
       <c r="Q33" s="12">
         <f>Table1[[#This Row],[orig_vote_trump]]+Table1[[#This Row],[stein_votes_to_trump]]</f>
-        <v>188153</v>
+        <v>188763</v>
       </c>
       <c r="R33" s="12">
         <f>Table1[[#This Row],[orig_vote_clinton]]+Table1[[#This Row],[johnson_votes_to_clinton]]</f>
-        <v>242956.5</v>
+        <v>248856.9</v>
       </c>
       <c r="S33" s="12">
         <f>Table1[[#This Row],[orig_vote_trump]]+Table1[[#This Row],[johnson_votes_to_trump]]</f>
-        <v>192478.5</v>
+        <v>186578.1</v>
       </c>
       <c r="T33" s="11">
         <f>Table1[[#This Row],[orig_vote_clinton]]+Table1[[#This Row],[stein_votes_to_clinton]]+Table1[[#This Row],[johnson_votes_to_clinton]]</f>
-        <v>246006.5</v>
+        <v>251296.9</v>
       </c>
       <c r="U33" s="11">
         <f>Table1[[#This Row],[orig_vote_trump]]+Table1[[#This Row],[stein_votes_to_trump]]+Table1[[#This Row],[johnson_votes_to_trump]]</f>
-        <v>195528.5</v>
+        <v>190238.1</v>
       </c>
       <c r="V33" s="11">
         <f>Table1[[#This Row],[adjusted_vote_clinton_with_stein_only]]-Table1[[#This Row],[adjusted_vote_trump_with_stein_only]]</f>
-        <v>50478</v>
+        <v>49258</v>
       </c>
       <c r="W33" s="11">
         <f>Table1[[#This Row],[adjusted_vote_clinton_with_johnson_only]]-Table1[[#This Row],[adjusted_vote_trump_with_johnson_only]]</f>
-        <v>50478</v>
+        <v>62278.799999999988</v>
       </c>
       <c r="X33" s="12">
         <f>Table1[[#This Row],[adjusted_vote_clinton]]-Table1[[#This Row],[adjusted_vote_trump]]</f>
-        <v>50478</v>
+        <v>61058.799999999988</v>
       </c>
       <c r="Y33" s="12">
         <f>IF(Table1[[#This Row],[adjusted_spread_with_stein_only]]&gt;0,Table1[[#This Row],[electoral_votes]],0)</f>
@@ -7997,11 +7997,11 @@
       </c>
       <c r="AI33" s="30">
         <f>IF(Table1[[#This Row],[orig_vote_stein]]=0,"",(1-Table1[[#This Row],[adjusted_spread_with_johnson_only]]/Table1[[#This Row],[orig_vote_stein]])/2)</f>
-        <v>-3.6375409836065575</v>
+        <v>-4.6048196721311463</v>
       </c>
       <c r="AJ33" s="30">
         <f>(1-Table1[[#This Row],[adjusted_spread_with_stein_only]]/Table1[[#This Row],[orig_vote_johnson]])/2</f>
-        <v>-1.2110026438885499</v>
+        <v>-1.1696495152870992</v>
       </c>
       <c r="AK33" s="30" t="b">
         <f>AND(Table1[[#This Row],[stein_split_needed_pure]]&gt;=0,Table1[[#This Row],[stein_split_needed_pure]]&lt;=1)</f>
@@ -8033,7 +8033,7 @@
       </c>
       <c r="AR33" s="44">
         <f>adjusted_electors_clinton_with_johnson_only+Table1[[#This Row],[electors_with_split_stein_added]]+Table1[[#This Row],[electors_with_split_stein_dropped]]</f>
-        <v>233</v>
+        <v>314</v>
       </c>
       <c r="AS33" s="44">
         <f>adjusted_electors_clinton_with_stein_only+Table1[[#This Row],[electors_with_split_johnson_added]]+Table1[[#This Row],[electors_with_split_johnson_dropped]]</f>
@@ -8100,55 +8100,55 @@
       </c>
       <c r="L34" s="12">
         <f>pct_stein_to_clinton*Table1[[#This Row],[orig_vote_stein]]</f>
-        <v>32009.5</v>
+        <v>25607.600000000002</v>
       </c>
       <c r="M34" s="12">
         <f>pct_stein_to_trump*Table1[[#This Row],[orig_vote_stein]]</f>
-        <v>32009.5</v>
+        <v>38411.4</v>
       </c>
       <c r="N34" s="12">
         <f>pct_johnson_to_clinton*Table1[[#This Row],[orig_vote_johnson]]</f>
-        <v>103003.5</v>
+        <v>185406.30000000002</v>
       </c>
       <c r="O34" s="12">
         <f>pct_johnson_to_trump*Table1[[#This Row],[orig_vote_johnson]]</f>
-        <v>103003.5</v>
+        <v>20600.699999999997</v>
       </c>
       <c r="P34" s="12">
         <f>Table1[[#This Row],[orig_vote_clinton]]+Table1[[#This Row],[stein_votes_to_clinton]]</f>
-        <v>4517754.5</v>
+        <v>4511352.5999999996</v>
       </c>
       <c r="Q34" s="12">
         <f>Table1[[#This Row],[orig_vote_trump]]+Table1[[#This Row],[stein_votes_to_trump]]</f>
-        <v>4637524.5</v>
+        <v>4643926.4000000004</v>
       </c>
       <c r="R34" s="12">
         <f>Table1[[#This Row],[orig_vote_clinton]]+Table1[[#This Row],[johnson_votes_to_clinton]]</f>
-        <v>4588748.5</v>
+        <v>4671151.3</v>
       </c>
       <c r="S34" s="12">
         <f>Table1[[#This Row],[orig_vote_trump]]+Table1[[#This Row],[johnson_votes_to_trump]]</f>
-        <v>4708518.5</v>
+        <v>4626115.7</v>
       </c>
       <c r="T34" s="11">
         <f>Table1[[#This Row],[orig_vote_clinton]]+Table1[[#This Row],[stein_votes_to_clinton]]+Table1[[#This Row],[johnson_votes_to_clinton]]</f>
-        <v>4620758</v>
+        <v>4696758.8999999994</v>
       </c>
       <c r="U34" s="11">
         <f>Table1[[#This Row],[orig_vote_trump]]+Table1[[#This Row],[stein_votes_to_trump]]+Table1[[#This Row],[johnson_votes_to_trump]]</f>
-        <v>4740528</v>
+        <v>4664527.1000000006</v>
       </c>
       <c r="V34" s="11">
         <f>Table1[[#This Row],[adjusted_vote_clinton_with_stein_only]]-Table1[[#This Row],[adjusted_vote_trump_with_stein_only]]</f>
-        <v>-119770</v>
+        <v>-132573.80000000075</v>
       </c>
       <c r="W34" s="11">
         <f>Table1[[#This Row],[adjusted_vote_clinton_with_johnson_only]]-Table1[[#This Row],[adjusted_vote_trump_with_johnson_only]]</f>
-        <v>-119770</v>
+        <v>45035.599999999627</v>
       </c>
       <c r="X34" s="12">
         <f>Table1[[#This Row],[adjusted_vote_clinton]]-Table1[[#This Row],[adjusted_vote_trump]]</f>
-        <v>-119770</v>
+        <v>32231.799999998882</v>
       </c>
       <c r="Y34" s="12">
         <f>IF(Table1[[#This Row],[adjusted_spread_with_stein_only]]&gt;0,Table1[[#This Row],[electoral_votes]],0)</f>
@@ -8156,15 +8156,15 @@
       </c>
       <c r="Z34" s="12">
         <f>IF(Table1[[#This Row],[adjusted_spread_with_johnson_only]]&gt;0,Table1[[#This Row],[electoral_votes]],0)</f>
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AA34" s="11">
         <f>IF(Table1[[#This Row],[adjusted_spread]]&gt;0,Table1[[#This Row],[electoral_votes]],0)</f>
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AB34" s="12">
         <f>IF(Table1[[#This Row],[adjusted_spread]]&lt;0,Table1[[#This Row],[electoral_votes]],0)</f>
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="AC34" s="12" t="str">
         <f>IF(Table1[[#This Row],[orig_spread]]&lt;0,"Trump",IF(Table1[[#This Row],[orig_spread]]&gt;0,"Clinton",""))</f>
@@ -8172,11 +8172,11 @@
       </c>
       <c r="AD34" s="12" t="str">
         <f>IF(Table1[[#This Row],[adjusted_spread]]&lt;0,"Trump",IF(Table1[[#This Row],[adjusted_spread]]&gt;0,"Clinton",""))</f>
-        <v>Trump</v>
+        <v>Clinton</v>
       </c>
       <c r="AE34" s="11" t="b">
         <f>AND(Table1[[#This Row],[orig_outcome]]="Trump",Table1[[#This Row],[adjusted_outcome]]="Clinton")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF34" s="11" t="b">
         <f>AND(Table1[[#This Row],[orig_outcome]]="Clinton",Table1[[#This Row],[adjusted_outcome]]="Trump")</f>
@@ -8184,7 +8184,7 @@
       </c>
       <c r="AG34" s="11" t="str">
         <f>IF(Table1[[#This Row],[index]]=1,IF(Table1[[#This Row],[pickup_clinton]],Table1[[#This Row],[State]],""),IF(Table1[[#This Row],[pickup_clinton]],CONCATENATE(AG33,IF(AG33="","",","),Table1[[#This Row],[State]]),AG33))</f>
-        <v/>
+        <v>Florida</v>
       </c>
       <c r="AH34" s="11" t="str">
         <f>IF(Table1[[#This Row],[index]]=1,IF(Table1[[#This Row],[pickup_trump]],Table1[[#This Row],[State]],""),IF(Table1[[#This Row],[pickup_trump]],CONCATENATE(AH33,IF(W23="","",","),Table1[[#This Row],[State]]),AH33))</f>
@@ -8192,15 +8192,15 @@
       </c>
       <c r="AI34" s="30">
         <f>IF(Table1[[#This Row],[orig_vote_stein]]=0,"",(1-Table1[[#This Row],[adjusted_spread_with_johnson_only]]/Table1[[#This Row],[orig_vote_stein]])/2)</f>
-        <v>1.4354254205782659</v>
+        <v>0.14826379668536194</v>
       </c>
       <c r="AJ34" s="30">
         <f>(1-Table1[[#This Row],[adjusted_spread_with_stein_only]]/Table1[[#This Row],[orig_vote_johnson]])/2</f>
-        <v>0.790694005543501</v>
+        <v>0.82177013402457377</v>
       </c>
       <c r="AK34" s="30" t="b">
         <f>AND(Table1[[#This Row],[stein_split_needed_pure]]&gt;=0,Table1[[#This Row],[stein_split_needed_pure]]&lt;=1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL34" s="30" t="b">
         <f>AND(Table1[[#This Row],[johnson_split_needed_pure]]&gt;=0,Table1[[#This Row],[johnson_split_needed_pure]]&lt;=1)</f>
@@ -8220,7 +8220,7 @@
       </c>
       <c r="AP34" s="51">
         <f t="array" ref="AP34">IF(NOT(Table1[[#This Row],[in_play_stein]]), 0, SUMPRODUCT(IF(Table1[stein_split_needed_pure]&gt;0.5, 0, 1), IF(Table1[in_play_stein], 1, 0), IF(Table1[stein_split_needed_pure]&gt;=Table1[[#This Row],[stein_split_needed_pure]], -Table1[electoral_votes], 0)))</f>
-        <v>0</v>
+        <v>-35</v>
       </c>
       <c r="AQ34" s="51">
         <f t="array" ref="AQ34">IF(NOT(Table1[[#This Row],[in_play_johnson]]), 0, SUMPRODUCT(IF(Table1[johnson_split_needed_pure]&gt;0.5, 0, 1), IF(Table1[in_play_johnson], 1, 0), IF(Table1[johnson_split_needed_pure]&gt;=Table1[[#This Row],[johnson_split_needed_pure]], -Table1[electoral_votes], 0)))</f>
@@ -8228,19 +8228,19 @@
       </c>
       <c r="AR34" s="44">
         <f>adjusted_electors_clinton_with_johnson_only+Table1[[#This Row],[electors_with_split_stein_added]]+Table1[[#This Row],[electors_with_split_stein_dropped]]</f>
-        <v>233</v>
+        <v>279</v>
       </c>
       <c r="AS34" s="44">
         <f>adjusted_electors_clinton_with_stein_only+Table1[[#This Row],[electors_with_split_johnson_added]]+Table1[[#This Row],[electors_with_split_johnson_dropped]]</f>
         <v>308</v>
       </c>
-      <c r="AT34" s="30" t="str">
+      <c r="AT34" s="30">
         <f>IF(AND(Table1[[#This Row],[in_play_stein]],Table1[[#This Row],[electors_with_split_stein]]&gt;=270),Table1[[#This Row],[stein_split_needed_pure]],"")</f>
-        <v/>
+        <v>0.14826379668536194</v>
       </c>
       <c r="AU34" s="45">
         <f>IF(AND(Table1[[#This Row],[in_play_johnson]],Table1[[#This Row],[electors_with_split_johnson]]&gt;=270),Table1[[#This Row],[johnson_split_needed_pure]],"")</f>
-        <v>0.790694005543501</v>
+        <v>0.82177013402457377</v>
       </c>
       <c r="AV34" s="16">
         <f>IF(Table1[[#This Row],[stein_split_needed_pure]]="","",(Table1[[#This Row],[adjusted_vote_clinton_with_johnson_only]]+Table1[[#This Row],[stein_split_needed_pure]]*Table1[[#This Row],[orig_vote_stein]])-(Table1[[#This Row],[adjusted_vote_trump_with_johnson_only]]+(1-Table1[[#This Row],[stein_split_needed_pure]])*Table1[[#This Row],[orig_vote_stein]]))</f>
@@ -8303,11 +8303,11 @@
       </c>
       <c r="N35" s="12">
         <f>pct_johnson_to_clinton*Table1[[#This Row],[orig_vote_johnson]]</f>
-        <v>61820.5</v>
+        <v>111276.90000000001</v>
       </c>
       <c r="O35" s="12">
         <f>pct_johnson_to_trump*Table1[[#This Row],[orig_vote_johnson]]</f>
-        <v>61820.5</v>
+        <v>12364.099999999997</v>
       </c>
       <c r="P35" s="12">
         <f>Table1[[#This Row],[orig_vote_clinton]]+Table1[[#This Row],[stein_votes_to_clinton]]</f>
@@ -8319,19 +8319,19 @@
       </c>
       <c r="R35" s="12">
         <f>Table1[[#This Row],[orig_vote_clinton]]+Table1[[#This Row],[johnson_votes_to_clinton]]</f>
-        <v>1899120.5</v>
+        <v>1948576.9</v>
       </c>
       <c r="S35" s="12">
         <f>Table1[[#This Row],[orig_vote_trump]]+Table1[[#This Row],[johnson_votes_to_trump]]</f>
-        <v>2130443.5</v>
+        <v>2080987.1</v>
       </c>
       <c r="T35" s="11">
         <f>Table1[[#This Row],[orig_vote_clinton]]+Table1[[#This Row],[stein_votes_to_clinton]]+Table1[[#This Row],[johnson_votes_to_clinton]]</f>
-        <v>1899120.5</v>
+        <v>1948576.9</v>
       </c>
       <c r="U35" s="11">
         <f>Table1[[#This Row],[orig_vote_trump]]+Table1[[#This Row],[stein_votes_to_trump]]+Table1[[#This Row],[johnson_votes_to_trump]]</f>
-        <v>2130443.5</v>
+        <v>2080987.1</v>
       </c>
       <c r="V35" s="11">
         <f>Table1[[#This Row],[adjusted_vote_clinton_with_stein_only]]-Table1[[#This Row],[adjusted_vote_trump_with_stein_only]]</f>
@@ -8339,11 +8339,11 @@
       </c>
       <c r="W35" s="11">
         <f>Table1[[#This Row],[adjusted_vote_clinton_with_johnson_only]]-Table1[[#This Row],[adjusted_vote_trump_with_johnson_only]]</f>
-        <v>-231323</v>
+        <v>-132410.20000000019</v>
       </c>
       <c r="X35" s="12">
         <f>Table1[[#This Row],[adjusted_vote_clinton]]-Table1[[#This Row],[adjusted_vote_trump]]</f>
-        <v>-231323</v>
+        <v>-132410.20000000019</v>
       </c>
       <c r="Y35" s="12">
         <f>IF(Table1[[#This Row],[adjusted_spread_with_stein_only]]&gt;0,Table1[[#This Row],[electoral_votes]],0)</f>
@@ -8379,7 +8379,7 @@
       </c>
       <c r="AG35" s="11" t="str">
         <f>IF(Table1[[#This Row],[index]]=1,IF(Table1[[#This Row],[pickup_clinton]],Table1[[#This Row],[State]],""),IF(Table1[[#This Row],[pickup_clinton]],CONCATENATE(AG34,IF(AG34="","",","),Table1[[#This Row],[State]]),AG34))</f>
-        <v/>
+        <v>Florida</v>
       </c>
       <c r="AH35" s="11" t="str">
         <f>IF(Table1[[#This Row],[index]]=1,IF(Table1[[#This Row],[pickup_trump]],Table1[[#This Row],[State]],""),IF(Table1[[#This Row],[pickup_trump]],CONCATENATE(AH34,IF(AH24="","",","),Table1[[#This Row],[State]]),AH34))</f>
@@ -8423,7 +8423,7 @@
       </c>
       <c r="AR35" s="44">
         <f>adjusted_electors_clinton_with_johnson_only+Table1[[#This Row],[electors_with_split_stein_added]]+Table1[[#This Row],[electors_with_split_stein_dropped]]</f>
-        <v>233</v>
+        <v>314</v>
       </c>
       <c r="AS35" s="44">
         <f>adjusted_electors_clinton_with_stein_only+Table1[[#This Row],[electors_with_split_johnson_added]]+Table1[[#This Row],[electors_with_split_johnson_dropped]]</f>
@@ -8490,55 +8490,55 @@
       </c>
       <c r="L36" s="12">
         <f>pct_stein_to_clinton*Table1[[#This Row],[orig_vote_stein]]</f>
-        <v>6363.5</v>
+        <v>5090.8</v>
       </c>
       <c r="M36" s="12">
         <f>pct_stein_to_trump*Table1[[#This Row],[orig_vote_stein]]</f>
-        <v>6363.5</v>
+        <v>7636.2</v>
       </c>
       <c r="N36" s="12">
         <f>pct_johnson_to_clinton*Table1[[#This Row],[orig_vote_johnson]]</f>
-        <v>7974.5</v>
+        <v>14354.1</v>
       </c>
       <c r="O36" s="12">
         <f>pct_johnson_to_trump*Table1[[#This Row],[orig_vote_johnson]]</f>
-        <v>7974.5</v>
+        <v>1594.8999999999996</v>
       </c>
       <c r="P36" s="12">
         <f>Table1[[#This Row],[orig_vote_clinton]]+Table1[[#This Row],[stein_votes_to_clinton]]</f>
-        <v>273190.5</v>
+        <v>271917.8</v>
       </c>
       <c r="Q36" s="12">
         <f>Table1[[#This Row],[orig_vote_trump]]+Table1[[#This Row],[stein_votes_to_trump]]</f>
-        <v>135178.5</v>
+        <v>136451.20000000001</v>
       </c>
       <c r="R36" s="12">
         <f>Table1[[#This Row],[orig_vote_clinton]]+Table1[[#This Row],[johnson_votes_to_clinton]]</f>
-        <v>274801.5</v>
+        <v>281181.09999999998</v>
       </c>
       <c r="S36" s="12">
         <f>Table1[[#This Row],[orig_vote_trump]]+Table1[[#This Row],[johnson_votes_to_trump]]</f>
-        <v>136789.5</v>
+        <v>130409.9</v>
       </c>
       <c r="T36" s="11">
         <f>Table1[[#This Row],[orig_vote_clinton]]+Table1[[#This Row],[stein_votes_to_clinton]]+Table1[[#This Row],[johnson_votes_to_clinton]]</f>
-        <v>281165</v>
+        <v>286271.89999999997</v>
       </c>
       <c r="U36" s="11">
         <f>Table1[[#This Row],[orig_vote_trump]]+Table1[[#This Row],[stein_votes_to_trump]]+Table1[[#This Row],[johnson_votes_to_trump]]</f>
-        <v>143153</v>
+        <v>138046.1</v>
       </c>
       <c r="V36" s="11">
         <f>Table1[[#This Row],[adjusted_vote_clinton_with_stein_only]]-Table1[[#This Row],[adjusted_vote_trump_with_stein_only]]</f>
-        <v>138012</v>
+        <v>135466.59999999998</v>
       </c>
       <c r="W36" s="11">
         <f>Table1[[#This Row],[adjusted_vote_clinton_with_johnson_only]]-Table1[[#This Row],[adjusted_vote_trump_with_johnson_only]]</f>
-        <v>138012</v>
+        <v>150771.19999999998</v>
       </c>
       <c r="X36" s="12">
         <f>Table1[[#This Row],[adjusted_vote_clinton]]-Table1[[#This Row],[adjusted_vote_trump]]</f>
-        <v>138012</v>
+        <v>148225.79999999996</v>
       </c>
       <c r="Y36" s="12">
         <f>IF(Table1[[#This Row],[adjusted_spread_with_stein_only]]&gt;0,Table1[[#This Row],[electoral_votes]],0)</f>
@@ -8574,7 +8574,7 @@
       </c>
       <c r="AG36" s="11" t="str">
         <f>IF(Table1[[#This Row],[index]]=1,IF(Table1[[#This Row],[pickup_clinton]],Table1[[#This Row],[State]],""),IF(Table1[[#This Row],[pickup_clinton]],CONCATENATE(AG35,IF(AG35="","",","),Table1[[#This Row],[State]]),AG35))</f>
-        <v/>
+        <v>Florida</v>
       </c>
       <c r="AH36" s="11" t="str">
         <f>IF(Table1[[#This Row],[index]]=1,IF(Table1[[#This Row],[pickup_trump]],Table1[[#This Row],[State]],""),IF(Table1[[#This Row],[pickup_trump]],CONCATENATE(AH35,IF(AH25="","",","),Table1[[#This Row],[State]]),AH35))</f>
@@ -8582,11 +8582,11 @@
       </c>
       <c r="AI36" s="30">
         <f>IF(Table1[[#This Row],[orig_vote_stein]]=0,"",(1-Table1[[#This Row],[adjusted_spread_with_johnson_only]]/Table1[[#This Row],[orig_vote_stein]])/2)</f>
-        <v>-4.9220161860611302</v>
+        <v>-5.4232812131688526</v>
       </c>
       <c r="AJ36" s="30">
         <f>(1-Table1[[#This Row],[adjusted_spread_with_stein_only]]/Table1[[#This Row],[orig_vote_johnson]])/2</f>
-        <v>-3.8266662486676282</v>
+        <v>-3.7468681422032724</v>
       </c>
       <c r="AK36" s="30" t="b">
         <f>AND(Table1[[#This Row],[stein_split_needed_pure]]&gt;=0,Table1[[#This Row],[stein_split_needed_pure]]&lt;=1)</f>
@@ -8618,7 +8618,7 @@
       </c>
       <c r="AR36" s="44">
         <f>adjusted_electors_clinton_with_johnson_only+Table1[[#This Row],[electors_with_split_stein_added]]+Table1[[#This Row],[electors_with_split_stein_dropped]]</f>
-        <v>233</v>
+        <v>314</v>
       </c>
       <c r="AS36" s="44">
         <f>adjusted_electors_clinton_with_stein_only+Table1[[#This Row],[electors_with_split_johnson_added]]+Table1[[#This Row],[electors_with_split_johnson_dropped]]</f>
@@ -8685,55 +8685,55 @@
       </c>
       <c r="L37" s="12">
         <f>pct_stein_to_clinton*Table1[[#This Row],[orig_vote_stein]]</f>
-        <v>4232</v>
+        <v>3385.6000000000004</v>
       </c>
       <c r="M37" s="12">
         <f>pct_stein_to_trump*Table1[[#This Row],[orig_vote_stein]]</f>
-        <v>4232</v>
+        <v>5078.3999999999996</v>
       </c>
       <c r="N37" s="12">
         <f>pct_johnson_to_clinton*Table1[[#This Row],[orig_vote_johnson]]</f>
-        <v>14128</v>
+        <v>25430.400000000001</v>
       </c>
       <c r="O37" s="12">
         <f>pct_johnson_to_trump*Table1[[#This Row],[orig_vote_johnson]]</f>
-        <v>14128</v>
+        <v>2825.5999999999995</v>
       </c>
       <c r="P37" s="12">
         <f>Table1[[#This Row],[orig_vote_clinton]]+Table1[[#This Row],[stein_votes_to_clinton]]</f>
-        <v>193909</v>
+        <v>193062.6</v>
       </c>
       <c r="Q37" s="12">
         <f>Table1[[#This Row],[orig_vote_trump]]+Table1[[#This Row],[stein_votes_to_trump]]</f>
-        <v>411431</v>
+        <v>412277.4</v>
       </c>
       <c r="R37" s="12">
         <f>Table1[[#This Row],[orig_vote_clinton]]+Table1[[#This Row],[johnson_votes_to_clinton]]</f>
-        <v>203805</v>
+        <v>215107.4</v>
       </c>
       <c r="S37" s="12">
         <f>Table1[[#This Row],[orig_vote_trump]]+Table1[[#This Row],[johnson_votes_to_trump]]</f>
-        <v>421327</v>
+        <v>410024.6</v>
       </c>
       <c r="T37" s="11">
         <f>Table1[[#This Row],[orig_vote_clinton]]+Table1[[#This Row],[stein_votes_to_clinton]]+Table1[[#This Row],[johnson_votes_to_clinton]]</f>
-        <v>208037</v>
+        <v>218493</v>
       </c>
       <c r="U37" s="11">
         <f>Table1[[#This Row],[orig_vote_trump]]+Table1[[#This Row],[stein_votes_to_trump]]+Table1[[#This Row],[johnson_votes_to_trump]]</f>
-        <v>425559</v>
+        <v>415103</v>
       </c>
       <c r="V37" s="11">
         <f>Table1[[#This Row],[adjusted_vote_clinton_with_stein_only]]-Table1[[#This Row],[adjusted_vote_trump_with_stein_only]]</f>
-        <v>-217522</v>
+        <v>-219214.80000000002</v>
       </c>
       <c r="W37" s="11">
         <f>Table1[[#This Row],[adjusted_vote_clinton_with_johnson_only]]-Table1[[#This Row],[adjusted_vote_trump_with_johnson_only]]</f>
-        <v>-217522</v>
+        <v>-194917.19999999998</v>
       </c>
       <c r="X37" s="12">
         <f>Table1[[#This Row],[adjusted_vote_clinton]]-Table1[[#This Row],[adjusted_vote_trump]]</f>
-        <v>-217522</v>
+        <v>-196610</v>
       </c>
       <c r="Y37" s="12">
         <f>IF(Table1[[#This Row],[adjusted_spread_with_stein_only]]&gt;0,Table1[[#This Row],[electoral_votes]],0)</f>
@@ -8769,7 +8769,7 @@
       </c>
       <c r="AG37" s="11" t="str">
         <f>IF(Table1[[#This Row],[index]]=1,IF(Table1[[#This Row],[pickup_clinton]],Table1[[#This Row],[State]],""),IF(Table1[[#This Row],[pickup_clinton]],CONCATENATE(AG36,IF(AG36="","",","),Table1[[#This Row],[State]]),AG36))</f>
-        <v/>
+        <v>Florida</v>
       </c>
       <c r="AH37" s="11" t="str">
         <f>IF(Table1[[#This Row],[index]]=1,IF(Table1[[#This Row],[pickup_trump]],Table1[[#This Row],[State]],""),IF(Table1[[#This Row],[pickup_trump]],CONCATENATE(AH36,IF(AH26="","",","),Table1[[#This Row],[State]]),AH36))</f>
@@ -8777,11 +8777,11 @@
       </c>
       <c r="AI37" s="30">
         <f>IF(Table1[[#This Row],[orig_vote_stein]]=0,"",(1-Table1[[#This Row],[adjusted_spread_with_johnson_only]]/Table1[[#This Row],[orig_vote_stein]])/2)</f>
-        <v>13.349834593572778</v>
+        <v>12.014484877126653</v>
       </c>
       <c r="AJ37" s="30">
         <f>(1-Table1[[#This Row],[adjusted_spread_with_stein_only]]/Table1[[#This Row],[orig_vote_johnson]])/2</f>
-        <v>4.3491293884484712</v>
+        <v>4.3790840883352207</v>
       </c>
       <c r="AK37" s="30" t="b">
         <f>AND(Table1[[#This Row],[stein_split_needed_pure]]&gt;=0,Table1[[#This Row],[stein_split_needed_pure]]&lt;=1)</f>
@@ -8813,7 +8813,7 @@
       </c>
       <c r="AR37" s="44">
         <f>adjusted_electors_clinton_with_johnson_only+Table1[[#This Row],[electors_with_split_stein_added]]+Table1[[#This Row],[electors_with_split_stein_dropped]]</f>
-        <v>233</v>
+        <v>314</v>
       </c>
       <c r="AS37" s="44">
         <f>adjusted_electors_clinton_with_stein_only+Table1[[#This Row],[electors_with_split_johnson_added]]+Table1[[#This Row],[electors_with_split_johnson_dropped]]</f>
@@ -8880,55 +8880,55 @@
       </c>
       <c r="L38" s="12">
         <f>pct_stein_to_clinton*Table1[[#This Row],[orig_vote_stein]]</f>
-        <v>37056</v>
+        <v>29644.800000000003</v>
       </c>
       <c r="M38" s="12">
         <f>pct_stein_to_trump*Table1[[#This Row],[orig_vote_stein]]</f>
-        <v>37056</v>
+        <v>44467.199999999997</v>
       </c>
       <c r="N38" s="12">
         <f>pct_johnson_to_clinton*Table1[[#This Row],[orig_vote_johnson]]</f>
-        <v>102245.5</v>
+        <v>184041.9</v>
       </c>
       <c r="O38" s="12">
         <f>pct_johnson_to_trump*Table1[[#This Row],[orig_vote_johnson]]</f>
-        <v>102245.5</v>
+        <v>20449.099999999995</v>
       </c>
       <c r="P38" s="12">
         <f>Table1[[#This Row],[orig_vote_clinton]]+Table1[[#This Row],[stein_votes_to_clinton]]</f>
-        <v>3014554</v>
+        <v>3007142.8</v>
       </c>
       <c r="Q38" s="12">
         <f>Table1[[#This Row],[orig_vote_trump]]+Table1[[#This Row],[stein_votes_to_trump]]</f>
-        <v>2155235</v>
+        <v>2162646.2000000002</v>
       </c>
       <c r="R38" s="12">
         <f>Table1[[#This Row],[orig_vote_clinton]]+Table1[[#This Row],[johnson_votes_to_clinton]]</f>
-        <v>3079743.5</v>
+        <v>3161539.9</v>
       </c>
       <c r="S38" s="12">
         <f>Table1[[#This Row],[orig_vote_trump]]+Table1[[#This Row],[johnson_votes_to_trump]]</f>
-        <v>2220424.5</v>
+        <v>2138628.1</v>
       </c>
       <c r="T38" s="11">
         <f>Table1[[#This Row],[orig_vote_clinton]]+Table1[[#This Row],[stein_votes_to_clinton]]+Table1[[#This Row],[johnson_votes_to_clinton]]</f>
-        <v>3116799.5</v>
+        <v>3191184.6999999997</v>
       </c>
       <c r="U38" s="11">
         <f>Table1[[#This Row],[orig_vote_trump]]+Table1[[#This Row],[stein_votes_to_trump]]+Table1[[#This Row],[johnson_votes_to_trump]]</f>
-        <v>2257480.5</v>
+        <v>2183095.3000000003</v>
       </c>
       <c r="V38" s="11">
         <f>Table1[[#This Row],[adjusted_vote_clinton_with_stein_only]]-Table1[[#This Row],[adjusted_vote_trump_with_stein_only]]</f>
-        <v>859319</v>
+        <v>844496.59999999963</v>
       </c>
       <c r="W38" s="11">
         <f>Table1[[#This Row],[adjusted_vote_clinton_with_johnson_only]]-Table1[[#This Row],[adjusted_vote_trump_with_johnson_only]]</f>
-        <v>859319</v>
+        <v>1022911.7999999998</v>
       </c>
       <c r="X38" s="12">
         <f>Table1[[#This Row],[adjusted_vote_clinton]]-Table1[[#This Row],[adjusted_vote_trump]]</f>
-        <v>859319</v>
+        <v>1008089.3999999994</v>
       </c>
       <c r="Y38" s="12">
         <f>IF(Table1[[#This Row],[adjusted_spread_with_stein_only]]&gt;0,Table1[[#This Row],[electoral_votes]],0)</f>
@@ -8964,7 +8964,7 @@
       </c>
       <c r="AG38" s="11" t="str">
         <f>IF(Table1[[#This Row],[index]]=1,IF(Table1[[#This Row],[pickup_clinton]],Table1[[#This Row],[State]],""),IF(Table1[[#This Row],[pickup_clinton]],CONCATENATE(AG37,IF(AG37="","",","),Table1[[#This Row],[State]]),AG37))</f>
-        <v/>
+        <v>Florida</v>
       </c>
       <c r="AH38" s="11" t="str">
         <f>IF(Table1[[#This Row],[index]]=1,IF(Table1[[#This Row],[pickup_trump]],Table1[[#This Row],[State]],""),IF(Table1[[#This Row],[pickup_trump]],CONCATENATE(AH37,IF(AH27="","",","),Table1[[#This Row],[State]]),AH37))</f>
@@ -8972,11 +8972,11 @@
       </c>
       <c r="AI38" s="30">
         <f>IF(Table1[[#This Row],[orig_vote_stein]]=0,"",(1-Table1[[#This Row],[adjusted_spread_with_johnson_only]]/Table1[[#This Row],[orig_vote_stein]])/2)</f>
-        <v>-5.2974349632987909</v>
+        <v>-6.4011212759067346</v>
       </c>
       <c r="AJ38" s="30">
         <f>(1-Table1[[#This Row],[adjusted_spread_with_stein_only]]/Table1[[#This Row],[orig_vote_johnson]])/2</f>
-        <v>-1.6011169195710324</v>
+        <v>-1.5648747377635193</v>
       </c>
       <c r="AK38" s="30" t="b">
         <f>AND(Table1[[#This Row],[stein_split_needed_pure]]&gt;=0,Table1[[#This Row],[stein_split_needed_pure]]&lt;=1)</f>
@@ -9008,7 +9008,7 @@
       </c>
       <c r="AR38" s="44">
         <f>adjusted_electors_clinton_with_johnson_only+Table1[[#This Row],[electors_with_split_stein_added]]+Table1[[#This Row],[electors_with_split_stein_dropped]]</f>
-        <v>233</v>
+        <v>314</v>
       </c>
       <c r="AS38" s="44">
         <f>adjusted_electors_clinton_with_stein_only+Table1[[#This Row],[electors_with_split_johnson_added]]+Table1[[#This Row],[electors_with_split_johnson_dropped]]</f>
@@ -9083,11 +9083,11 @@
       </c>
       <c r="N39" s="12">
         <f>pct_johnson_to_clinton*Table1[[#This Row],[orig_vote_johnson]]</f>
-        <v>66928</v>
+        <v>120470.40000000001</v>
       </c>
       <c r="O39" s="12">
         <f>pct_johnson_to_trump*Table1[[#This Row],[orig_vote_johnson]]</f>
-        <v>66928</v>
+        <v>13385.599999999997</v>
       </c>
       <c r="P39" s="12">
         <f>Table1[[#This Row],[orig_vote_clinton]]+Table1[[#This Row],[stein_votes_to_clinton]]</f>
@@ -9099,19 +9099,19 @@
       </c>
       <c r="R39" s="12">
         <f>Table1[[#This Row],[orig_vote_clinton]]+Table1[[#This Row],[johnson_votes_to_clinton]]</f>
-        <v>1098881</v>
+        <v>1152423.3999999999</v>
       </c>
       <c r="S39" s="12">
         <f>Table1[[#This Row],[orig_vote_trump]]+Table1[[#This Row],[johnson_votes_to_trump]]</f>
-        <v>1623148</v>
+        <v>1569605.6</v>
       </c>
       <c r="T39" s="11">
         <f>Table1[[#This Row],[orig_vote_clinton]]+Table1[[#This Row],[stein_votes_to_clinton]]+Table1[[#This Row],[johnson_votes_to_clinton]]</f>
-        <v>1098881</v>
+        <v>1152423.3999999999</v>
       </c>
       <c r="U39" s="11">
         <f>Table1[[#This Row],[orig_vote_trump]]+Table1[[#This Row],[stein_votes_to_trump]]+Table1[[#This Row],[johnson_votes_to_trump]]</f>
-        <v>1623148</v>
+        <v>1569605.6</v>
       </c>
       <c r="V39" s="11">
         <f>Table1[[#This Row],[adjusted_vote_clinton_with_stein_only]]-Table1[[#This Row],[adjusted_vote_trump_with_stein_only]]</f>
@@ -9119,11 +9119,11 @@
       </c>
       <c r="W39" s="11">
         <f>Table1[[#This Row],[adjusted_vote_clinton_with_johnson_only]]-Table1[[#This Row],[adjusted_vote_trump_with_johnson_only]]</f>
-        <v>-524267</v>
+        <v>-417182.20000000019</v>
       </c>
       <c r="X39" s="12">
         <f>Table1[[#This Row],[adjusted_vote_clinton]]-Table1[[#This Row],[adjusted_vote_trump]]</f>
-        <v>-524267</v>
+        <v>-417182.20000000019</v>
       </c>
       <c r="Y39" s="12">
         <f>IF(Table1[[#This Row],[adjusted_spread_with_stein_only]]&gt;0,Table1[[#This Row],[electoral_votes]],0)</f>
@@ -9159,7 +9159,7 @@
       </c>
       <c r="AG39" s="11" t="str">
         <f>IF(Table1[[#This Row],[index]]=1,IF(Table1[[#This Row],[pickup_clinton]],Table1[[#This Row],[State]],""),IF(Table1[[#This Row],[pickup_clinton]],CONCATENATE(AG38,IF(AG38="","",","),Table1[[#This Row],[State]]),AG38))</f>
-        <v/>
+        <v>Florida</v>
       </c>
       <c r="AH39" s="11" t="str">
         <f>IF(Table1[[#This Row],[index]]=1,IF(Table1[[#This Row],[pickup_trump]],Table1[[#This Row],[State]],""),IF(Table1[[#This Row],[pickup_trump]],CONCATENATE(AH38,IF(AH28="","",","),Table1[[#This Row],[State]]),AH38))</f>
@@ -9203,7 +9203,7 @@
       </c>
       <c r="AR39" s="44">
         <f>adjusted_electors_clinton_with_johnson_only+Table1[[#This Row],[electors_with_split_stein_added]]+Table1[[#This Row],[electors_with_split_stein_dropped]]</f>
-        <v>233</v>
+        <v>314</v>
       </c>
       <c r="AS39" s="44">
         <f>adjusted_electors_clinton_with_stein_only+Table1[[#This Row],[electors_with_split_johnson_added]]+Table1[[#This Row],[electors_with_split_johnson_dropped]]</f>
@@ -9270,55 +9270,55 @@
       </c>
       <c r="L40" s="12">
         <f>pct_stein_to_clinton*Table1[[#This Row],[orig_vote_stein]]</f>
-        <v>5559.5</v>
+        <v>4447.6000000000004</v>
       </c>
       <c r="M40" s="12">
         <f>pct_stein_to_trump*Table1[[#This Row],[orig_vote_stein]]</f>
-        <v>5559.5</v>
+        <v>6671.4</v>
       </c>
       <c r="N40" s="12">
         <f>pct_johnson_to_clinton*Table1[[#This Row],[orig_vote_johnson]]</f>
-        <v>28661</v>
+        <v>51589.8</v>
       </c>
       <c r="O40" s="12">
         <f>pct_johnson_to_trump*Table1[[#This Row],[orig_vote_johnson]]</f>
-        <v>28661</v>
+        <v>5732.1999999999989</v>
       </c>
       <c r="P40" s="12">
         <f>Table1[[#This Row],[orig_vote_clinton]]+Table1[[#This Row],[stein_votes_to_clinton]]</f>
-        <v>656349.5</v>
+        <v>655237.6</v>
       </c>
       <c r="Q40" s="12">
         <f>Table1[[#This Row],[orig_vote_trump]]+Table1[[#This Row],[stein_votes_to_trump]]</f>
-        <v>804482.5</v>
+        <v>805594.4</v>
       </c>
       <c r="R40" s="12">
         <f>Table1[[#This Row],[orig_vote_clinton]]+Table1[[#This Row],[johnson_votes_to_clinton]]</f>
-        <v>679451</v>
+        <v>702379.8</v>
       </c>
       <c r="S40" s="12">
         <f>Table1[[#This Row],[orig_vote_trump]]+Table1[[#This Row],[johnson_votes_to_trump]]</f>
-        <v>827584</v>
+        <v>804655.2</v>
       </c>
       <c r="T40" s="11">
         <f>Table1[[#This Row],[orig_vote_clinton]]+Table1[[#This Row],[stein_votes_to_clinton]]+Table1[[#This Row],[johnson_votes_to_clinton]]</f>
-        <v>685010.5</v>
+        <v>706827.4</v>
       </c>
       <c r="U40" s="11">
         <f>Table1[[#This Row],[orig_vote_trump]]+Table1[[#This Row],[stein_votes_to_trump]]+Table1[[#This Row],[johnson_votes_to_trump]]</f>
-        <v>833143.5</v>
+        <v>811326.6</v>
       </c>
       <c r="V40" s="11">
         <f>Table1[[#This Row],[adjusted_vote_clinton_with_stein_only]]-Table1[[#This Row],[adjusted_vote_trump_with_stein_only]]</f>
-        <v>-148133</v>
+        <v>-150356.80000000005</v>
       </c>
       <c r="W40" s="11">
         <f>Table1[[#This Row],[adjusted_vote_clinton_with_johnson_only]]-Table1[[#This Row],[adjusted_vote_trump_with_johnson_only]]</f>
-        <v>-148133</v>
+        <v>-102275.39999999991</v>
       </c>
       <c r="X40" s="12">
         <f>Table1[[#This Row],[adjusted_vote_clinton]]-Table1[[#This Row],[adjusted_vote_trump]]</f>
-        <v>-148133</v>
+        <v>-104499.19999999995</v>
       </c>
       <c r="Y40" s="12">
         <f>IF(Table1[[#This Row],[adjusted_spread_with_stein_only]]&gt;0,Table1[[#This Row],[electoral_votes]],0)</f>
@@ -9354,7 +9354,7 @@
       </c>
       <c r="AG40" s="11" t="str">
         <f>IF(Table1[[#This Row],[index]]=1,IF(Table1[[#This Row],[pickup_clinton]],Table1[[#This Row],[State]],""),IF(Table1[[#This Row],[pickup_clinton]],CONCATENATE(AG39,IF(AG39="","",","),Table1[[#This Row],[State]]),AG39))</f>
-        <v/>
+        <v>Florida</v>
       </c>
       <c r="AH40" s="11" t="str">
         <f>IF(Table1[[#This Row],[index]]=1,IF(Table1[[#This Row],[pickup_trump]],Table1[[#This Row],[State]],""),IF(Table1[[#This Row],[pickup_trump]],CONCATENATE(AH39,IF(AH29="","",","),Table1[[#This Row],[State]]),AH39))</f>
@@ -9362,11 +9362,11 @@
       </c>
       <c r="AI40" s="30">
         <f>IF(Table1[[#This Row],[orig_vote_stein]]=0,"",(1-Table1[[#This Row],[adjusted_spread_with_johnson_only]]/Table1[[#This Row],[orig_vote_stein]])/2)</f>
-        <v>7.1612555085889023</v>
+        <v>5.0991276193902291</v>
       </c>
       <c r="AJ40" s="30">
         <f>(1-Table1[[#This Row],[adjusted_spread_with_stein_only]]/Table1[[#This Row],[orig_vote_johnson]])/2</f>
-        <v>1.7921129758208019</v>
+        <v>1.8115104148494474</v>
       </c>
       <c r="AK40" s="30" t="b">
         <f>AND(Table1[[#This Row],[stein_split_needed_pure]]&gt;=0,Table1[[#This Row],[stein_split_needed_pure]]&lt;=1)</f>
@@ -9398,7 +9398,7 @@
       </c>
       <c r="AR40" s="44">
         <f>adjusted_electors_clinton_with_johnson_only+Table1[[#This Row],[electors_with_split_stein_added]]+Table1[[#This Row],[electors_with_split_stein_dropped]]</f>
-        <v>233</v>
+        <v>314</v>
       </c>
       <c r="AS40" s="44">
         <f>adjusted_electors_clinton_with_stein_only+Table1[[#This Row],[electors_with_split_johnson_added]]+Table1[[#This Row],[electors_with_split_johnson_dropped]]</f>
@@ -9465,55 +9465,55 @@
       </c>
       <c r="L41" s="12">
         <f>pct_stein_to_clinton*Table1[[#This Row],[orig_vote_stein]]</f>
-        <v>11349</v>
+        <v>9079.2000000000007</v>
       </c>
       <c r="M41" s="12">
         <f>pct_stein_to_trump*Table1[[#This Row],[orig_vote_stein]]</f>
-        <v>11349</v>
+        <v>13618.8</v>
       </c>
       <c r="N41" s="12">
         <f>pct_johnson_to_clinton*Table1[[#This Row],[orig_vote_johnson]]</f>
-        <v>26824</v>
+        <v>48283.200000000004</v>
       </c>
       <c r="O41" s="12">
         <f>pct_johnson_to_trump*Table1[[#This Row],[orig_vote_johnson]]</f>
-        <v>26824</v>
+        <v>5364.7999999999984</v>
       </c>
       <c r="P41" s="12">
         <f>Table1[[#This Row],[orig_vote_clinton]]+Table1[[#This Row],[stein_votes_to_clinton]]</f>
-        <v>426137</v>
+        <v>423867.2</v>
       </c>
       <c r="Q41" s="12">
         <f>Table1[[#This Row],[orig_vote_trump]]+Table1[[#This Row],[stein_votes_to_trump]]</f>
-        <v>667358</v>
+        <v>669627.80000000005</v>
       </c>
       <c r="R41" s="12">
         <f>Table1[[#This Row],[orig_vote_clinton]]+Table1[[#This Row],[johnson_votes_to_clinton]]</f>
-        <v>441612</v>
+        <v>463071.2</v>
       </c>
       <c r="S41" s="12">
         <f>Table1[[#This Row],[orig_vote_trump]]+Table1[[#This Row],[johnson_votes_to_trump]]</f>
-        <v>682833</v>
+        <v>661373.80000000005</v>
       </c>
       <c r="T41" s="11">
         <f>Table1[[#This Row],[orig_vote_clinton]]+Table1[[#This Row],[stein_votes_to_clinton]]+Table1[[#This Row],[johnson_votes_to_clinton]]</f>
-        <v>452961</v>
+        <v>472150.4</v>
       </c>
       <c r="U41" s="11">
         <f>Table1[[#This Row],[orig_vote_trump]]+Table1[[#This Row],[stein_votes_to_trump]]+Table1[[#This Row],[johnson_votes_to_trump]]</f>
-        <v>694182</v>
+        <v>674992.60000000009</v>
       </c>
       <c r="V41" s="11">
         <f>Table1[[#This Row],[adjusted_vote_clinton_with_stein_only]]-Table1[[#This Row],[adjusted_vote_trump_with_stein_only]]</f>
-        <v>-241221</v>
+        <v>-245760.60000000003</v>
       </c>
       <c r="W41" s="11">
         <f>Table1[[#This Row],[adjusted_vote_clinton_with_johnson_only]]-Table1[[#This Row],[adjusted_vote_trump_with_johnson_only]]</f>
-        <v>-241221</v>
+        <v>-198302.60000000003</v>
       </c>
       <c r="X41" s="12">
         <f>Table1[[#This Row],[adjusted_vote_clinton]]-Table1[[#This Row],[adjusted_vote_trump]]</f>
-        <v>-241221</v>
+        <v>-202842.20000000007</v>
       </c>
       <c r="Y41" s="12">
         <f>IF(Table1[[#This Row],[adjusted_spread_with_stein_only]]&gt;0,Table1[[#This Row],[electoral_votes]],0)</f>
@@ -9549,7 +9549,7 @@
       </c>
       <c r="AG41" s="11" t="str">
         <f>IF(Table1[[#This Row],[index]]=1,IF(Table1[[#This Row],[pickup_clinton]],Table1[[#This Row],[State]],""),IF(Table1[[#This Row],[pickup_clinton]],CONCATENATE(AG40,IF(AG40="","",","),Table1[[#This Row],[State]]),AG40))</f>
-        <v/>
+        <v>Florida</v>
       </c>
       <c r="AH41" s="11" t="str">
         <f>IF(Table1[[#This Row],[index]]=1,IF(Table1[[#This Row],[pickup_trump]],Table1[[#This Row],[State]],""),IF(Table1[[#This Row],[pickup_trump]],CONCATENATE(AH40,IF(AH30="","",","),Table1[[#This Row],[State]]),AH40))</f>
@@ -9557,11 +9557,11 @@
       </c>
       <c r="AI41" s="30">
         <f>IF(Table1[[#This Row],[orig_vote_stein]]=0,"",(1-Table1[[#This Row],[adjusted_spread_with_johnson_only]]/Table1[[#This Row],[orig_vote_stein]])/2)</f>
-        <v>5.8137060533967748</v>
+        <v>4.8682835492113847</v>
       </c>
       <c r="AJ41" s="30">
         <f>(1-Table1[[#This Row],[adjusted_spread_with_stein_only]]/Table1[[#This Row],[orig_vote_johnson]])/2</f>
-        <v>2.7481825976737251</v>
+        <v>2.7904917238294069</v>
       </c>
       <c r="AK41" s="30" t="b">
         <f>AND(Table1[[#This Row],[stein_split_needed_pure]]&gt;=0,Table1[[#This Row],[stein_split_needed_pure]]&lt;=1)</f>
@@ -9593,7 +9593,7 @@
       </c>
       <c r="AR41" s="44">
         <f>adjusted_electors_clinton_with_johnson_only+Table1[[#This Row],[electors_with_split_stein_added]]+Table1[[#This Row],[electors_with_split_stein_dropped]]</f>
-        <v>233</v>
+        <v>314</v>
       </c>
       <c r="AS41" s="44">
         <f>adjusted_electors_clinton_with_stein_only+Table1[[#This Row],[electors_with_split_johnson_added]]+Table1[[#This Row],[electors_with_split_johnson_dropped]]</f>
@@ -9660,55 +9660,55 @@
       </c>
       <c r="L42" s="12">
         <f>pct_stein_to_clinton*Table1[[#This Row],[orig_vote_stein]]</f>
-        <v>6956.5</v>
+        <v>5565.2000000000007</v>
       </c>
       <c r="M42" s="12">
         <f>pct_stein_to_trump*Table1[[#This Row],[orig_vote_stein]]</f>
-        <v>6956.5</v>
+        <v>8347.7999999999993</v>
       </c>
       <c r="N42" s="12">
         <f>pct_johnson_to_clinton*Table1[[#This Row],[orig_vote_johnson]]</f>
-        <v>26874.5</v>
+        <v>48374.1</v>
       </c>
       <c r="O42" s="12">
         <f>pct_johnson_to_trump*Table1[[#This Row],[orig_vote_johnson]]</f>
-        <v>26874.5</v>
+        <v>5374.8999999999987</v>
       </c>
       <c r="P42" s="12">
         <f>Table1[[#This Row],[orig_vote_clinton]]+Table1[[#This Row],[stein_votes_to_clinton]]</f>
-        <v>635790.5</v>
+        <v>634399.19999999995</v>
       </c>
       <c r="Q42" s="12">
         <f>Table1[[#This Row],[orig_vote_trump]]+Table1[[#This Row],[stein_votes_to_trump]]</f>
-        <v>1209898.5</v>
+        <v>1211289.8</v>
       </c>
       <c r="R42" s="12">
         <f>Table1[[#This Row],[orig_vote_clinton]]+Table1[[#This Row],[johnson_votes_to_clinton]]</f>
-        <v>655708.5</v>
+        <v>677208.1</v>
       </c>
       <c r="S42" s="12">
         <f>Table1[[#This Row],[orig_vote_trump]]+Table1[[#This Row],[johnson_votes_to_trump]]</f>
-        <v>1229816.5</v>
+        <v>1208316.8999999999</v>
       </c>
       <c r="T42" s="11">
         <f>Table1[[#This Row],[orig_vote_clinton]]+Table1[[#This Row],[stein_votes_to_clinton]]+Table1[[#This Row],[johnson_votes_to_clinton]]</f>
-        <v>662665</v>
+        <v>682773.29999999993</v>
       </c>
       <c r="U42" s="11">
         <f>Table1[[#This Row],[orig_vote_trump]]+Table1[[#This Row],[stein_votes_to_trump]]+Table1[[#This Row],[johnson_votes_to_trump]]</f>
-        <v>1236773</v>
+        <v>1216664.7</v>
       </c>
       <c r="V42" s="11">
         <f>Table1[[#This Row],[adjusted_vote_clinton_with_stein_only]]-Table1[[#This Row],[adjusted_vote_trump_with_stein_only]]</f>
-        <v>-574108</v>
+        <v>-576890.60000000009</v>
       </c>
       <c r="W42" s="11">
         <f>Table1[[#This Row],[adjusted_vote_clinton_with_johnson_only]]-Table1[[#This Row],[adjusted_vote_trump_with_johnson_only]]</f>
-        <v>-574108</v>
+        <v>-531108.79999999993</v>
       </c>
       <c r="X42" s="12">
         <f>Table1[[#This Row],[adjusted_vote_clinton]]-Table1[[#This Row],[adjusted_vote_trump]]</f>
-        <v>-574108</v>
+        <v>-533891.4</v>
       </c>
       <c r="Y42" s="12">
         <f>IF(Table1[[#This Row],[adjusted_spread_with_stein_only]]&gt;0,Table1[[#This Row],[electoral_votes]],0)</f>
@@ -9744,7 +9744,7 @@
       </c>
       <c r="AG42" s="11" t="str">
         <f>IF(Table1[[#This Row],[index]]=1,IF(Table1[[#This Row],[pickup_clinton]],Table1[[#This Row],[State]],""),IF(Table1[[#This Row],[pickup_clinton]],CONCATENATE(AG41,IF(AG41="","",","),Table1[[#This Row],[State]]),AG41))</f>
-        <v/>
+        <v>Florida</v>
       </c>
       <c r="AH42" s="11" t="str">
         <f>IF(Table1[[#This Row],[index]]=1,IF(Table1[[#This Row],[pickup_trump]],Table1[[#This Row],[State]],""),IF(Table1[[#This Row],[pickup_trump]],CONCATENATE(AH41,IF(AH31="","",","),Table1[[#This Row],[State]]),AH41))</f>
@@ -9752,11 +9752,11 @@
       </c>
       <c r="AI42" s="30">
         <f>IF(Table1[[#This Row],[orig_vote_stein]]=0,"",(1-Table1[[#This Row],[adjusted_spread_with_johnson_only]]/Table1[[#This Row],[orig_vote_stein]])/2)</f>
-        <v>21.132070725221016</v>
+        <v>19.586782146194203</v>
       </c>
       <c r="AJ42" s="30">
         <f>(1-Table1[[#This Row],[adjusted_spread_with_stein_only]]/Table1[[#This Row],[orig_vote_johnson]])/2</f>
-        <v>5.84063889560736</v>
+        <v>5.866524028354017</v>
       </c>
       <c r="AK42" s="30" t="b">
         <f>AND(Table1[[#This Row],[stein_split_needed_pure]]&gt;=0,Table1[[#This Row],[stein_split_needed_pure]]&lt;=1)</f>
@@ -9788,7 +9788,7 @@
       </c>
       <c r="AR42" s="44">
         <f>adjusted_electors_clinton_with_johnson_only+Table1[[#This Row],[electors_with_split_stein_added]]+Table1[[#This Row],[electors_with_split_stein_dropped]]</f>
-        <v>233</v>
+        <v>314</v>
       </c>
       <c r="AS42" s="44">
         <f>adjusted_electors_clinton_with_stein_only+Table1[[#This Row],[electors_with_split_johnson_added]]+Table1[[#This Row],[electors_with_split_johnson_dropped]]</f>
@@ -9855,55 +9855,55 @@
       </c>
       <c r="L43" s="12">
         <f>pct_stein_to_clinton*Table1[[#This Row],[orig_vote_stein]]</f>
-        <v>7009</v>
+        <v>5607.2000000000007</v>
       </c>
       <c r="M43" s="12">
         <f>pct_stein_to_trump*Table1[[#This Row],[orig_vote_stein]]</f>
-        <v>7009</v>
+        <v>8410.7999999999993</v>
       </c>
       <c r="N43" s="12">
         <f>pct_johnson_to_clinton*Table1[[#This Row],[orig_vote_johnson]]</f>
-        <v>18975</v>
+        <v>34155</v>
       </c>
       <c r="O43" s="12">
         <f>pct_johnson_to_trump*Table1[[#This Row],[orig_vote_johnson]]</f>
-        <v>18975</v>
+        <v>3794.9999999999991</v>
       </c>
       <c r="P43" s="12">
         <f>Table1[[#This Row],[orig_vote_clinton]]+Table1[[#This Row],[stein_votes_to_clinton]]</f>
-        <v>786544</v>
+        <v>785142.2</v>
       </c>
       <c r="Q43" s="12">
         <f>Table1[[#This Row],[orig_vote_trump]]+Table1[[#This Row],[stein_votes_to_trump]]</f>
-        <v>1185013</v>
+        <v>1186414.8</v>
       </c>
       <c r="R43" s="12">
         <f>Table1[[#This Row],[orig_vote_clinton]]+Table1[[#This Row],[johnson_votes_to_clinton]]</f>
-        <v>798510</v>
+        <v>813690</v>
       </c>
       <c r="S43" s="12">
         <f>Table1[[#This Row],[orig_vote_trump]]+Table1[[#This Row],[johnson_votes_to_trump]]</f>
-        <v>1196979</v>
+        <v>1181799</v>
       </c>
       <c r="T43" s="11">
         <f>Table1[[#This Row],[orig_vote_clinton]]+Table1[[#This Row],[stein_votes_to_clinton]]+Table1[[#This Row],[johnson_votes_to_clinton]]</f>
-        <v>805519</v>
+        <v>819297.2</v>
       </c>
       <c r="U43" s="11">
         <f>Table1[[#This Row],[orig_vote_trump]]+Table1[[#This Row],[stein_votes_to_trump]]+Table1[[#This Row],[johnson_votes_to_trump]]</f>
-        <v>1203988</v>
+        <v>1190209.8</v>
       </c>
       <c r="V43" s="11">
         <f>Table1[[#This Row],[adjusted_vote_clinton_with_stein_only]]-Table1[[#This Row],[adjusted_vote_trump_with_stein_only]]</f>
-        <v>-398469</v>
+        <v>-401272.60000000009</v>
       </c>
       <c r="W43" s="11">
         <f>Table1[[#This Row],[adjusted_vote_clinton_with_johnson_only]]-Table1[[#This Row],[adjusted_vote_trump_with_johnson_only]]</f>
-        <v>-398469</v>
+        <v>-368109</v>
       </c>
       <c r="X43" s="12">
         <f>Table1[[#This Row],[adjusted_vote_clinton]]-Table1[[#This Row],[adjusted_vote_trump]]</f>
-        <v>-398469</v>
+        <v>-370912.60000000009</v>
       </c>
       <c r="Y43" s="12">
         <f>IF(Table1[[#This Row],[adjusted_spread_with_stein_only]]&gt;0,Table1[[#This Row],[electoral_votes]],0)</f>
@@ -9939,7 +9939,7 @@
       </c>
       <c r="AG43" s="11" t="str">
         <f>IF(Table1[[#This Row],[index]]=1,IF(Table1[[#This Row],[pickup_clinton]],Table1[[#This Row],[State]],""),IF(Table1[[#This Row],[pickup_clinton]],CONCATENATE(AG42,IF(AG42="","",","),Table1[[#This Row],[State]]),AG42))</f>
-        <v/>
+        <v>Florida</v>
       </c>
       <c r="AH43" s="11" t="str">
         <f>IF(Table1[[#This Row],[index]]=1,IF(Table1[[#This Row],[pickup_trump]],Table1[[#This Row],[State]],""),IF(Table1[[#This Row],[pickup_trump]],CONCATENATE(AH42,IF(AH32="","",","),Table1[[#This Row],[State]]),AH42))</f>
@@ -9947,11 +9947,11 @@
       </c>
       <c r="AI43" s="30">
         <f>IF(Table1[[#This Row],[orig_vote_stein]]=0,"",(1-Table1[[#This Row],[adjusted_spread_with_johnson_only]]/Table1[[#This Row],[orig_vote_stein]])/2)</f>
-        <v>14.712762162933371</v>
+        <v>13.629868740191183</v>
       </c>
       <c r="AJ43" s="30">
         <f>(1-Table1[[#This Row],[adjusted_spread_with_stein_only]]/Table1[[#This Row],[orig_vote_johnson]])/2</f>
-        <v>5.7499209486166007</v>
+        <v>5.786859025032939</v>
       </c>
       <c r="AK43" s="30" t="b">
         <f>AND(Table1[[#This Row],[stein_split_needed_pure]]&gt;=0,Table1[[#This Row],[stein_split_needed_pure]]&lt;=1)</f>
@@ -9983,7 +9983,7 @@
       </c>
       <c r="AR43" s="44">
         <f>adjusted_electors_clinton_with_johnson_only+Table1[[#This Row],[electors_with_split_stein_added]]+Table1[[#This Row],[electors_with_split_stein_dropped]]</f>
-        <v>233</v>
+        <v>314</v>
       </c>
       <c r="AS43" s="44">
         <f>adjusted_electors_clinton_with_stein_only+Table1[[#This Row],[electors_with_split_johnson_added]]+Table1[[#This Row],[electors_with_split_johnson_dropped]]</f>
@@ -10050,55 +10050,55 @@
       </c>
       <c r="L44" s="12">
         <f>pct_stein_to_clinton*Table1[[#This Row],[orig_vote_stein]]</f>
-        <v>7037.5</v>
+        <v>5630</v>
       </c>
       <c r="M44" s="12">
         <f>pct_stein_to_trump*Table1[[#This Row],[orig_vote_stein]]</f>
-        <v>7037.5</v>
+        <v>8445</v>
       </c>
       <c r="N44" s="12">
         <f>pct_johnson_to_clinton*Table1[[#This Row],[orig_vote_johnson]]</f>
-        <v>18882</v>
+        <v>33987.599999999999</v>
       </c>
       <c r="O44" s="12">
         <f>pct_johnson_to_trump*Table1[[#This Row],[orig_vote_johnson]]</f>
-        <v>18882</v>
+        <v>3776.3999999999992</v>
       </c>
       <c r="P44" s="12">
         <f>Table1[[#This Row],[orig_vote_clinton]]+Table1[[#This Row],[stein_votes_to_clinton]]</f>
-        <v>361910.5</v>
+        <v>360503</v>
       </c>
       <c r="Q44" s="12">
         <f>Table1[[#This Row],[orig_vote_trump]]+Table1[[#This Row],[stein_votes_to_trump]]</f>
-        <v>341875.5</v>
+        <v>343283</v>
       </c>
       <c r="R44" s="12">
         <f>Table1[[#This Row],[orig_vote_clinton]]+Table1[[#This Row],[johnson_votes_to_clinton]]</f>
-        <v>373755</v>
+        <v>388860.6</v>
       </c>
       <c r="S44" s="12">
         <f>Table1[[#This Row],[orig_vote_trump]]+Table1[[#This Row],[johnson_votes_to_trump]]</f>
-        <v>353720</v>
+        <v>338614.4</v>
       </c>
       <c r="T44" s="11">
         <f>Table1[[#This Row],[orig_vote_clinton]]+Table1[[#This Row],[stein_votes_to_clinton]]+Table1[[#This Row],[johnson_votes_to_clinton]]</f>
-        <v>380792.5</v>
+        <v>394490.6</v>
       </c>
       <c r="U44" s="11">
         <f>Table1[[#This Row],[orig_vote_trump]]+Table1[[#This Row],[stein_votes_to_trump]]+Table1[[#This Row],[johnson_votes_to_trump]]</f>
-        <v>360757.5</v>
+        <v>347059.4</v>
       </c>
       <c r="V44" s="11">
         <f>Table1[[#This Row],[adjusted_vote_clinton_with_stein_only]]-Table1[[#This Row],[adjusted_vote_trump_with_stein_only]]</f>
-        <v>20035</v>
+        <v>17220</v>
       </c>
       <c r="W44" s="11">
         <f>Table1[[#This Row],[adjusted_vote_clinton_with_johnson_only]]-Table1[[#This Row],[adjusted_vote_trump_with_johnson_only]]</f>
-        <v>20035</v>
+        <v>50246.199999999953</v>
       </c>
       <c r="X44" s="12">
         <f>Table1[[#This Row],[adjusted_vote_clinton]]-Table1[[#This Row],[adjusted_vote_trump]]</f>
-        <v>20035</v>
+        <v>47431.199999999953</v>
       </c>
       <c r="Y44" s="12">
         <f>IF(Table1[[#This Row],[adjusted_spread_with_stein_only]]&gt;0,Table1[[#This Row],[electoral_votes]],0)</f>
@@ -10134,7 +10134,7 @@
       </c>
       <c r="AG44" s="11" t="str">
         <f>IF(Table1[[#This Row],[index]]=1,IF(Table1[[#This Row],[pickup_clinton]],Table1[[#This Row],[State]],""),IF(Table1[[#This Row],[pickup_clinton]],CONCATENATE(AG43,IF(AG43="","",","),Table1[[#This Row],[State]]),AG43))</f>
-        <v/>
+        <v>Florida</v>
       </c>
       <c r="AH44" s="11" t="str">
         <f>IF(Table1[[#This Row],[index]]=1,IF(Table1[[#This Row],[pickup_trump]],Table1[[#This Row],[State]],""),IF(Table1[[#This Row],[pickup_trump]],CONCATENATE(AH43,IF(AH33="","",","),Table1[[#This Row],[State]]),AH43))</f>
@@ -10142,11 +10142,11 @@
       </c>
       <c r="AI44" s="30">
         <f>IF(Table1[[#This Row],[orig_vote_stein]]=0,"",(1-Table1[[#This Row],[adjusted_spread_with_johnson_only]]/Table1[[#This Row],[orig_vote_stein]])/2)</f>
-        <v>-0.21172291296625223</v>
+        <v>-1.2849449378330355</v>
       </c>
       <c r="AJ44" s="30">
         <f>(1-Table1[[#This Row],[adjusted_spread_with_stein_only]]/Table1[[#This Row],[orig_vote_johnson]])/2</f>
-        <v>0.23473413833280371</v>
+        <v>0.27200508420718145</v>
       </c>
       <c r="AK44" s="30" t="b">
         <f>AND(Table1[[#This Row],[stein_split_needed_pure]]&gt;=0,Table1[[#This Row],[stein_split_needed_pure]]&lt;=1)</f>
@@ -10178,7 +10178,7 @@
       </c>
       <c r="AR44" s="44">
         <f>adjusted_electors_clinton_with_johnson_only+Table1[[#This Row],[electors_with_split_stein_added]]+Table1[[#This Row],[electors_with_split_stein_dropped]]</f>
-        <v>233</v>
+        <v>314</v>
       </c>
       <c r="AS44" s="44">
         <f>adjusted_electors_clinton_with_stein_only+Table1[[#This Row],[electors_with_split_johnson_added]]+Table1[[#This Row],[electors_with_split_johnson_dropped]]</f>
@@ -10245,55 +10245,55 @@
       </c>
       <c r="L45" s="12">
         <f>pct_stein_to_clinton*Table1[[#This Row],[orig_vote_stein]]</f>
-        <v>15919.5</v>
+        <v>12735.6</v>
       </c>
       <c r="M45" s="12">
         <f>pct_stein_to_trump*Table1[[#This Row],[orig_vote_stein]]</f>
-        <v>15919.5</v>
+        <v>19103.399999999998</v>
       </c>
       <c r="N45" s="12">
         <f>pct_johnson_to_clinton*Table1[[#This Row],[orig_vote_johnson]]</f>
-        <v>35553.5</v>
+        <v>63996.3</v>
       </c>
       <c r="O45" s="12">
         <f>pct_johnson_to_trump*Table1[[#This Row],[orig_vote_johnson]]</f>
-        <v>35553.5</v>
+        <v>7110.699999999998</v>
       </c>
       <c r="P45" s="12">
         <f>Table1[[#This Row],[orig_vote_clinton]]+Table1[[#This Row],[stein_votes_to_clinton]]</f>
-        <v>1513870.5</v>
+        <v>1510686.6</v>
       </c>
       <c r="Q45" s="12">
         <f>Table1[[#This Row],[orig_vote_trump]]+Table1[[#This Row],[stein_votes_to_trump]]</f>
-        <v>889565.5</v>
+        <v>892749.4</v>
       </c>
       <c r="R45" s="12">
         <f>Table1[[#This Row],[orig_vote_clinton]]+Table1[[#This Row],[johnson_votes_to_clinton]]</f>
-        <v>1533504.5</v>
+        <v>1561947.3</v>
       </c>
       <c r="S45" s="12">
         <f>Table1[[#This Row],[orig_vote_trump]]+Table1[[#This Row],[johnson_votes_to_trump]]</f>
-        <v>909199.5</v>
+        <v>880756.7</v>
       </c>
       <c r="T45" s="11">
         <f>Table1[[#This Row],[orig_vote_clinton]]+Table1[[#This Row],[stein_votes_to_clinton]]+Table1[[#This Row],[johnson_votes_to_clinton]]</f>
-        <v>1549424</v>
+        <v>1574682.9000000001</v>
       </c>
       <c r="U45" s="11">
         <f>Table1[[#This Row],[orig_vote_trump]]+Table1[[#This Row],[stein_votes_to_trump]]+Table1[[#This Row],[johnson_votes_to_trump]]</f>
-        <v>925119</v>
+        <v>899860.1</v>
       </c>
       <c r="V45" s="11">
         <f>Table1[[#This Row],[adjusted_vote_clinton_with_stein_only]]-Table1[[#This Row],[adjusted_vote_trump_with_stein_only]]</f>
-        <v>624305</v>
+        <v>617937.20000000007</v>
       </c>
       <c r="W45" s="11">
         <f>Table1[[#This Row],[adjusted_vote_clinton_with_johnson_only]]-Table1[[#This Row],[adjusted_vote_trump_with_johnson_only]]</f>
-        <v>624305</v>
+        <v>681190.60000000009</v>
       </c>
       <c r="X45" s="12">
         <f>Table1[[#This Row],[adjusted_vote_clinton]]-Table1[[#This Row],[adjusted_vote_trump]]</f>
-        <v>624305</v>
+        <v>674822.80000000016</v>
       </c>
       <c r="Y45" s="12">
         <f>IF(Table1[[#This Row],[adjusted_spread_with_stein_only]]&gt;0,Table1[[#This Row],[electoral_votes]],0)</f>
@@ -10329,7 +10329,7 @@
       </c>
       <c r="AG45" s="11" t="str">
         <f>IF(Table1[[#This Row],[index]]=1,IF(Table1[[#This Row],[pickup_clinton]],Table1[[#This Row],[State]],""),IF(Table1[[#This Row],[pickup_clinton]],CONCATENATE(AG44,IF(AG44="","",","),Table1[[#This Row],[State]]),AG44))</f>
-        <v/>
+        <v>Florida</v>
       </c>
       <c r="AH45" s="11" t="str">
         <f>IF(Table1[[#This Row],[index]]=1,IF(Table1[[#This Row],[pickup_trump]],Table1[[#This Row],[State]],""),IF(Table1[[#This Row],[pickup_trump]],CONCATENATE(AH44,IF(AH34="","",","),Table1[[#This Row],[State]]),AH44))</f>
@@ -10337,11 +10337,11 @@
       </c>
       <c r="AI45" s="30">
         <f>IF(Table1[[#This Row],[orig_vote_stein]]=0,"",(1-Table1[[#This Row],[adjusted_spread_with_johnson_only]]/Table1[[#This Row],[orig_vote_stein]])/2)</f>
-        <v>-9.3040924652156161</v>
+        <v>-10.197424542228086</v>
       </c>
       <c r="AJ45" s="30">
         <f>(1-Table1[[#This Row],[adjusted_spread_with_stein_only]]/Table1[[#This Row],[orig_vote_johnson]])/2</f>
-        <v>-3.8898983222467551</v>
+        <v>-3.8451221398737117</v>
       </c>
       <c r="AK45" s="30" t="b">
         <f>AND(Table1[[#This Row],[stein_split_needed_pure]]&gt;=0,Table1[[#This Row],[stein_split_needed_pure]]&lt;=1)</f>
@@ -10373,7 +10373,7 @@
       </c>
       <c r="AR45" s="44">
         <f>adjusted_electors_clinton_with_johnson_only+Table1[[#This Row],[electors_with_split_stein_added]]+Table1[[#This Row],[electors_with_split_stein_dropped]]</f>
-        <v>233</v>
+        <v>314</v>
       </c>
       <c r="AS45" s="44">
         <f>adjusted_electors_clinton_with_stein_only+Table1[[#This Row],[electors_with_split_johnson_added]]+Table1[[#This Row],[electors_with_split_johnson_dropped]]</f>
@@ -10440,55 +10440,55 @@
       </c>
       <c r="L46" s="12">
         <f>pct_stein_to_clinton*Table1[[#This Row],[orig_vote_stein]]</f>
-        <v>23455</v>
+        <v>18764</v>
       </c>
       <c r="M46" s="12">
         <f>pct_stein_to_trump*Table1[[#This Row],[orig_vote_stein]]</f>
-        <v>23455</v>
+        <v>28146</v>
       </c>
       <c r="N46" s="12">
         <f>pct_johnson_to_clinton*Table1[[#This Row],[orig_vote_johnson]]</f>
-        <v>68392</v>
+        <v>123105.60000000001</v>
       </c>
       <c r="O46" s="12">
         <f>pct_johnson_to_trump*Table1[[#This Row],[orig_vote_johnson]]</f>
-        <v>68392</v>
+        <v>13678.399999999998</v>
       </c>
       <c r="P46" s="12">
         <f>Table1[[#This Row],[orig_vote_clinton]]+Table1[[#This Row],[stein_votes_to_clinton]]</f>
-        <v>1988223</v>
+        <v>1983532</v>
       </c>
       <c r="Q46" s="12">
         <f>Table1[[#This Row],[orig_vote_trump]]+Table1[[#This Row],[stein_votes_to_trump]]</f>
-        <v>1106524</v>
+        <v>1111215</v>
       </c>
       <c r="R46" s="12">
         <f>Table1[[#This Row],[orig_vote_clinton]]+Table1[[#This Row],[johnson_votes_to_clinton]]</f>
-        <v>2033160</v>
+        <v>2087873.6</v>
       </c>
       <c r="S46" s="12">
         <f>Table1[[#This Row],[orig_vote_trump]]+Table1[[#This Row],[johnson_votes_to_trump]]</f>
-        <v>1151461</v>
+        <v>1096747.3999999999</v>
       </c>
       <c r="T46" s="11">
         <f>Table1[[#This Row],[orig_vote_clinton]]+Table1[[#This Row],[stein_votes_to_clinton]]+Table1[[#This Row],[johnson_votes_to_clinton]]</f>
-        <v>2056615</v>
+        <v>2106637.6</v>
       </c>
       <c r="U46" s="11">
         <f>Table1[[#This Row],[orig_vote_trump]]+Table1[[#This Row],[stein_votes_to_trump]]+Table1[[#This Row],[johnson_votes_to_trump]]</f>
-        <v>1174916</v>
+        <v>1124893.3999999999</v>
       </c>
       <c r="V46" s="11">
         <f>Table1[[#This Row],[adjusted_vote_clinton_with_stein_only]]-Table1[[#This Row],[adjusted_vote_trump_with_stein_only]]</f>
-        <v>881699</v>
+        <v>872317</v>
       </c>
       <c r="W46" s="11">
         <f>Table1[[#This Row],[adjusted_vote_clinton_with_johnson_only]]-Table1[[#This Row],[adjusted_vote_trump_with_johnson_only]]</f>
-        <v>881699</v>
+        <v>991126.20000000019</v>
       </c>
       <c r="X46" s="12">
         <f>Table1[[#This Row],[adjusted_vote_clinton]]-Table1[[#This Row],[adjusted_vote_trump]]</f>
-        <v>881699</v>
+        <v>981744.20000000019</v>
       </c>
       <c r="Y46" s="12">
         <f>IF(Table1[[#This Row],[adjusted_spread_with_stein_only]]&gt;0,Table1[[#This Row],[electoral_votes]],0)</f>
@@ -10524,7 +10524,7 @@
       </c>
       <c r="AG46" s="11" t="str">
         <f>IF(Table1[[#This Row],[index]]=1,IF(Table1[[#This Row],[pickup_clinton]],Table1[[#This Row],[State]],""),IF(Table1[[#This Row],[pickup_clinton]],CONCATENATE(AG45,IF(AG45="","",","),Table1[[#This Row],[State]]),AG45))</f>
-        <v/>
+        <v>Florida</v>
       </c>
       <c r="AH46" s="11" t="str">
         <f>IF(Table1[[#This Row],[index]]=1,IF(Table1[[#This Row],[pickup_trump]],Table1[[#This Row],[State]],""),IF(Table1[[#This Row],[pickup_trump]],CONCATENATE(AH45,IF(AH35="","",","),Table1[[#This Row],[State]]),AH45))</f>
@@ -10532,11 +10532,11 @@
       </c>
       <c r="AI46" s="30">
         <f>IF(Table1[[#This Row],[orig_vote_stein]]=0,"",(1-Table1[[#This Row],[adjusted_spread_with_johnson_only]]/Table1[[#This Row],[orig_vote_stein]])/2)</f>
-        <v>-8.8977723299936056</v>
+        <v>-10.06412492005969</v>
       </c>
       <c r="AJ46" s="30">
         <f>(1-Table1[[#This Row],[adjusted_spread_with_stein_only]]/Table1[[#This Row],[orig_vote_johnson]])/2</f>
-        <v>-2.7229610188326121</v>
+        <v>-2.6886660720552111</v>
       </c>
       <c r="AK46" s="30" t="b">
         <f>AND(Table1[[#This Row],[stein_split_needed_pure]]&gt;=0,Table1[[#This Row],[stein_split_needed_pure]]&lt;=1)</f>
@@ -10568,7 +10568,7 @@
       </c>
       <c r="AR46" s="44">
         <f>adjusted_electors_clinton_with_johnson_only+Table1[[#This Row],[electors_with_split_stein_added]]+Table1[[#This Row],[electors_with_split_stein_dropped]]</f>
-        <v>233</v>
+        <v>314</v>
       </c>
       <c r="AS46" s="44">
         <f>adjusted_electors_clinton_with_stein_only+Table1[[#This Row],[electors_with_split_johnson_added]]+Table1[[#This Row],[electors_with_split_johnson_dropped]]</f>
@@ -10635,55 +10635,55 @@
       </c>
       <c r="L47" s="12">
         <f>pct_stein_to_clinton*Table1[[#This Row],[orig_vote_stein]]</f>
-        <v>25350</v>
+        <v>20280</v>
       </c>
       <c r="M47" s="12">
         <f>pct_stein_to_trump*Table1[[#This Row],[orig_vote_stein]]</f>
-        <v>25350</v>
+        <v>30420</v>
       </c>
       <c r="N47" s="12">
         <f>pct_johnson_to_clinton*Table1[[#This Row],[orig_vote_johnson]]</f>
-        <v>86528.5</v>
+        <v>155751.30000000002</v>
       </c>
       <c r="O47" s="12">
         <f>pct_johnson_to_trump*Table1[[#This Row],[orig_vote_johnson]]</f>
-        <v>86528.5</v>
+        <v>17305.699999999997</v>
       </c>
       <c r="P47" s="12">
         <f>Table1[[#This Row],[orig_vote_clinton]]+Table1[[#This Row],[stein_votes_to_clinton]]</f>
-        <v>2293543</v>
+        <v>2288473</v>
       </c>
       <c r="Q47" s="12">
         <f>Table1[[#This Row],[orig_vote_trump]]+Table1[[#This Row],[stein_votes_to_trump]]</f>
-        <v>2305155</v>
+        <v>2310225</v>
       </c>
       <c r="R47" s="12">
         <f>Table1[[#This Row],[orig_vote_clinton]]+Table1[[#This Row],[johnson_votes_to_clinton]]</f>
-        <v>2354721.5</v>
+        <v>2423944.2999999998</v>
       </c>
       <c r="S47" s="12">
         <f>Table1[[#This Row],[orig_vote_trump]]+Table1[[#This Row],[johnson_votes_to_trump]]</f>
-        <v>2366333.5</v>
+        <v>2297110.7000000002</v>
       </c>
       <c r="T47" s="11">
         <f>Table1[[#This Row],[orig_vote_clinton]]+Table1[[#This Row],[stein_votes_to_clinton]]+Table1[[#This Row],[johnson_votes_to_clinton]]</f>
-        <v>2380071.5</v>
+        <v>2444224.2999999998</v>
       </c>
       <c r="U47" s="11">
         <f>Table1[[#This Row],[orig_vote_trump]]+Table1[[#This Row],[stein_votes_to_trump]]+Table1[[#This Row],[johnson_votes_to_trump]]</f>
-        <v>2391683.5</v>
+        <v>2327530.7000000002</v>
       </c>
       <c r="V47" s="11">
         <f>Table1[[#This Row],[adjusted_vote_clinton_with_stein_only]]-Table1[[#This Row],[adjusted_vote_trump_with_stein_only]]</f>
-        <v>-11612</v>
+        <v>-21752</v>
       </c>
       <c r="W47" s="11">
         <f>Table1[[#This Row],[adjusted_vote_clinton_with_johnson_only]]-Table1[[#This Row],[adjusted_vote_trump_with_johnson_only]]</f>
-        <v>-11612</v>
+        <v>126833.59999999963</v>
       </c>
       <c r="X47" s="12">
         <f>Table1[[#This Row],[adjusted_vote_clinton]]-Table1[[#This Row],[adjusted_vote_trump]]</f>
-        <v>-11612</v>
+        <v>116693.59999999963</v>
       </c>
       <c r="Y47" s="12">
         <f>IF(Table1[[#This Row],[adjusted_spread_with_stein_only]]&gt;0,Table1[[#This Row],[electoral_votes]],0)</f>
@@ -10691,15 +10691,15 @@
       </c>
       <c r="Z47" s="12">
         <f>IF(Table1[[#This Row],[adjusted_spread_with_johnson_only]]&gt;0,Table1[[#This Row],[electoral_votes]],0)</f>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AA47" s="11">
         <f>IF(Table1[[#This Row],[adjusted_spread]]&gt;0,Table1[[#This Row],[electoral_votes]],0)</f>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AB47" s="12">
         <f>IF(Table1[[#This Row],[adjusted_spread]]&lt;0,Table1[[#This Row],[electoral_votes]],0)</f>
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="AC47" s="12" t="str">
         <f>IF(Table1[[#This Row],[orig_spread]]&lt;0,"Trump",IF(Table1[[#This Row],[orig_spread]]&gt;0,"Clinton",""))</f>
@@ -10707,11 +10707,11 @@
       </c>
       <c r="AD47" s="12" t="str">
         <f>IF(Table1[[#This Row],[adjusted_spread]]&lt;0,"Trump",IF(Table1[[#This Row],[adjusted_spread]]&gt;0,"Clinton",""))</f>
-        <v>Trump</v>
+        <v>Clinton</v>
       </c>
       <c r="AE47" s="11" t="b">
         <f>AND(Table1[[#This Row],[orig_outcome]]="Trump",Table1[[#This Row],[adjusted_outcome]]="Clinton")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF47" s="11" t="b">
         <f>AND(Table1[[#This Row],[orig_outcome]]="Clinton",Table1[[#This Row],[adjusted_outcome]]="Trump")</f>
@@ -10719,7 +10719,7 @@
       </c>
       <c r="AG47" s="11" t="str">
         <f>IF(Table1[[#This Row],[index]]=1,IF(Table1[[#This Row],[pickup_clinton]],Table1[[#This Row],[State]],""),IF(Table1[[#This Row],[pickup_clinton]],CONCATENATE(AG46,IF(AG46="","",","),Table1[[#This Row],[State]]),AG46))</f>
-        <v/>
+        <v>Florida,Michigan</v>
       </c>
       <c r="AH47" s="11" t="str">
         <f>IF(Table1[[#This Row],[index]]=1,IF(Table1[[#This Row],[pickup_trump]],Table1[[#This Row],[State]],""),IF(Table1[[#This Row],[pickup_trump]],CONCATENATE(AH46,IF(AH36="","",","),Table1[[#This Row],[State]]),AH46))</f>
@@ -10727,15 +10727,15 @@
       </c>
       <c r="AI47" s="30">
         <f>IF(Table1[[#This Row],[orig_vote_stein]]=0,"",(1-Table1[[#This Row],[adjusted_spread_with_johnson_only]]/Table1[[#This Row],[orig_vote_stein]])/2)</f>
-        <v>0.61451676528599608</v>
+        <v>-0.75082445759368466</v>
       </c>
       <c r="AJ47" s="30">
         <f>(1-Table1[[#This Row],[adjusted_spread_with_stein_only]]/Table1[[#This Row],[orig_vote_johnson]])/2</f>
-        <v>0.53354963971408265</v>
+        <v>0.56284634542376211</v>
       </c>
       <c r="AK47" s="30" t="b">
         <f>AND(Table1[[#This Row],[stein_split_needed_pure]]&gt;=0,Table1[[#This Row],[stein_split_needed_pure]]&lt;=1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL47" s="30" t="b">
         <f>AND(Table1[[#This Row],[johnson_split_needed_pure]]&gt;=0,Table1[[#This Row],[johnson_split_needed_pure]]&lt;=1)</f>
@@ -10747,7 +10747,7 @@
       </c>
       <c r="AN47" s="51">
         <f t="array" ref="AN47">IF(NOT(Table1[[#This Row],[in_play_stein]]), 0, SUMPRODUCT(IF(Table1[stein_split_needed_pure]&lt;0.5, 0, 1), IF(Table1[in_play_stein], 1, 0), IF(Table1[stein_split_needed_pure]&lt;=Table1[[#This Row],[stein_split_needed_pure]], Table1[electoral_votes], 0)))</f>
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="AO47" s="51">
         <f t="array" ref="AO47">IF(NOT(Table1[[#This Row],[in_play_johnson]]), 0, SUMPRODUCT(IF(Table1[johnson_split_needed_pure]&lt;0.5, 0, 1), IF(Table1[in_play_johnson], 1, 0), IF(Table1[johnson_split_needed_pure]&lt;=Table1[[#This Row],[johnson_split_needed_pure]], Table1[electoral_votes], 0)))</f>
@@ -10763,7 +10763,7 @@
       </c>
       <c r="AR47" s="44">
         <f>adjusted_electors_clinton_with_johnson_only+Table1[[#This Row],[electors_with_split_stein_added]]+Table1[[#This Row],[electors_with_split_stein_dropped]]</f>
-        <v>249</v>
+        <v>314</v>
       </c>
       <c r="AS47" s="44">
         <f>adjusted_electors_clinton_with_stein_only+Table1[[#This Row],[electors_with_split_johnson_added]]+Table1[[#This Row],[electors_with_split_johnson_dropped]]</f>
@@ -10830,55 +10830,55 @@
       </c>
       <c r="L48" s="12">
         <f>pct_stein_to_clinton*Table1[[#This Row],[orig_vote_stein]]</f>
-        <v>18478.5</v>
+        <v>14782.800000000001</v>
       </c>
       <c r="M48" s="12">
         <f>pct_stein_to_trump*Table1[[#This Row],[orig_vote_stein]]</f>
-        <v>18478.5</v>
+        <v>22174.2</v>
       </c>
       <c r="N48" s="12">
         <f>pct_johnson_to_clinton*Table1[[#This Row],[orig_vote_johnson]]</f>
-        <v>56472</v>
+        <v>101649.60000000001</v>
       </c>
       <c r="O48" s="12">
         <f>pct_johnson_to_trump*Table1[[#This Row],[orig_vote_johnson]]</f>
-        <v>56472</v>
+        <v>11294.399999999998</v>
       </c>
       <c r="P48" s="12">
         <f>Table1[[#This Row],[orig_vote_clinton]]+Table1[[#This Row],[stein_votes_to_clinton]]</f>
-        <v>1385154.5</v>
+        <v>1381458.8</v>
       </c>
       <c r="Q48" s="12">
         <f>Table1[[#This Row],[orig_vote_trump]]+Table1[[#This Row],[stein_votes_to_trump]]</f>
-        <v>1341369.5</v>
+        <v>1345065.2</v>
       </c>
       <c r="R48" s="12">
         <f>Table1[[#This Row],[orig_vote_clinton]]+Table1[[#This Row],[johnson_votes_to_clinton]]</f>
-        <v>1423148</v>
+        <v>1468325.6</v>
       </c>
       <c r="S48" s="12">
         <f>Table1[[#This Row],[orig_vote_trump]]+Table1[[#This Row],[johnson_votes_to_trump]]</f>
-        <v>1379363</v>
+        <v>1334185.3999999999</v>
       </c>
       <c r="T48" s="11">
         <f>Table1[[#This Row],[orig_vote_clinton]]+Table1[[#This Row],[stein_votes_to_clinton]]+Table1[[#This Row],[johnson_votes_to_clinton]]</f>
-        <v>1441626.5</v>
+        <v>1483108.4000000001</v>
       </c>
       <c r="U48" s="11">
         <f>Table1[[#This Row],[orig_vote_trump]]+Table1[[#This Row],[stein_votes_to_trump]]+Table1[[#This Row],[johnson_votes_to_trump]]</f>
-        <v>1397841.5</v>
+        <v>1356359.5999999999</v>
       </c>
       <c r="V48" s="11">
         <f>Table1[[#This Row],[adjusted_vote_clinton_with_stein_only]]-Table1[[#This Row],[adjusted_vote_trump_with_stein_only]]</f>
-        <v>43785</v>
+        <v>36393.600000000093</v>
       </c>
       <c r="W48" s="11">
         <f>Table1[[#This Row],[adjusted_vote_clinton_with_johnson_only]]-Table1[[#This Row],[adjusted_vote_trump_with_johnson_only]]</f>
-        <v>43785</v>
+        <v>134140.20000000019</v>
       </c>
       <c r="X48" s="12">
         <f>Table1[[#This Row],[adjusted_vote_clinton]]-Table1[[#This Row],[adjusted_vote_trump]]</f>
-        <v>43785</v>
+        <v>126748.80000000028</v>
       </c>
       <c r="Y48" s="12">
         <f>IF(Table1[[#This Row],[adjusted_spread_with_stein_only]]&gt;0,Table1[[#This Row],[electoral_votes]],0)</f>
@@ -10914,7 +10914,7 @@
       </c>
       <c r="AG48" s="11" t="str">
         <f>IF(Table1[[#This Row],[index]]=1,IF(Table1[[#This Row],[pickup_clinton]],Table1[[#This Row],[State]],""),IF(Table1[[#This Row],[pickup_clinton]],CONCATENATE(AG47,IF(AG47="","",","),Table1[[#This Row],[State]]),AG47))</f>
-        <v/>
+        <v>Florida,Michigan</v>
       </c>
       <c r="AH48" s="11" t="str">
         <f>IF(Table1[[#This Row],[index]]=1,IF(Table1[[#This Row],[pickup_trump]],Table1[[#This Row],[State]],""),IF(Table1[[#This Row],[pickup_trump]],CONCATENATE(AH47,IF(AH37="","",","),Table1[[#This Row],[State]]),AH47))</f>
@@ -10922,11 +10922,11 @@
       </c>
       <c r="AI48" s="30">
         <f>IF(Table1[[#This Row],[orig_vote_stein]]=0,"",(1-Table1[[#This Row],[adjusted_spread_with_johnson_only]]/Table1[[#This Row],[orig_vote_stein]])/2)</f>
-        <v>-9.2377628054225225E-2</v>
+        <v>-1.3148145141651133</v>
       </c>
       <c r="AJ48" s="30">
         <f>(1-Table1[[#This Row],[adjusted_spread_with_stein_only]]/Table1[[#This Row],[orig_vote_johnson]])/2</f>
-        <v>0.30616500212494691</v>
+        <v>0.33888652783680367</v>
       </c>
       <c r="AK48" s="30" t="b">
         <f>AND(Table1[[#This Row],[stein_split_needed_pure]]&gt;=0,Table1[[#This Row],[stein_split_needed_pure]]&lt;=1)</f>
@@ -10958,7 +10958,7 @@
       </c>
       <c r="AR48" s="44">
         <f>adjusted_electors_clinton_with_johnson_only+Table1[[#This Row],[electors_with_split_stein_added]]+Table1[[#This Row],[electors_with_split_stein_dropped]]</f>
-        <v>233</v>
+        <v>314</v>
       </c>
       <c r="AS48" s="44">
         <f>adjusted_electors_clinton_with_stein_only+Table1[[#This Row],[electors_with_split_johnson_added]]+Table1[[#This Row],[electors_with_split_johnson_dropped]]</f>
@@ -11025,55 +11025,55 @@
       </c>
       <c r="L49" s="12">
         <f>pct_stein_to_clinton*Table1[[#This Row],[orig_vote_stein]]</f>
-        <v>1797.5</v>
+        <v>1438</v>
       </c>
       <c r="M49" s="12">
         <f>pct_stein_to_trump*Table1[[#This Row],[orig_vote_stein]]</f>
-        <v>1797.5</v>
+        <v>2157</v>
       </c>
       <c r="N49" s="12">
         <f>pct_johnson_to_clinton*Table1[[#This Row],[orig_vote_johnson]]</f>
-        <v>6908.5</v>
+        <v>12435.300000000001</v>
       </c>
       <c r="O49" s="12">
         <f>pct_johnson_to_trump*Table1[[#This Row],[orig_vote_johnson]]</f>
-        <v>6908.5</v>
+        <v>1381.6999999999996</v>
       </c>
       <c r="P49" s="12">
         <f>Table1[[#This Row],[orig_vote_clinton]]+Table1[[#This Row],[stein_votes_to_clinton]]</f>
-        <v>464047.5</v>
+        <v>463688</v>
       </c>
       <c r="Q49" s="12">
         <f>Table1[[#This Row],[orig_vote_trump]]+Table1[[#This Row],[stein_votes_to_trump]]</f>
-        <v>680254.5</v>
+        <v>680614</v>
       </c>
       <c r="R49" s="12">
         <f>Table1[[#This Row],[orig_vote_clinton]]+Table1[[#This Row],[johnson_votes_to_clinton]]</f>
-        <v>469158.5</v>
+        <v>474685.3</v>
       </c>
       <c r="S49" s="12">
         <f>Table1[[#This Row],[orig_vote_trump]]+Table1[[#This Row],[johnson_votes_to_trump]]</f>
-        <v>685365.5</v>
+        <v>679838.7</v>
       </c>
       <c r="T49" s="11">
         <f>Table1[[#This Row],[orig_vote_clinton]]+Table1[[#This Row],[stein_votes_to_clinton]]+Table1[[#This Row],[johnson_votes_to_clinton]]</f>
-        <v>470956</v>
+        <v>476123.3</v>
       </c>
       <c r="U49" s="11">
         <f>Table1[[#This Row],[orig_vote_trump]]+Table1[[#This Row],[stein_votes_to_trump]]+Table1[[#This Row],[johnson_votes_to_trump]]</f>
-        <v>687163</v>
+        <v>681995.7</v>
       </c>
       <c r="V49" s="11">
         <f>Table1[[#This Row],[adjusted_vote_clinton_with_stein_only]]-Table1[[#This Row],[adjusted_vote_trump_with_stein_only]]</f>
-        <v>-216207</v>
+        <v>-216926</v>
       </c>
       <c r="W49" s="11">
         <f>Table1[[#This Row],[adjusted_vote_clinton_with_johnson_only]]-Table1[[#This Row],[adjusted_vote_trump_with_johnson_only]]</f>
-        <v>-216207</v>
+        <v>-205153.39999999997</v>
       </c>
       <c r="X49" s="12">
         <f>Table1[[#This Row],[adjusted_vote_clinton]]-Table1[[#This Row],[adjusted_vote_trump]]</f>
-        <v>-216207</v>
+        <v>-205872.39999999997</v>
       </c>
       <c r="Y49" s="12">
         <f>IF(Table1[[#This Row],[adjusted_spread_with_stein_only]]&gt;0,Table1[[#This Row],[electoral_votes]],0)</f>
@@ -11109,7 +11109,7 @@
       </c>
       <c r="AG49" s="11" t="str">
         <f>IF(Table1[[#This Row],[index]]=1,IF(Table1[[#This Row],[pickup_clinton]],Table1[[#This Row],[State]],""),IF(Table1[[#This Row],[pickup_clinton]],CONCATENATE(AG48,IF(AG48="","",","),Table1[[#This Row],[State]]),AG48))</f>
-        <v/>
+        <v>Florida,Michigan</v>
       </c>
       <c r="AH49" s="11" t="str">
         <f>IF(Table1[[#This Row],[index]]=1,IF(Table1[[#This Row],[pickup_trump]],Table1[[#This Row],[State]],""),IF(Table1[[#This Row],[pickup_trump]],CONCATENATE(AH48,IF(AH38="","",","),Table1[[#This Row],[State]]),AH48))</f>
@@ -11117,11 +11117,11 @@
       </c>
       <c r="AI49" s="30">
         <f>IF(Table1[[#This Row],[orig_vote_stein]]=0,"",(1-Table1[[#This Row],[adjusted_spread_with_johnson_only]]/Table1[[#This Row],[orig_vote_stein]])/2)</f>
-        <v>30.570514603616132</v>
+        <v>29.033157162726003</v>
       </c>
       <c r="AJ49" s="30">
         <f>(1-Table1[[#This Row],[adjusted_spread_with_stein_only]]/Table1[[#This Row],[orig_vote_johnson]])/2</f>
-        <v>8.3239487587754226</v>
+        <v>8.3499674314250569</v>
       </c>
       <c r="AK49" s="30" t="b">
         <f>AND(Table1[[#This Row],[stein_split_needed_pure]]&gt;=0,Table1[[#This Row],[stein_split_needed_pure]]&lt;=1)</f>
@@ -11153,7 +11153,7 @@
       </c>
       <c r="AR49" s="44">
         <f>adjusted_electors_clinton_with_johnson_only+Table1[[#This Row],[electors_with_split_stein_added]]+Table1[[#This Row],[electors_with_split_stein_dropped]]</f>
-        <v>233</v>
+        <v>314</v>
       </c>
       <c r="AS49" s="44">
         <f>adjusted_electors_clinton_with_stein_only+Table1[[#This Row],[electors_with_split_johnson_added]]+Table1[[#This Row],[electors_with_split_johnson_dropped]]</f>
@@ -11220,55 +11220,55 @@
       </c>
       <c r="L50" s="12">
         <f>pct_stein_to_clinton*Table1[[#This Row],[orig_vote_stein]]</f>
-        <v>12543</v>
+        <v>10034.400000000001</v>
       </c>
       <c r="M50" s="12">
         <f>pct_stein_to_trump*Table1[[#This Row],[orig_vote_stein]]</f>
-        <v>12543</v>
+        <v>15051.599999999999</v>
       </c>
       <c r="N50" s="12">
         <f>pct_johnson_to_clinton*Table1[[#This Row],[orig_vote_johnson]]</f>
-        <v>48202</v>
+        <v>86763.6</v>
       </c>
       <c r="O50" s="12">
         <f>pct_johnson_to_trump*Table1[[#This Row],[orig_vote_johnson]]</f>
-        <v>48202</v>
+        <v>9640.3999999999978</v>
       </c>
       <c r="P50" s="12">
         <f>Table1[[#This Row],[orig_vote_clinton]]+Table1[[#This Row],[stein_votes_to_clinton]]</f>
-        <v>1067432</v>
+        <v>1064923.3999999999</v>
       </c>
       <c r="Q50" s="12">
         <f>Table1[[#This Row],[orig_vote_trump]]+Table1[[#This Row],[stein_votes_to_trump]]</f>
-        <v>1598296</v>
+        <v>1600804.6</v>
       </c>
       <c r="R50" s="12">
         <f>Table1[[#This Row],[orig_vote_clinton]]+Table1[[#This Row],[johnson_votes_to_clinton]]</f>
-        <v>1103091</v>
+        <v>1141652.6000000001</v>
       </c>
       <c r="S50" s="12">
         <f>Table1[[#This Row],[orig_vote_trump]]+Table1[[#This Row],[johnson_votes_to_trump]]</f>
-        <v>1633955</v>
+        <v>1595393.4</v>
       </c>
       <c r="T50" s="11">
         <f>Table1[[#This Row],[orig_vote_clinton]]+Table1[[#This Row],[stein_votes_to_clinton]]+Table1[[#This Row],[johnson_votes_to_clinton]]</f>
-        <v>1115634</v>
+        <v>1151687</v>
       </c>
       <c r="U50" s="11">
         <f>Table1[[#This Row],[orig_vote_trump]]+Table1[[#This Row],[stein_votes_to_trump]]+Table1[[#This Row],[johnson_votes_to_trump]]</f>
-        <v>1646498</v>
+        <v>1610445</v>
       </c>
       <c r="V50" s="11">
         <f>Table1[[#This Row],[adjusted_vote_clinton_with_stein_only]]-Table1[[#This Row],[adjusted_vote_trump_with_stein_only]]</f>
-        <v>-530864</v>
+        <v>-535881.20000000019</v>
       </c>
       <c r="W50" s="11">
         <f>Table1[[#This Row],[adjusted_vote_clinton_with_johnson_only]]-Table1[[#This Row],[adjusted_vote_trump_with_johnson_only]]</f>
-        <v>-530864</v>
+        <v>-453740.79999999981</v>
       </c>
       <c r="X50" s="12">
         <f>Table1[[#This Row],[adjusted_vote_clinton]]-Table1[[#This Row],[adjusted_vote_trump]]</f>
-        <v>-530864</v>
+        <v>-458758</v>
       </c>
       <c r="Y50" s="12">
         <f>IF(Table1[[#This Row],[adjusted_spread_with_stein_only]]&gt;0,Table1[[#This Row],[electoral_votes]],0)</f>
@@ -11304,7 +11304,7 @@
       </c>
       <c r="AG50" s="11" t="str">
         <f>IF(Table1[[#This Row],[index]]=1,IF(Table1[[#This Row],[pickup_clinton]],Table1[[#This Row],[State]],""),IF(Table1[[#This Row],[pickup_clinton]],CONCATENATE(AG49,IF(AG49="","",","),Table1[[#This Row],[State]]),AG49))</f>
-        <v/>
+        <v>Florida,Michigan</v>
       </c>
       <c r="AH50" s="11" t="str">
         <f>IF(Table1[[#This Row],[index]]=1,IF(Table1[[#This Row],[pickup_trump]],Table1[[#This Row],[State]],""),IF(Table1[[#This Row],[pickup_trump]],CONCATENATE(AH49,IF(AH39="","",","),Table1[[#This Row],[State]]),AH49))</f>
@@ -11312,11 +11312,11 @@
       </c>
       <c r="AI50" s="30">
         <f>IF(Table1[[#This Row],[orig_vote_stein]]=0,"",(1-Table1[[#This Row],[adjusted_spread_with_johnson_only]]/Table1[[#This Row],[orig_vote_stein]])/2)</f>
-        <v>11.080881766722475</v>
+        <v>9.5437056525552055</v>
       </c>
       <c r="AJ50" s="30">
         <f>(1-Table1[[#This Row],[adjusted_spread_with_stein_only]]/Table1[[#This Row],[orig_vote_johnson]])/2</f>
-        <v>3.2533297373552963</v>
+        <v>3.2793514791917358</v>
       </c>
       <c r="AK50" s="30" t="b">
         <f>AND(Table1[[#This Row],[stein_split_needed_pure]]&gt;=0,Table1[[#This Row],[stein_split_needed_pure]]&lt;=1)</f>
@@ -11348,7 +11348,7 @@
       </c>
       <c r="AR50" s="44">
         <f>adjusted_electors_clinton_with_johnson_only+Table1[[#This Row],[electors_with_split_stein_added]]+Table1[[#This Row],[electors_with_split_stein_dropped]]</f>
-        <v>233</v>
+        <v>314</v>
       </c>
       <c r="AS50" s="44">
         <f>adjusted_electors_clinton_with_stein_only+Table1[[#This Row],[electors_with_split_johnson_added]]+Table1[[#This Row],[electors_with_split_johnson_dropped]]</f>
@@ -11415,55 +11415,55 @@
       </c>
       <c r="L51" s="12">
         <f>pct_stein_to_clinton*Table1[[#This Row],[orig_vote_stein]]</f>
-        <v>3834.5</v>
+        <v>3067.6000000000004</v>
       </c>
       <c r="M51" s="12">
         <f>pct_stein_to_trump*Table1[[#This Row],[orig_vote_stein]]</f>
-        <v>3834.5</v>
+        <v>4601.3999999999996</v>
       </c>
       <c r="N51" s="12">
         <f>pct_johnson_to_clinton*Table1[[#This Row],[orig_vote_johnson]]</f>
-        <v>13632</v>
+        <v>24537.600000000002</v>
       </c>
       <c r="O51" s="12">
         <f>pct_johnson_to_trump*Table1[[#This Row],[orig_vote_johnson]]</f>
-        <v>13632</v>
+        <v>2726.3999999999992</v>
       </c>
       <c r="P51" s="12">
         <f>Table1[[#This Row],[orig_vote_clinton]]+Table1[[#This Row],[stein_votes_to_clinton]]</f>
-        <v>178355.5</v>
+        <v>177588.6</v>
       </c>
       <c r="Q51" s="12">
         <f>Table1[[#This Row],[orig_vote_trump]]+Table1[[#This Row],[stein_votes_to_trump]]</f>
-        <v>277954.5</v>
+        <v>278721.40000000002</v>
       </c>
       <c r="R51" s="12">
         <f>Table1[[#This Row],[orig_vote_clinton]]+Table1[[#This Row],[johnson_votes_to_clinton]]</f>
-        <v>188153</v>
+        <v>199058.6</v>
       </c>
       <c r="S51" s="12">
         <f>Table1[[#This Row],[orig_vote_trump]]+Table1[[#This Row],[johnson_votes_to_trump]]</f>
-        <v>287752</v>
+        <v>276846.40000000002</v>
       </c>
       <c r="T51" s="11">
         <f>Table1[[#This Row],[orig_vote_clinton]]+Table1[[#This Row],[stein_votes_to_clinton]]+Table1[[#This Row],[johnson_votes_to_clinton]]</f>
-        <v>191987.5</v>
+        <v>202126.2</v>
       </c>
       <c r="U51" s="11">
         <f>Table1[[#This Row],[orig_vote_trump]]+Table1[[#This Row],[stein_votes_to_trump]]+Table1[[#This Row],[johnson_votes_to_trump]]</f>
-        <v>291586.5</v>
+        <v>281447.80000000005</v>
       </c>
       <c r="V51" s="11">
         <f>Table1[[#This Row],[adjusted_vote_clinton_with_stein_only]]-Table1[[#This Row],[adjusted_vote_trump_with_stein_only]]</f>
-        <v>-99599</v>
+        <v>-101132.80000000002</v>
       </c>
       <c r="W51" s="11">
         <f>Table1[[#This Row],[adjusted_vote_clinton_with_johnson_only]]-Table1[[#This Row],[adjusted_vote_trump_with_johnson_only]]</f>
-        <v>-99599</v>
+        <v>-77787.800000000017</v>
       </c>
       <c r="X51" s="12">
         <f>Table1[[#This Row],[adjusted_vote_clinton]]-Table1[[#This Row],[adjusted_vote_trump]]</f>
-        <v>-99599</v>
+        <v>-79321.600000000035</v>
       </c>
       <c r="Y51" s="12">
         <f>IF(Table1[[#This Row],[adjusted_spread_with_stein_only]]&gt;0,Table1[[#This Row],[electoral_votes]],0)</f>
@@ -11499,7 +11499,7 @@
       </c>
       <c r="AG51" s="11" t="str">
         <f>IF(Table1[[#This Row],[index]]=1,IF(Table1[[#This Row],[pickup_clinton]],Table1[[#This Row],[State]],""),IF(Table1[[#This Row],[pickup_clinton]],CONCATENATE(AG50,IF(AG50="","",","),Table1[[#This Row],[State]]),AG50))</f>
-        <v/>
+        <v>Florida,Michigan</v>
       </c>
       <c r="AH51" s="11" t="str">
         <f>IF(Table1[[#This Row],[index]]=1,IF(Table1[[#This Row],[pickup_trump]],Table1[[#This Row],[State]],""),IF(Table1[[#This Row],[pickup_trump]],CONCATENATE(AH50,IF(AH40="","",","),Table1[[#This Row],[State]]),AH50))</f>
@@ -11507,11 +11507,11 @@
       </c>
       <c r="AI51" s="30">
         <f>IF(Table1[[#This Row],[orig_vote_stein]]=0,"",(1-Table1[[#This Row],[adjusted_spread_with_johnson_only]]/Table1[[#This Row],[orig_vote_stein]])/2)</f>
-        <v>6.9936106402399272</v>
+        <v>5.5715738688225338</v>
       </c>
       <c r="AJ51" s="30">
         <f>(1-Table1[[#This Row],[adjusted_spread_with_stein_only]]/Table1[[#This Row],[orig_vote_johnson]])/2</f>
-        <v>2.3265661678403755</v>
+        <v>2.3546948356807516</v>
       </c>
       <c r="AK51" s="30" t="b">
         <f>AND(Table1[[#This Row],[stein_split_needed_pure]]&gt;=0,Table1[[#This Row],[stein_split_needed_pure]]&lt;=1)</f>
@@ -11543,7 +11543,7 @@
       </c>
       <c r="AR51" s="44">
         <f>adjusted_electors_clinton_with_johnson_only+Table1[[#This Row],[electors_with_split_stein_added]]+Table1[[#This Row],[electors_with_split_stein_dropped]]</f>
-        <v>233</v>
+        <v>314</v>
       </c>
       <c r="AS51" s="44">
         <f>adjusted_electors_clinton_with_stein_only+Table1[[#This Row],[electors_with_split_johnson_added]]+Table1[[#This Row],[electors_with_split_johnson_dropped]]</f>
@@ -11610,55 +11610,55 @@
       </c>
       <c r="L52" s="12">
         <f>pct_stein_to_clinton*Table1[[#This Row],[orig_vote_stein]]</f>
-        <v>4173</v>
+        <v>3338.4</v>
       </c>
       <c r="M52" s="12">
         <f>pct_stein_to_trump*Table1[[#This Row],[orig_vote_stein]]</f>
-        <v>4173</v>
+        <v>5007.5999999999995</v>
       </c>
       <c r="N52" s="12">
         <f>pct_johnson_to_clinton*Table1[[#This Row],[orig_vote_johnson]]</f>
-        <v>18807.5</v>
+        <v>33853.5</v>
       </c>
       <c r="O52" s="12">
         <f>pct_johnson_to_trump*Table1[[#This Row],[orig_vote_johnson]]</f>
-        <v>18807.5</v>
+        <v>3761.4999999999991</v>
       </c>
       <c r="P52" s="12">
         <f>Table1[[#This Row],[orig_vote_clinton]]+Table1[[#This Row],[stein_votes_to_clinton]]</f>
-        <v>278031</v>
+        <v>277196.40000000002</v>
       </c>
       <c r="Q52" s="12">
         <f>Table1[[#This Row],[orig_vote_trump]]+Table1[[#This Row],[stein_votes_to_trump]]</f>
-        <v>489992</v>
+        <v>490826.6</v>
       </c>
       <c r="R52" s="12">
         <f>Table1[[#This Row],[orig_vote_clinton]]+Table1[[#This Row],[johnson_votes_to_clinton]]</f>
-        <v>292665.5</v>
+        <v>307711.5</v>
       </c>
       <c r="S52" s="12">
         <f>Table1[[#This Row],[orig_vote_trump]]+Table1[[#This Row],[johnson_votes_to_trump]]</f>
-        <v>504626.5</v>
+        <v>489580.5</v>
       </c>
       <c r="T52" s="11">
         <f>Table1[[#This Row],[orig_vote_clinton]]+Table1[[#This Row],[stein_votes_to_clinton]]+Table1[[#This Row],[johnson_votes_to_clinton]]</f>
-        <v>296838.5</v>
+        <v>311049.90000000002</v>
       </c>
       <c r="U52" s="11">
         <f>Table1[[#This Row],[orig_vote_trump]]+Table1[[#This Row],[stein_votes_to_trump]]+Table1[[#This Row],[johnson_votes_to_trump]]</f>
-        <v>508799.5</v>
+        <v>494588.1</v>
       </c>
       <c r="V52" s="11">
         <f>Table1[[#This Row],[adjusted_vote_clinton_with_stein_only]]-Table1[[#This Row],[adjusted_vote_trump_with_stein_only]]</f>
-        <v>-211961</v>
+        <v>-213630.19999999995</v>
       </c>
       <c r="W52" s="11">
         <f>Table1[[#This Row],[adjusted_vote_clinton_with_johnson_only]]-Table1[[#This Row],[adjusted_vote_trump_with_johnson_only]]</f>
-        <v>-211961</v>
+        <v>-181869</v>
       </c>
       <c r="X52" s="12">
         <f>Table1[[#This Row],[adjusted_vote_clinton]]-Table1[[#This Row],[adjusted_vote_trump]]</f>
-        <v>-211961</v>
+        <v>-183538.19999999995</v>
       </c>
       <c r="Y52" s="12">
         <f>IF(Table1[[#This Row],[adjusted_spread_with_stein_only]]&gt;0,Table1[[#This Row],[electoral_votes]],0)</f>
@@ -11694,7 +11694,7 @@
       </c>
       <c r="AG52" s="11" t="str">
         <f>IF(Table1[[#This Row],[index]]=1,IF(Table1[[#This Row],[pickup_clinton]],Table1[[#This Row],[State]],""),IF(Table1[[#This Row],[pickup_clinton]],CONCATENATE(AG51,IF(AG51="","",","),Table1[[#This Row],[State]]),AG51))</f>
-        <v/>
+        <v>Florida,Michigan</v>
       </c>
       <c r="AH52" s="11" t="str">
         <f>IF(Table1[[#This Row],[index]]=1,IF(Table1[[#This Row],[pickup_trump]],Table1[[#This Row],[State]],""),IF(Table1[[#This Row],[pickup_trump]],CONCATENATE(AH51,IF(AH41="","",","),Table1[[#This Row],[State]]),AH51))</f>
@@ -11702,11 +11702,11 @@
       </c>
       <c r="AI52" s="30">
         <f>IF(Table1[[#This Row],[orig_vote_stein]]=0,"",(1-Table1[[#This Row],[adjusted_spread_with_johnson_only]]/Table1[[#This Row],[orig_vote_stein]])/2)</f>
-        <v>13.198358495087467</v>
+        <v>11.395578720345075</v>
       </c>
       <c r="AJ52" s="30">
         <f>(1-Table1[[#This Row],[adjusted_spread_with_stein_only]]/Table1[[#This Row],[orig_vote_johnson]])/2</f>
-        <v>3.3175063139704903</v>
+        <v>3.339694270902565</v>
       </c>
       <c r="AK52" s="30" t="b">
         <f>AND(Table1[[#This Row],[stein_split_needed_pure]]&gt;=0,Table1[[#This Row],[stein_split_needed_pure]]&lt;=1)</f>
@@ -11738,7 +11738,7 @@
       </c>
       <c r="AR52" s="44">
         <f>adjusted_electors_clinton_with_johnson_only+Table1[[#This Row],[electors_with_split_stein_added]]+Table1[[#This Row],[electors_with_split_stein_dropped]]</f>
-        <v>233</v>
+        <v>314</v>
       </c>
       <c r="AS52" s="44">
         <f>adjusted_electors_clinton_with_stein_only+Table1[[#This Row],[electors_with_split_johnson_added]]+Table1[[#This Row],[electors_with_split_johnson_dropped]]</f>
@@ -11813,11 +11813,11 @@
       </c>
       <c r="N53" s="12">
         <f>pct_johnson_to_clinton*Table1[[#This Row],[orig_vote_johnson]]</f>
-        <v>18649.5</v>
+        <v>33569.1</v>
       </c>
       <c r="O53" s="12">
         <f>pct_johnson_to_trump*Table1[[#This Row],[orig_vote_johnson]]</f>
-        <v>18649.5</v>
+        <v>3729.8999999999992</v>
       </c>
       <c r="P53" s="12">
         <f>Table1[[#This Row],[orig_vote_clinton]]+Table1[[#This Row],[stein_votes_to_clinton]]</f>
@@ -11829,19 +11829,19 @@
       </c>
       <c r="R53" s="12">
         <f>Table1[[#This Row],[orig_vote_clinton]]+Table1[[#This Row],[johnson_votes_to_clinton]]</f>
-        <v>556402.5</v>
+        <v>571322.1</v>
       </c>
       <c r="S53" s="12">
         <f>Table1[[#This Row],[orig_vote_trump]]+Table1[[#This Row],[johnson_votes_to_trump]]</f>
-        <v>529968.5</v>
+        <v>515048.9</v>
       </c>
       <c r="T53" s="11">
         <f>Table1[[#This Row],[orig_vote_clinton]]+Table1[[#This Row],[stein_votes_to_clinton]]+Table1[[#This Row],[johnson_votes_to_clinton]]</f>
-        <v>556402.5</v>
+        <v>571322.1</v>
       </c>
       <c r="U53" s="11">
         <f>Table1[[#This Row],[orig_vote_trump]]+Table1[[#This Row],[stein_votes_to_trump]]+Table1[[#This Row],[johnson_votes_to_trump]]</f>
-        <v>529968.5</v>
+        <v>515048.9</v>
       </c>
       <c r="V53" s="11">
         <f>Table1[[#This Row],[adjusted_vote_clinton_with_stein_only]]-Table1[[#This Row],[adjusted_vote_trump_with_stein_only]]</f>
@@ -11849,11 +11849,11 @@
       </c>
       <c r="W53" s="11">
         <f>Table1[[#This Row],[adjusted_vote_clinton_with_johnson_only]]-Table1[[#This Row],[adjusted_vote_trump_with_johnson_only]]</f>
-        <v>26434</v>
+        <v>56273.199999999953</v>
       </c>
       <c r="X53" s="12">
         <f>Table1[[#This Row],[adjusted_vote_clinton]]-Table1[[#This Row],[adjusted_vote_trump]]</f>
-        <v>26434</v>
+        <v>56273.199999999953</v>
       </c>
       <c r="Y53" s="12">
         <f>IF(Table1[[#This Row],[adjusted_spread_with_stein_only]]&gt;0,Table1[[#This Row],[electoral_votes]],0)</f>
@@ -11889,7 +11889,7 @@
       </c>
       <c r="AG53" s="11" t="str">
         <f>IF(Table1[[#This Row],[index]]=1,IF(Table1[[#This Row],[pickup_clinton]],Table1[[#This Row],[State]],""),IF(Table1[[#This Row],[pickup_clinton]],CONCATENATE(AG52,IF(AG52="","",","),Table1[[#This Row],[State]]),AG52))</f>
-        <v/>
+        <v>Florida,Michigan</v>
       </c>
       <c r="AH53" s="11" t="str">
         <f>IF(Table1[[#This Row],[index]]=1,IF(Table1[[#This Row],[pickup_trump]],Table1[[#This Row],[State]],""),IF(Table1[[#This Row],[pickup_trump]],CONCATENATE(AH52,IF(AH42="","",","),Table1[[#This Row],[State]]),AH52))</f>
@@ -11933,7 +11933,7 @@
       </c>
       <c r="AR53" s="44">
         <f>adjusted_electors_clinton_with_johnson_only+Table1[[#This Row],[electors_with_split_stein_added]]+Table1[[#This Row],[electors_with_split_stein_dropped]]</f>
-        <v>233</v>
+        <v>314</v>
       </c>
       <c r="AS53" s="44">
         <f>adjusted_electors_clinton_with_stein_only+Table1[[#This Row],[electors_with_split_johnson_added]]+Table1[[#This Row],[electors_with_split_johnson_dropped]]</f>
@@ -12000,55 +12000,55 @@
       </c>
       <c r="L54" s="12">
         <f>pct_stein_to_clinton*Table1[[#This Row],[orig_vote_stein]]</f>
-        <v>3208</v>
+        <v>2566.4</v>
       </c>
       <c r="M54" s="12">
         <f>pct_stein_to_trump*Table1[[#This Row],[orig_vote_stein]]</f>
-        <v>3208</v>
+        <v>3849.6</v>
       </c>
       <c r="N54" s="12">
         <f>pct_johnson_to_clinton*Table1[[#This Row],[orig_vote_johnson]]</f>
-        <v>15413.5</v>
+        <v>27744.3</v>
       </c>
       <c r="O54" s="12">
         <f>pct_johnson_to_trump*Table1[[#This Row],[orig_vote_johnson]]</f>
-        <v>15413.5</v>
+        <v>3082.6999999999994</v>
       </c>
       <c r="P54" s="12">
         <f>Table1[[#This Row],[orig_vote_clinton]]+Table1[[#This Row],[stein_votes_to_clinton]]</f>
-        <v>351729</v>
+        <v>351087.4</v>
       </c>
       <c r="Q54" s="12">
         <f>Table1[[#This Row],[orig_vote_trump]]+Table1[[#This Row],[stein_votes_to_trump]]</f>
-        <v>348997</v>
+        <v>349638.6</v>
       </c>
       <c r="R54" s="12">
         <f>Table1[[#This Row],[orig_vote_clinton]]+Table1[[#This Row],[johnson_votes_to_clinton]]</f>
-        <v>363934.5</v>
+        <v>376265.3</v>
       </c>
       <c r="S54" s="12">
         <f>Table1[[#This Row],[orig_vote_trump]]+Table1[[#This Row],[johnson_votes_to_trump]]</f>
-        <v>361202.5</v>
+        <v>348871.7</v>
       </c>
       <c r="T54" s="11">
         <f>Table1[[#This Row],[orig_vote_clinton]]+Table1[[#This Row],[stein_votes_to_clinton]]+Table1[[#This Row],[johnson_votes_to_clinton]]</f>
-        <v>367142.5</v>
+        <v>378831.7</v>
       </c>
       <c r="U54" s="11">
         <f>Table1[[#This Row],[orig_vote_trump]]+Table1[[#This Row],[stein_votes_to_trump]]+Table1[[#This Row],[johnson_votes_to_trump]]</f>
-        <v>364410.5</v>
+        <v>352721.3</v>
       </c>
       <c r="V54" s="11">
         <f>Table1[[#This Row],[adjusted_vote_clinton_with_stein_only]]-Table1[[#This Row],[adjusted_vote_trump_with_stein_only]]</f>
-        <v>2732</v>
+        <v>1448.8000000000466</v>
       </c>
       <c r="W54" s="11">
         <f>Table1[[#This Row],[adjusted_vote_clinton_with_johnson_only]]-Table1[[#This Row],[adjusted_vote_trump_with_johnson_only]]</f>
-        <v>2732</v>
+        <v>27393.599999999977</v>
       </c>
       <c r="X54" s="12">
         <f>Table1[[#This Row],[adjusted_vote_clinton]]-Table1[[#This Row],[adjusted_vote_trump]]</f>
-        <v>2732</v>
+        <v>26110.400000000023</v>
       </c>
       <c r="Y54" s="12">
         <f>IF(Table1[[#This Row],[adjusted_spread_with_stein_only]]&gt;0,Table1[[#This Row],[electoral_votes]],0)</f>
@@ -12084,7 +12084,7 @@
       </c>
       <c r="AG54" s="11" t="str">
         <f>IF(Table1[[#This Row],[index]]=1,IF(Table1[[#This Row],[pickup_clinton]],Table1[[#This Row],[State]],""),IF(Table1[[#This Row],[pickup_clinton]],CONCATENATE(AG53,IF(AG53="","",","),Table1[[#This Row],[State]]),AG53))</f>
-        <v/>
+        <v>Florida,Michigan</v>
       </c>
       <c r="AH54" s="11" t="str">
         <f>IF(Table1[[#This Row],[index]]=1,IF(Table1[[#This Row],[pickup_trump]],Table1[[#This Row],[State]],""),IF(Table1[[#This Row],[pickup_trump]],CONCATENATE(AH53,IF(AH43="","",","),Table1[[#This Row],[State]]),AH53))</f>
@@ -12092,15 +12092,15 @@
       </c>
       <c r="AI54" s="30">
         <f>IF(Table1[[#This Row],[orig_vote_stein]]=0,"",(1-Table1[[#This Row],[adjusted_spread_with_johnson_only]]/Table1[[#This Row],[orig_vote_stein]])/2)</f>
-        <v>0.28709476309226933</v>
+        <v>-1.6347880299251853</v>
       </c>
       <c r="AJ54" s="30">
         <f>(1-Table1[[#This Row],[adjusted_spread_with_stein_only]]/Table1[[#This Row],[orig_vote_johnson]])/2</f>
-        <v>0.4556881954131119</v>
+        <v>0.47650111914879739</v>
       </c>
       <c r="AK54" s="30" t="b">
         <f>AND(Table1[[#This Row],[stein_split_needed_pure]]&gt;=0,Table1[[#This Row],[stein_split_needed_pure]]&lt;=1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL54" s="30" t="b">
         <f>AND(Table1[[#This Row],[johnson_split_needed_pure]]&gt;=0,Table1[[#This Row],[johnson_split_needed_pure]]&lt;=1)</f>
@@ -12120,7 +12120,7 @@
       </c>
       <c r="AP54" s="51">
         <f t="array" ref="AP54">IF(NOT(Table1[[#This Row],[in_play_stein]]), 0, SUMPRODUCT(IF(Table1[stein_split_needed_pure]&gt;0.5, 0, 1), IF(Table1[in_play_stein], 1, 0), IF(Table1[stein_split_needed_pure]&gt;=Table1[[#This Row],[stein_split_needed_pure]], -Table1[electoral_votes], 0)))</f>
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="AQ54" s="51">
         <f t="array" ref="AQ54">IF(NOT(Table1[[#This Row],[in_play_johnson]]), 0, SUMPRODUCT(IF(Table1[johnson_split_needed_pure]&gt;0.5, 0, 1), IF(Table1[in_play_johnson], 1, 0), IF(Table1[johnson_split_needed_pure]&gt;=Table1[[#This Row],[johnson_split_needed_pure]], -Table1[electoral_votes], 0)))</f>
@@ -12128,7 +12128,7 @@
       </c>
       <c r="AR54" s="44">
         <f>adjusted_electors_clinton_with_johnson_only+Table1[[#This Row],[electors_with_split_stein_added]]+Table1[[#This Row],[electors_with_split_stein_dropped]]</f>
-        <v>229</v>
+        <v>314</v>
       </c>
       <c r="AS54" s="44">
         <f>adjusted_electors_clinton_with_stein_only+Table1[[#This Row],[electors_with_split_johnson_added]]+Table1[[#This Row],[electors_with_split_johnson_dropped]]</f>
@@ -12195,55 +12195,55 @@
       </c>
       <c r="L55" s="12">
         <f>pct_stein_to_clinton*Table1[[#This Row],[orig_vote_stein]]</f>
-        <v>17974.5</v>
+        <v>14379.6</v>
       </c>
       <c r="M55" s="12">
         <f>pct_stein_to_trump*Table1[[#This Row],[orig_vote_stein]]</f>
-        <v>17974.5</v>
+        <v>21569.399999999998</v>
       </c>
       <c r="N55" s="12">
         <f>pct_johnson_to_clinton*Table1[[#This Row],[orig_vote_johnson]]</f>
-        <v>34347.5</v>
+        <v>61825.5</v>
       </c>
       <c r="O55" s="12">
         <f>pct_johnson_to_trump*Table1[[#This Row],[orig_vote_johnson]]</f>
-        <v>34347.5</v>
+        <v>6869.4999999999982</v>
       </c>
       <c r="P55" s="12">
         <f>Table1[[#This Row],[orig_vote_clinton]]+Table1[[#This Row],[stein_votes_to_clinton]]</f>
-        <v>2039730.5</v>
+        <v>2036135.6</v>
       </c>
       <c r="Q55" s="12">
         <f>Table1[[#This Row],[orig_vote_trump]]+Table1[[#This Row],[stein_votes_to_trump]]</f>
-        <v>1553487.5</v>
+        <v>1557082.4</v>
       </c>
       <c r="R55" s="12">
         <f>Table1[[#This Row],[orig_vote_clinton]]+Table1[[#This Row],[johnson_votes_to_clinton]]</f>
-        <v>2056103.5</v>
+        <v>2083581.5</v>
       </c>
       <c r="S55" s="12">
         <f>Table1[[#This Row],[orig_vote_trump]]+Table1[[#This Row],[johnson_votes_to_trump]]</f>
-        <v>1569860.5</v>
+        <v>1542382.5</v>
       </c>
       <c r="T55" s="11">
         <f>Table1[[#This Row],[orig_vote_clinton]]+Table1[[#This Row],[stein_votes_to_clinton]]+Table1[[#This Row],[johnson_votes_to_clinton]]</f>
-        <v>2074078</v>
+        <v>2097961.1</v>
       </c>
       <c r="U55" s="11">
         <f>Table1[[#This Row],[orig_vote_trump]]+Table1[[#This Row],[stein_votes_to_trump]]+Table1[[#This Row],[johnson_votes_to_trump]]</f>
-        <v>1587835</v>
+        <v>1563951.9</v>
       </c>
       <c r="V55" s="11">
         <f>Table1[[#This Row],[adjusted_vote_clinton_with_stein_only]]-Table1[[#This Row],[adjusted_vote_trump_with_stein_only]]</f>
-        <v>486243</v>
+        <v>479053.20000000019</v>
       </c>
       <c r="W55" s="11">
         <f>Table1[[#This Row],[adjusted_vote_clinton_with_johnson_only]]-Table1[[#This Row],[adjusted_vote_trump_with_johnson_only]]</f>
-        <v>486243</v>
+        <v>541199</v>
       </c>
       <c r="X55" s="12">
         <f>Table1[[#This Row],[adjusted_vote_clinton]]-Table1[[#This Row],[adjusted_vote_trump]]</f>
-        <v>486243</v>
+        <v>534009.20000000019</v>
       </c>
       <c r="Y55" s="12">
         <f>IF(Table1[[#This Row],[adjusted_spread_with_stein_only]]&gt;0,Table1[[#This Row],[electoral_votes]],0)</f>
@@ -12279,7 +12279,7 @@
       </c>
       <c r="AG55" s="11" t="str">
         <f>IF(Table1[[#This Row],[index]]=1,IF(Table1[[#This Row],[pickup_clinton]],Table1[[#This Row],[State]],""),IF(Table1[[#This Row],[pickup_clinton]],CONCATENATE(AG54,IF(AG54="","",","),Table1[[#This Row],[State]]),AG54))</f>
-        <v/>
+        <v>Florida,Michigan</v>
       </c>
       <c r="AH55" s="11" t="str">
         <f>IF(Table1[[#This Row],[index]]=1,IF(Table1[[#This Row],[pickup_trump]],Table1[[#This Row],[State]],""),IF(Table1[[#This Row],[pickup_trump]],CONCATENATE(AH54,IF(AH44="","",","),Table1[[#This Row],[State]]),AH54))</f>
@@ -12287,11 +12287,11 @@
       </c>
       <c r="AI55" s="30">
         <f>IF(Table1[[#This Row],[orig_vote_stein]]=0,"",(1-Table1[[#This Row],[adjusted_spread_with_johnson_only]]/Table1[[#This Row],[orig_vote_stein]])/2)</f>
-        <v>-6.2629558541266794</v>
+        <v>-7.0273164761189459</v>
       </c>
       <c r="AJ55" s="30">
         <f>(1-Table1[[#This Row],[adjusted_spread_with_stein_only]]/Table1[[#This Row],[orig_vote_johnson]])/2</f>
-        <v>-3.0391440425067326</v>
+        <v>-2.9868127229055985</v>
       </c>
       <c r="AK55" s="30" t="b">
         <f>AND(Table1[[#This Row],[stein_split_needed_pure]]&gt;=0,Table1[[#This Row],[stein_split_needed_pure]]&lt;=1)</f>
@@ -12323,7 +12323,7 @@
       </c>
       <c r="AR55" s="44">
         <f>adjusted_electors_clinton_with_johnson_only+Table1[[#This Row],[electors_with_split_stein_added]]+Table1[[#This Row],[electors_with_split_stein_dropped]]</f>
-        <v>233</v>
+        <v>314</v>
       </c>
       <c r="AS55" s="44">
         <f>adjusted_electors_clinton_with_stein_only+Table1[[#This Row],[electors_with_split_johnson_added]]+Table1[[#This Row],[electors_with_split_johnson_dropped]]</f>
@@ -12390,55 +12390,55 @@
       </c>
       <c r="L56" s="12">
         <f>pct_stein_to_clinton*Table1[[#This Row],[orig_vote_stein]]</f>
-        <v>4864.5</v>
+        <v>3891.6000000000004</v>
       </c>
       <c r="M56" s="12">
         <f>pct_stein_to_trump*Table1[[#This Row],[orig_vote_stein]]</f>
-        <v>4864.5</v>
+        <v>5837.4</v>
       </c>
       <c r="N56" s="12">
         <f>pct_johnson_to_clinton*Table1[[#This Row],[orig_vote_johnson]]</f>
-        <v>36834.5</v>
+        <v>66302.100000000006</v>
       </c>
       <c r="O56" s="12">
         <f>pct_johnson_to_trump*Table1[[#This Row],[orig_vote_johnson]]</f>
-        <v>36834.5</v>
+        <v>7366.8999999999987</v>
       </c>
       <c r="P56" s="12">
         <f>Table1[[#This Row],[orig_vote_clinton]]+Table1[[#This Row],[stein_votes_to_clinton]]</f>
-        <v>385588.5</v>
+        <v>384615.6</v>
       </c>
       <c r="Q56" s="12">
         <f>Table1[[#This Row],[orig_vote_trump]]+Table1[[#This Row],[stein_votes_to_trump]]</f>
-        <v>320739.5</v>
+        <v>321712.40000000002</v>
       </c>
       <c r="R56" s="12">
         <f>Table1[[#This Row],[orig_vote_clinton]]+Table1[[#This Row],[johnson_votes_to_clinton]]</f>
-        <v>417558.5</v>
+        <v>447026.1</v>
       </c>
       <c r="S56" s="12">
         <f>Table1[[#This Row],[orig_vote_trump]]+Table1[[#This Row],[johnson_votes_to_trump]]</f>
-        <v>352709.5</v>
+        <v>323241.90000000002</v>
       </c>
       <c r="T56" s="11">
         <f>Table1[[#This Row],[orig_vote_clinton]]+Table1[[#This Row],[stein_votes_to_clinton]]+Table1[[#This Row],[johnson_votes_to_clinton]]</f>
-        <v>422423</v>
+        <v>450917.69999999995</v>
       </c>
       <c r="U56" s="11">
         <f>Table1[[#This Row],[orig_vote_trump]]+Table1[[#This Row],[stein_votes_to_trump]]+Table1[[#This Row],[johnson_votes_to_trump]]</f>
-        <v>357574</v>
+        <v>329079.30000000005</v>
       </c>
       <c r="V56" s="11">
         <f>Table1[[#This Row],[adjusted_vote_clinton_with_stein_only]]-Table1[[#This Row],[adjusted_vote_trump_with_stein_only]]</f>
-        <v>64849</v>
+        <v>62903.199999999953</v>
       </c>
       <c r="W56" s="11">
         <f>Table1[[#This Row],[adjusted_vote_clinton_with_johnson_only]]-Table1[[#This Row],[adjusted_vote_trump_with_johnson_only]]</f>
-        <v>64849</v>
+        <v>123784.19999999995</v>
       </c>
       <c r="X56" s="12">
         <f>Table1[[#This Row],[adjusted_vote_clinton]]-Table1[[#This Row],[adjusted_vote_trump]]</f>
-        <v>64849</v>
+        <v>121838.39999999991</v>
       </c>
       <c r="Y56" s="12">
         <f>IF(Table1[[#This Row],[adjusted_spread_with_stein_only]]&gt;0,Table1[[#This Row],[electoral_votes]],0)</f>
@@ -12474,7 +12474,7 @@
       </c>
       <c r="AG56" s="11" t="str">
         <f>IF(Table1[[#This Row],[index]]=1,IF(Table1[[#This Row],[pickup_clinton]],Table1[[#This Row],[State]],""),IF(Table1[[#This Row],[pickup_clinton]],CONCATENATE(AG55,IF(AG55="","",","),Table1[[#This Row],[State]]),AG55))</f>
-        <v/>
+        <v>Florida,Michigan</v>
       </c>
       <c r="AH56" s="11" t="str">
         <f>IF(Table1[[#This Row],[index]]=1,IF(Table1[[#This Row],[pickup_trump]],Table1[[#This Row],[State]],""),IF(Table1[[#This Row],[pickup_trump]],CONCATENATE(AH55,IF(AH45="","",","),Table1[[#This Row],[State]]),AH55))</f>
@@ -12482,11 +12482,11 @@
       </c>
       <c r="AI56" s="30">
         <f>IF(Table1[[#This Row],[orig_vote_stein]]=0,"",(1-Table1[[#This Row],[adjusted_spread_with_johnson_only]]/Table1[[#This Row],[orig_vote_stein]])/2)</f>
-        <v>-2.8327680131565423</v>
+        <v>-5.861609620721552</v>
       </c>
       <c r="AJ56" s="30">
         <f>(1-Table1[[#This Row],[adjusted_spread_with_stein_only]]/Table1[[#This Row],[orig_vote_johnson]])/2</f>
-        <v>5.9862357300899949E-2</v>
+        <v>7.3068726329935552E-2</v>
       </c>
       <c r="AK56" s="30" t="b">
         <f>AND(Table1[[#This Row],[stein_split_needed_pure]]&gt;=0,Table1[[#This Row],[stein_split_needed_pure]]&lt;=1)</f>
@@ -12518,7 +12518,7 @@
       </c>
       <c r="AR56" s="44">
         <f>adjusted_electors_clinton_with_johnson_only+Table1[[#This Row],[electors_with_split_stein_added]]+Table1[[#This Row],[electors_with_split_stein_dropped]]</f>
-        <v>233</v>
+        <v>314</v>
       </c>
       <c r="AS56" s="44">
         <f>adjusted_electors_clinton_with_stein_only+Table1[[#This Row],[electors_with_split_johnson_added]]+Table1[[#This Row],[electors_with_split_johnson_dropped]]</f>
@@ -12585,55 +12585,55 @@
       </c>
       <c r="L57" s="12">
         <f>pct_stein_to_clinton*Table1[[#This Row],[orig_vote_stein]]</f>
-        <v>49947.5</v>
+        <v>39958</v>
       </c>
       <c r="M57" s="12">
         <f>pct_stein_to_trump*Table1[[#This Row],[orig_vote_stein]]</f>
-        <v>49947.5</v>
+        <v>59937</v>
       </c>
       <c r="N57" s="12">
         <f>pct_johnson_to_clinton*Table1[[#This Row],[orig_vote_johnson]]</f>
-        <v>80928.5</v>
+        <v>145671.30000000002</v>
       </c>
       <c r="O57" s="12">
         <f>pct_johnson_to_trump*Table1[[#This Row],[orig_vote_johnson]]</f>
-        <v>80928.5</v>
+        <v>16185.699999999997</v>
       </c>
       <c r="P57" s="12">
         <f>Table1[[#This Row],[orig_vote_clinton]]+Table1[[#This Row],[stein_votes_to_clinton]]</f>
-        <v>4193821.5</v>
+        <v>4183832</v>
       </c>
       <c r="Q57" s="12">
         <f>Table1[[#This Row],[orig_vote_trump]]+Table1[[#This Row],[stein_votes_to_trump]]</f>
-        <v>2690517.5</v>
+        <v>2700507</v>
       </c>
       <c r="R57" s="12">
         <f>Table1[[#This Row],[orig_vote_clinton]]+Table1[[#This Row],[johnson_votes_to_clinton]]</f>
-        <v>4224802.5</v>
+        <v>4289545.3</v>
       </c>
       <c r="S57" s="12">
         <f>Table1[[#This Row],[orig_vote_trump]]+Table1[[#This Row],[johnson_votes_to_trump]]</f>
-        <v>2721498.5</v>
+        <v>2656755.7000000002</v>
       </c>
       <c r="T57" s="11">
         <f>Table1[[#This Row],[orig_vote_clinton]]+Table1[[#This Row],[stein_votes_to_clinton]]+Table1[[#This Row],[johnson_votes_to_clinton]]</f>
-        <v>4274750</v>
+        <v>4329503.3</v>
       </c>
       <c r="U57" s="11">
         <f>Table1[[#This Row],[orig_vote_trump]]+Table1[[#This Row],[stein_votes_to_trump]]+Table1[[#This Row],[johnson_votes_to_trump]]</f>
-        <v>2771446</v>
+        <v>2716692.7</v>
       </c>
       <c r="V57" s="11">
         <f>Table1[[#This Row],[adjusted_vote_clinton_with_stein_only]]-Table1[[#This Row],[adjusted_vote_trump_with_stein_only]]</f>
-        <v>1503304</v>
+        <v>1483325</v>
       </c>
       <c r="W57" s="11">
         <f>Table1[[#This Row],[adjusted_vote_clinton_with_johnson_only]]-Table1[[#This Row],[adjusted_vote_trump_with_johnson_only]]</f>
-        <v>1503304</v>
+        <v>1632789.5999999996</v>
       </c>
       <c r="X57" s="12">
         <f>Table1[[#This Row],[adjusted_vote_clinton]]-Table1[[#This Row],[adjusted_vote_trump]]</f>
-        <v>1503304</v>
+        <v>1612810.5999999996</v>
       </c>
       <c r="Y57" s="12">
         <f>IF(Table1[[#This Row],[adjusted_spread_with_stein_only]]&gt;0,Table1[[#This Row],[electoral_votes]],0)</f>
@@ -12669,7 +12669,7 @@
       </c>
       <c r="AG57" s="11" t="str">
         <f>IF(Table1[[#This Row],[index]]=1,IF(Table1[[#This Row],[pickup_clinton]],Table1[[#This Row],[State]],""),IF(Table1[[#This Row],[pickup_clinton]],CONCATENATE(AG56,IF(AG56="","",","),Table1[[#This Row],[State]]),AG56))</f>
-        <v/>
+        <v>Florida,Michigan</v>
       </c>
       <c r="AH57" s="11" t="str">
         <f>IF(Table1[[#This Row],[index]]=1,IF(Table1[[#This Row],[pickup_trump]],Table1[[#This Row],[State]],""),IF(Table1[[#This Row],[pickup_trump]],CONCATENATE(AH56,IF(AH46="","",","),Table1[[#This Row],[State]]),AH56))</f>
@@ -12677,11 +12677,11 @@
       </c>
       <c r="AI57" s="30">
         <f>IF(Table1[[#This Row],[orig_vote_stein]]=0,"",(1-Table1[[#This Row],[adjusted_spread_with_johnson_only]]/Table1[[#This Row],[orig_vote_stein]])/2)</f>
-        <v>-7.0244206416737578</v>
+        <v>-7.6725291556133914</v>
       </c>
       <c r="AJ57" s="30">
         <f>(1-Table1[[#This Row],[adjusted_spread_with_stein_only]]/Table1[[#This Row],[orig_vote_johnson]])/2</f>
-        <v>-4.1439264288847566</v>
+        <v>-4.0822083691159481</v>
       </c>
       <c r="AK57" s="30" t="b">
         <f>AND(Table1[[#This Row],[stein_split_needed_pure]]&gt;=0,Table1[[#This Row],[stein_split_needed_pure]]&lt;=1)</f>
@@ -12713,7 +12713,7 @@
       </c>
       <c r="AR57" s="44">
         <f>adjusted_electors_clinton_with_johnson_only+Table1[[#This Row],[electors_with_split_stein_added]]+Table1[[#This Row],[electors_with_split_stein_dropped]]</f>
-        <v>233</v>
+        <v>314</v>
       </c>
       <c r="AS57" s="44">
         <f>adjusted_electors_clinton_with_stein_only+Table1[[#This Row],[electors_with_split_johnson_added]]+Table1[[#This Row],[electors_with_split_johnson_dropped]]</f>
@@ -12788,11 +12788,11 @@
       </c>
       <c r="N58" s="12">
         <f>pct_johnson_to_clinton*Table1[[#This Row],[orig_vote_johnson]]</f>
-        <v>63897</v>
+        <v>115014.6</v>
       </c>
       <c r="O58" s="12">
         <f>pct_johnson_to_trump*Table1[[#This Row],[orig_vote_johnson]]</f>
-        <v>63897</v>
+        <v>12779.399999999998</v>
       </c>
       <c r="P58" s="12">
         <f>Table1[[#This Row],[orig_vote_clinton]]+Table1[[#This Row],[stein_votes_to_clinton]]</f>
@@ -12804,19 +12804,19 @@
       </c>
       <c r="R58" s="12">
         <f>Table1[[#This Row],[orig_vote_clinton]]+Table1[[#This Row],[johnson_votes_to_clinton]]</f>
-        <v>2225971</v>
+        <v>2277088.6</v>
       </c>
       <c r="S58" s="12">
         <f>Table1[[#This Row],[orig_vote_trump]]+Table1[[#This Row],[johnson_votes_to_trump]]</f>
-        <v>2403500</v>
+        <v>2352382.4</v>
       </c>
       <c r="T58" s="11">
         <f>Table1[[#This Row],[orig_vote_clinton]]+Table1[[#This Row],[stein_votes_to_clinton]]+Table1[[#This Row],[johnson_votes_to_clinton]]</f>
-        <v>2225971</v>
+        <v>2277088.6</v>
       </c>
       <c r="U58" s="11">
         <f>Table1[[#This Row],[orig_vote_trump]]+Table1[[#This Row],[stein_votes_to_trump]]+Table1[[#This Row],[johnson_votes_to_trump]]</f>
-        <v>2403500</v>
+        <v>2352382.4</v>
       </c>
       <c r="V58" s="11">
         <f>Table1[[#This Row],[adjusted_vote_clinton_with_stein_only]]-Table1[[#This Row],[adjusted_vote_trump_with_stein_only]]</f>
@@ -12824,11 +12824,11 @@
       </c>
       <c r="W58" s="11">
         <f>Table1[[#This Row],[adjusted_vote_clinton_with_johnson_only]]-Table1[[#This Row],[adjusted_vote_trump_with_johnson_only]]</f>
-        <v>-177529</v>
+        <v>-75293.799999999814</v>
       </c>
       <c r="X58" s="12">
         <f>Table1[[#This Row],[adjusted_vote_clinton]]-Table1[[#This Row],[adjusted_vote_trump]]</f>
-        <v>-177529</v>
+        <v>-75293.799999999814</v>
       </c>
       <c r="Y58" s="12">
         <f>IF(Table1[[#This Row],[adjusted_spread_with_stein_only]]&gt;0,Table1[[#This Row],[electoral_votes]],0)</f>
@@ -12864,7 +12864,7 @@
       </c>
       <c r="AG58" s="11" t="str">
         <f>IF(Table1[[#This Row],[index]]=1,IF(Table1[[#This Row],[pickup_clinton]],Table1[[#This Row],[State]],""),IF(Table1[[#This Row],[pickup_clinton]],CONCATENATE(AG57,IF(AG57="","",","),Table1[[#This Row],[State]]),AG57))</f>
-        <v/>
+        <v>Florida,Michigan</v>
       </c>
       <c r="AH58" s="11" t="str">
         <f>IF(Table1[[#This Row],[index]]=1,IF(Table1[[#This Row],[pickup_trump]],Table1[[#This Row],[State]],""),IF(Table1[[#This Row],[pickup_trump]],CONCATENATE(AH57,IF(AH47="","",","),Table1[[#This Row],[State]]),AH57))</f>
@@ -12908,7 +12908,7 @@
       </c>
       <c r="AR58" s="44">
         <f>adjusted_electors_clinton_with_johnson_only+Table1[[#This Row],[electors_with_split_stein_added]]+Table1[[#This Row],[electors_with_split_stein_dropped]]</f>
-        <v>233</v>
+        <v>314</v>
       </c>
       <c r="AS58" s="44">
         <f>adjusted_electors_clinton_with_stein_only+Table1[[#This Row],[electors_with_split_johnson_added]]+Table1[[#This Row],[electors_with_split_johnson_dropped]]</f>
@@ -12975,55 +12975,55 @@
       </c>
       <c r="L59" s="12">
         <f>pct_stein_to_clinton*Table1[[#This Row],[orig_vote_stein]]</f>
-        <v>1884.5</v>
+        <v>1507.6000000000001</v>
       </c>
       <c r="M59" s="12">
         <f>pct_stein_to_trump*Table1[[#This Row],[orig_vote_stein]]</f>
-        <v>1884.5</v>
+        <v>2261.4</v>
       </c>
       <c r="N59" s="12">
         <f>pct_johnson_to_clinton*Table1[[#This Row],[orig_vote_johnson]]</f>
-        <v>10675.5</v>
+        <v>19215.900000000001</v>
       </c>
       <c r="O59" s="12">
         <f>pct_johnson_to_trump*Table1[[#This Row],[orig_vote_johnson]]</f>
-        <v>10675.5</v>
+        <v>2135.0999999999995</v>
       </c>
       <c r="P59" s="12">
         <f>Table1[[#This Row],[orig_vote_clinton]]+Table1[[#This Row],[stein_votes_to_clinton]]</f>
-        <v>95410.5</v>
+        <v>95033.600000000006</v>
       </c>
       <c r="Q59" s="12">
         <f>Table1[[#This Row],[orig_vote_trump]]+Table1[[#This Row],[stein_votes_to_trump]]</f>
-        <v>218017.5</v>
+        <v>218394.4</v>
       </c>
       <c r="R59" s="12">
         <f>Table1[[#This Row],[orig_vote_clinton]]+Table1[[#This Row],[johnson_votes_to_clinton]]</f>
-        <v>104201.5</v>
+        <v>112741.9</v>
       </c>
       <c r="S59" s="12">
         <f>Table1[[#This Row],[orig_vote_trump]]+Table1[[#This Row],[johnson_votes_to_trump]]</f>
-        <v>226808.5</v>
+        <v>218268.1</v>
       </c>
       <c r="T59" s="11">
         <f>Table1[[#This Row],[orig_vote_clinton]]+Table1[[#This Row],[stein_votes_to_clinton]]+Table1[[#This Row],[johnson_votes_to_clinton]]</f>
-        <v>106086</v>
+        <v>114249.5</v>
       </c>
       <c r="U59" s="11">
         <f>Table1[[#This Row],[orig_vote_trump]]+Table1[[#This Row],[stein_votes_to_trump]]+Table1[[#This Row],[johnson_votes_to_trump]]</f>
-        <v>228693</v>
+        <v>220529.5</v>
       </c>
       <c r="V59" s="11">
         <f>Table1[[#This Row],[adjusted_vote_clinton_with_stein_only]]-Table1[[#This Row],[adjusted_vote_trump_with_stein_only]]</f>
-        <v>-122607</v>
+        <v>-123360.79999999999</v>
       </c>
       <c r="W59" s="11">
         <f>Table1[[#This Row],[adjusted_vote_clinton_with_johnson_only]]-Table1[[#This Row],[adjusted_vote_trump_with_johnson_only]]</f>
-        <v>-122607</v>
+        <v>-105526.20000000001</v>
       </c>
       <c r="X59" s="12">
         <f>Table1[[#This Row],[adjusted_vote_clinton]]-Table1[[#This Row],[adjusted_vote_trump]]</f>
-        <v>-122607</v>
+        <v>-106280</v>
       </c>
       <c r="Y59" s="12">
         <f>IF(Table1[[#This Row],[adjusted_spread_with_stein_only]]&gt;0,Table1[[#This Row],[electoral_votes]],0)</f>
@@ -13059,7 +13059,7 @@
       </c>
       <c r="AG59" s="11" t="str">
         <f>IF(Table1[[#This Row],[index]]=1,IF(Table1[[#This Row],[pickup_clinton]],Table1[[#This Row],[State]],""),IF(Table1[[#This Row],[pickup_clinton]],CONCATENATE(AG58,IF(AG58="","",","),Table1[[#This Row],[State]]),AG58))</f>
-        <v/>
+        <v>Florida,Michigan</v>
       </c>
       <c r="AH59" s="11" t="str">
         <f>IF(Table1[[#This Row],[index]]=1,IF(Table1[[#This Row],[pickup_trump]],Table1[[#This Row],[State]],""),IF(Table1[[#This Row],[pickup_trump]],CONCATENATE(AH58,IF(AH48="","",","),Table1[[#This Row],[State]]),AH58))</f>
@@ -13067,11 +13067,11 @@
       </c>
       <c r="AI59" s="30">
         <f>IF(Table1[[#This Row],[orig_vote_stein]]=0,"",(1-Table1[[#This Row],[adjusted_spread_with_johnson_only]]/Table1[[#This Row],[orig_vote_stein]])/2)</f>
-        <v>16.765189705492173</v>
+        <v>14.499230565136642</v>
       </c>
       <c r="AJ59" s="30">
         <f>(1-Table1[[#This Row],[adjusted_spread_with_stein_only]]/Table1[[#This Row],[orig_vote_johnson]])/2</f>
-        <v>3.3712238302655613</v>
+        <v>3.388876399231886</v>
       </c>
       <c r="AK59" s="30" t="b">
         <f>AND(Table1[[#This Row],[stein_split_needed_pure]]&gt;=0,Table1[[#This Row],[stein_split_needed_pure]]&lt;=1)</f>
@@ -13103,7 +13103,7 @@
       </c>
       <c r="AR59" s="44">
         <f>adjusted_electors_clinton_with_johnson_only+Table1[[#This Row],[electors_with_split_stein_added]]+Table1[[#This Row],[electors_with_split_stein_dropped]]</f>
-        <v>233</v>
+        <v>314</v>
       </c>
       <c r="AS59" s="44">
         <f>adjusted_electors_clinton_with_stein_only+Table1[[#This Row],[electors_with_split_johnson_added]]+Table1[[#This Row],[electors_with_split_johnson_dropped]]</f>
@@ -13170,55 +13170,55 @@
       </c>
       <c r="L60" s="12">
         <f>pct_stein_to_clinton*Table1[[#This Row],[orig_vote_stein]]</f>
-        <v>22155</v>
+        <v>17724</v>
       </c>
       <c r="M60" s="12">
         <f>pct_stein_to_trump*Table1[[#This Row],[orig_vote_stein]]</f>
-        <v>22155</v>
+        <v>26586</v>
       </c>
       <c r="N60" s="12">
         <f>pct_johnson_to_clinton*Table1[[#This Row],[orig_vote_johnson]]</f>
-        <v>84299.5</v>
+        <v>151739.1</v>
       </c>
       <c r="O60" s="12">
         <f>pct_johnson_to_trump*Table1[[#This Row],[orig_vote_johnson]]</f>
-        <v>84299.5</v>
+        <v>16859.899999999998</v>
       </c>
       <c r="P60" s="12">
         <f>Table1[[#This Row],[orig_vote_clinton]]+Table1[[#This Row],[stein_votes_to_clinton]]</f>
-        <v>2339156</v>
+        <v>2334725</v>
       </c>
       <c r="Q60" s="12">
         <f>Table1[[#This Row],[orig_vote_trump]]+Table1[[#This Row],[stein_votes_to_trump]]</f>
-        <v>2794139</v>
+        <v>2798570</v>
       </c>
       <c r="R60" s="12">
         <f>Table1[[#This Row],[orig_vote_clinton]]+Table1[[#This Row],[johnson_votes_to_clinton]]</f>
-        <v>2401300.5</v>
+        <v>2468740.1</v>
       </c>
       <c r="S60" s="12">
         <f>Table1[[#This Row],[orig_vote_trump]]+Table1[[#This Row],[johnson_votes_to_trump]]</f>
-        <v>2856283.5</v>
+        <v>2788843.9</v>
       </c>
       <c r="T60" s="11">
         <f>Table1[[#This Row],[orig_vote_clinton]]+Table1[[#This Row],[stein_votes_to_clinton]]+Table1[[#This Row],[johnson_votes_to_clinton]]</f>
-        <v>2423455.5</v>
+        <v>2486464.1</v>
       </c>
       <c r="U60" s="11">
         <f>Table1[[#This Row],[orig_vote_trump]]+Table1[[#This Row],[stein_votes_to_trump]]+Table1[[#This Row],[johnson_votes_to_trump]]</f>
-        <v>2878438.5</v>
+        <v>2815429.9</v>
       </c>
       <c r="V60" s="11">
         <f>Table1[[#This Row],[adjusted_vote_clinton_with_stein_only]]-Table1[[#This Row],[adjusted_vote_trump_with_stein_only]]</f>
-        <v>-454983</v>
+        <v>-463845</v>
       </c>
       <c r="W60" s="11">
         <f>Table1[[#This Row],[adjusted_vote_clinton_with_johnson_only]]-Table1[[#This Row],[adjusted_vote_trump_with_johnson_only]]</f>
-        <v>-454983</v>
+        <v>-320103.79999999981</v>
       </c>
       <c r="X60" s="12">
         <f>Table1[[#This Row],[adjusted_vote_clinton]]-Table1[[#This Row],[adjusted_vote_trump]]</f>
-        <v>-454983</v>
+        <v>-328965.79999999981</v>
       </c>
       <c r="Y60" s="12">
         <f>IF(Table1[[#This Row],[adjusted_spread_with_stein_only]]&gt;0,Table1[[#This Row],[electoral_votes]],0)</f>
@@ -13254,7 +13254,7 @@
       </c>
       <c r="AG60" s="11" t="str">
         <f>IF(Table1[[#This Row],[index]]=1,IF(Table1[[#This Row],[pickup_clinton]],Table1[[#This Row],[State]],""),IF(Table1[[#This Row],[pickup_clinton]],CONCATENATE(AG59,IF(AG59="","",","),Table1[[#This Row],[State]]),AG59))</f>
-        <v/>
+        <v>Florida,Michigan</v>
       </c>
       <c r="AH60" s="11" t="str">
         <f>IF(Table1[[#This Row],[index]]=1,IF(Table1[[#This Row],[pickup_trump]],Table1[[#This Row],[State]],""),IF(Table1[[#This Row],[pickup_trump]],CONCATENATE(AH59,IF(AH49="","",","),Table1[[#This Row],[State]]),AH59))</f>
@@ -13262,11 +13262,11 @@
       </c>
       <c r="AI60" s="30">
         <f>IF(Table1[[#This Row],[orig_vote_stein]]=0,"",(1-Table1[[#This Row],[adjusted_spread_with_johnson_only]]/Table1[[#This Row],[orig_vote_stein]])/2)</f>
-        <v>5.6340893703452943</v>
+        <v>4.1120943353644757</v>
       </c>
       <c r="AJ60" s="30">
         <f>(1-Table1[[#This Row],[adjusted_spread_with_stein_only]]/Table1[[#This Row],[orig_vote_johnson]])/2</f>
-        <v>1.8493051560210914</v>
+        <v>1.8755864506906921</v>
       </c>
       <c r="AK60" s="30" t="b">
         <f>AND(Table1[[#This Row],[stein_split_needed_pure]]&gt;=0,Table1[[#This Row],[stein_split_needed_pure]]&lt;=1)</f>
@@ -13298,7 +13298,7 @@
       </c>
       <c r="AR60" s="44">
         <f>adjusted_electors_clinton_with_johnson_only+Table1[[#This Row],[electors_with_split_stein_added]]+Table1[[#This Row],[electors_with_split_stein_dropped]]</f>
-        <v>233</v>
+        <v>314</v>
       </c>
       <c r="AS60" s="44">
         <f>adjusted_electors_clinton_with_stein_only+Table1[[#This Row],[electors_with_split_johnson_added]]+Table1[[#This Row],[electors_with_split_johnson_dropped]]</f>
@@ -13373,11 +13373,11 @@
       </c>
       <c r="N61" s="12">
         <f>pct_johnson_to_clinton*Table1[[#This Row],[orig_vote_johnson]]</f>
-        <v>41667</v>
+        <v>75000.600000000006</v>
       </c>
       <c r="O61" s="12">
         <f>pct_johnson_to_trump*Table1[[#This Row],[orig_vote_johnson]]</f>
-        <v>41667</v>
+        <v>8333.3999999999978</v>
       </c>
       <c r="P61" s="12">
         <f>Table1[[#This Row],[orig_vote_clinton]]+Table1[[#This Row],[stein_votes_to_clinton]]</f>
@@ -13389,19 +13389,19 @@
       </c>
       <c r="R61" s="12">
         <f>Table1[[#This Row],[orig_vote_clinton]]+Table1[[#This Row],[johnson_votes_to_clinton]]</f>
-        <v>461455</v>
+        <v>494788.6</v>
       </c>
       <c r="S61" s="12">
         <f>Table1[[#This Row],[orig_vote_trump]]+Table1[[#This Row],[johnson_votes_to_trump]]</f>
-        <v>989601</v>
+        <v>956267.4</v>
       </c>
       <c r="T61" s="11">
         <f>Table1[[#This Row],[orig_vote_clinton]]+Table1[[#This Row],[stein_votes_to_clinton]]+Table1[[#This Row],[johnson_votes_to_clinton]]</f>
-        <v>461455</v>
+        <v>494788.6</v>
       </c>
       <c r="U61" s="11">
         <f>Table1[[#This Row],[orig_vote_trump]]+Table1[[#This Row],[stein_votes_to_trump]]+Table1[[#This Row],[johnson_votes_to_trump]]</f>
-        <v>989601</v>
+        <v>956267.4</v>
       </c>
       <c r="V61" s="11">
         <f>Table1[[#This Row],[adjusted_vote_clinton_with_stein_only]]-Table1[[#This Row],[adjusted_vote_trump_with_stein_only]]</f>
@@ -13409,11 +13409,11 @@
       </c>
       <c r="W61" s="11">
         <f>Table1[[#This Row],[adjusted_vote_clinton_with_johnson_only]]-Table1[[#This Row],[adjusted_vote_trump_with_johnson_only]]</f>
-        <v>-528146</v>
+        <v>-461478.80000000005</v>
       </c>
       <c r="X61" s="12">
         <f>Table1[[#This Row],[adjusted_vote_clinton]]-Table1[[#This Row],[adjusted_vote_trump]]</f>
-        <v>-528146</v>
+        <v>-461478.80000000005</v>
       </c>
       <c r="Y61" s="12">
         <f>IF(Table1[[#This Row],[adjusted_spread_with_stein_only]]&gt;0,Table1[[#This Row],[electoral_votes]],0)</f>
@@ -13449,7 +13449,7 @@
       </c>
       <c r="AG61" s="11" t="str">
         <f>IF(Table1[[#This Row],[index]]=1,IF(Table1[[#This Row],[pickup_clinton]],Table1[[#This Row],[State]],""),IF(Table1[[#This Row],[pickup_clinton]],CONCATENATE(AG60,IF(AG60="","",","),Table1[[#This Row],[State]]),AG60))</f>
-        <v/>
+        <v>Florida,Michigan</v>
       </c>
       <c r="AH61" s="11" t="str">
         <f>IF(Table1[[#This Row],[index]]=1,IF(Table1[[#This Row],[pickup_trump]],Table1[[#This Row],[State]],""),IF(Table1[[#This Row],[pickup_trump]],CONCATENATE(AH60,IF(AH50="","",","),Table1[[#This Row],[State]]),AH60))</f>
@@ -13493,7 +13493,7 @@
       </c>
       <c r="AR61" s="44">
         <f>adjusted_electors_clinton_with_johnson_only+Table1[[#This Row],[electors_with_split_stein_added]]+Table1[[#This Row],[electors_with_split_stein_dropped]]</f>
-        <v>233</v>
+        <v>314</v>
       </c>
       <c r="AS61" s="44">
         <f>adjusted_electors_clinton_with_stein_only+Table1[[#This Row],[electors_with_split_johnson_added]]+Table1[[#This Row],[electors_with_split_johnson_dropped]]</f>
@@ -13560,55 +13560,55 @@
       </c>
       <c r="L62" s="12">
         <f>pct_stein_to_clinton*Table1[[#This Row],[orig_vote_stein]]</f>
-        <v>22566</v>
+        <v>18052.8</v>
       </c>
       <c r="M62" s="12">
         <f>pct_stein_to_trump*Table1[[#This Row],[orig_vote_stein]]</f>
-        <v>22566</v>
+        <v>27079.200000000001</v>
       </c>
       <c r="N62" s="12">
         <f>pct_johnson_to_clinton*Table1[[#This Row],[orig_vote_johnson]]</f>
-        <v>43153</v>
+        <v>77675.400000000009</v>
       </c>
       <c r="O62" s="12">
         <f>pct_johnson_to_trump*Table1[[#This Row],[orig_vote_johnson]]</f>
-        <v>43153</v>
+        <v>8630.5999999999985</v>
       </c>
       <c r="P62" s="12">
         <f>Table1[[#This Row],[orig_vote_clinton]]+Table1[[#This Row],[stein_votes_to_clinton]]</f>
-        <v>957197</v>
+        <v>952683.8</v>
       </c>
       <c r="Q62" s="12">
         <f>Table1[[#This Row],[orig_vote_trump]]+Table1[[#This Row],[stein_votes_to_trump]]</f>
-        <v>765072</v>
+        <v>769585.2</v>
       </c>
       <c r="R62" s="12">
         <f>Table1[[#This Row],[orig_vote_clinton]]+Table1[[#This Row],[johnson_votes_to_clinton]]</f>
-        <v>977784</v>
+        <v>1012306.4</v>
       </c>
       <c r="S62" s="12">
         <f>Table1[[#This Row],[orig_vote_trump]]+Table1[[#This Row],[johnson_votes_to_trump]]</f>
-        <v>785659</v>
+        <v>751136.6</v>
       </c>
       <c r="T62" s="11">
         <f>Table1[[#This Row],[orig_vote_clinton]]+Table1[[#This Row],[stein_votes_to_clinton]]+Table1[[#This Row],[johnson_votes_to_clinton]]</f>
-        <v>1000350</v>
+        <v>1030359.2000000001</v>
       </c>
       <c r="U62" s="11">
         <f>Table1[[#This Row],[orig_vote_trump]]+Table1[[#This Row],[stein_votes_to_trump]]+Table1[[#This Row],[johnson_votes_to_trump]]</f>
-        <v>808225</v>
+        <v>778215.79999999993</v>
       </c>
       <c r="V62" s="11">
         <f>Table1[[#This Row],[adjusted_vote_clinton_with_stein_only]]-Table1[[#This Row],[adjusted_vote_trump_with_stein_only]]</f>
-        <v>192125</v>
+        <v>183098.60000000009</v>
       </c>
       <c r="W62" s="11">
         <f>Table1[[#This Row],[adjusted_vote_clinton_with_johnson_only]]-Table1[[#This Row],[adjusted_vote_trump_with_johnson_only]]</f>
-        <v>192125</v>
+        <v>261169.80000000005</v>
       </c>
       <c r="X62" s="12">
         <f>Table1[[#This Row],[adjusted_vote_clinton]]-Table1[[#This Row],[adjusted_vote_trump]]</f>
-        <v>192125</v>
+        <v>252143.40000000014</v>
       </c>
       <c r="Y62" s="12">
         <f>IF(Table1[[#This Row],[adjusted_spread_with_stein_only]]&gt;0,Table1[[#This Row],[electoral_votes]],0)</f>
@@ -13644,7 +13644,7 @@
       </c>
       <c r="AG62" s="11" t="str">
         <f>IF(Table1[[#This Row],[index]]=1,IF(Table1[[#This Row],[pickup_clinton]],Table1[[#This Row],[State]],""),IF(Table1[[#This Row],[pickup_clinton]],CONCATENATE(AG61,IF(AG61="","",","),Table1[[#This Row],[State]]),AG61))</f>
-        <v/>
+        <v>Florida,Michigan</v>
       </c>
       <c r="AH62" s="11" t="str">
         <f>IF(Table1[[#This Row],[index]]=1,IF(Table1[[#This Row],[pickup_trump]],Table1[[#This Row],[State]],""),IF(Table1[[#This Row],[pickup_trump]],CONCATENATE(AH61,IF(AH51="","",","),Table1[[#This Row],[State]]),AH61))</f>
@@ -13652,11 +13652,11 @@
       </c>
       <c r="AI62" s="30">
         <f>IF(Table1[[#This Row],[orig_vote_stein]]=0,"",(1-Table1[[#This Row],[adjusted_spread_with_johnson_only]]/Table1[[#This Row],[orig_vote_stein]])/2)</f>
-        <v>-1.6284786847469643</v>
+        <v>-2.3933993618718432</v>
       </c>
       <c r="AJ62" s="30">
         <f>(1-Table1[[#This Row],[adjusted_spread_with_stein_only]]/Table1[[#This Row],[orig_vote_johnson]])/2</f>
-        <v>-0.61304544295877461</v>
+        <v>-0.5607524389961307</v>
       </c>
       <c r="AK62" s="30" t="b">
         <f>AND(Table1[[#This Row],[stein_split_needed_pure]]&gt;=0,Table1[[#This Row],[stein_split_needed_pure]]&lt;=1)</f>
@@ -13688,7 +13688,7 @@
       </c>
       <c r="AR62" s="44">
         <f>adjusted_electors_clinton_with_johnson_only+Table1[[#This Row],[electors_with_split_stein_added]]+Table1[[#This Row],[electors_with_split_stein_dropped]]</f>
-        <v>233</v>
+        <v>314</v>
       </c>
       <c r="AS62" s="44">
         <f>adjusted_electors_clinton_with_stein_only+Table1[[#This Row],[electors_with_split_johnson_added]]+Table1[[#This Row],[electors_with_split_johnson_dropped]]</f>
@@ -13755,55 +13755,55 @@
       </c>
       <c r="L63" s="12">
         <f>pct_stein_to_clinton*Table1[[#This Row],[orig_vote_stein]]</f>
-        <v>24456</v>
+        <v>19564.8</v>
       </c>
       <c r="M63" s="12">
         <f>pct_stein_to_trump*Table1[[#This Row],[orig_vote_stein]]</f>
-        <v>24456</v>
+        <v>29347.200000000001</v>
       </c>
       <c r="N63" s="12">
         <f>pct_johnson_to_clinton*Table1[[#This Row],[orig_vote_johnson]]</f>
-        <v>71326.5</v>
+        <v>128387.7</v>
       </c>
       <c r="O63" s="12">
         <f>pct_johnson_to_trump*Table1[[#This Row],[orig_vote_johnson]]</f>
-        <v>71326.5</v>
+        <v>14265.299999999997</v>
       </c>
       <c r="P63" s="12">
         <f>Table1[[#This Row],[orig_vote_clinton]]+Table1[[#This Row],[stein_votes_to_clinton]]</f>
-        <v>2869161</v>
+        <v>2864269.8</v>
       </c>
       <c r="Q63" s="12">
         <f>Table1[[#This Row],[orig_vote_trump]]+Table1[[#This Row],[stein_votes_to_trump]]</f>
-        <v>2937397</v>
+        <v>2942288.2</v>
       </c>
       <c r="R63" s="12">
         <f>Table1[[#This Row],[orig_vote_clinton]]+Table1[[#This Row],[johnson_votes_to_clinton]]</f>
-        <v>2916031.5</v>
+        <v>2973092.7</v>
       </c>
       <c r="S63" s="12">
         <f>Table1[[#This Row],[orig_vote_trump]]+Table1[[#This Row],[johnson_votes_to_trump]]</f>
-        <v>2984267.5</v>
+        <v>2927206.3</v>
       </c>
       <c r="T63" s="11">
         <f>Table1[[#This Row],[orig_vote_clinton]]+Table1[[#This Row],[stein_votes_to_clinton]]+Table1[[#This Row],[johnson_votes_to_clinton]]</f>
-        <v>2940487.5</v>
+        <v>2992657.5</v>
       </c>
       <c r="U63" s="11">
         <f>Table1[[#This Row],[orig_vote_trump]]+Table1[[#This Row],[stein_votes_to_trump]]+Table1[[#This Row],[johnson_votes_to_trump]]</f>
-        <v>3008723.5</v>
+        <v>2956553.5</v>
       </c>
       <c r="V63" s="11">
         <f>Table1[[#This Row],[adjusted_vote_clinton_with_stein_only]]-Table1[[#This Row],[adjusted_vote_trump_with_stein_only]]</f>
-        <v>-68236</v>
+        <v>-78018.400000000373</v>
       </c>
       <c r="W63" s="11">
         <f>Table1[[#This Row],[adjusted_vote_clinton_with_johnson_only]]-Table1[[#This Row],[adjusted_vote_trump_with_johnson_only]]</f>
-        <v>-68236</v>
+        <v>45886.400000000373</v>
       </c>
       <c r="X63" s="12">
         <f>Table1[[#This Row],[adjusted_vote_clinton]]-Table1[[#This Row],[adjusted_vote_trump]]</f>
-        <v>-68236</v>
+        <v>36104</v>
       </c>
       <c r="Y63" s="12">
         <f>IF(Table1[[#This Row],[adjusted_spread_with_stein_only]]&gt;0,Table1[[#This Row],[electoral_votes]],0)</f>
@@ -13811,15 +13811,15 @@
       </c>
       <c r="Z63" s="12">
         <f>IF(Table1[[#This Row],[adjusted_spread_with_johnson_only]]&gt;0,Table1[[#This Row],[electoral_votes]],0)</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AA63" s="11">
         <f>IF(Table1[[#This Row],[adjusted_spread]]&gt;0,Table1[[#This Row],[electoral_votes]],0)</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AB63" s="12">
         <f>IF(Table1[[#This Row],[adjusted_spread]]&lt;0,Table1[[#This Row],[electoral_votes]],0)</f>
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AC63" s="12" t="str">
         <f>IF(Table1[[#This Row],[orig_spread]]&lt;0,"Trump",IF(Table1[[#This Row],[orig_spread]]&gt;0,"Clinton",""))</f>
@@ -13827,11 +13827,11 @@
       </c>
       <c r="AD63" s="12" t="str">
         <f>IF(Table1[[#This Row],[adjusted_spread]]&lt;0,"Trump",IF(Table1[[#This Row],[adjusted_spread]]&gt;0,"Clinton",""))</f>
-        <v>Trump</v>
+        <v>Clinton</v>
       </c>
       <c r="AE63" s="11" t="b">
         <f>AND(Table1[[#This Row],[orig_outcome]]="Trump",Table1[[#This Row],[adjusted_outcome]]="Clinton")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF63" s="11" t="b">
         <f>AND(Table1[[#This Row],[orig_outcome]]="Clinton",Table1[[#This Row],[adjusted_outcome]]="Trump")</f>
@@ -13839,7 +13839,7 @@
       </c>
       <c r="AG63" s="11" t="str">
         <f>IF(Table1[[#This Row],[index]]=1,IF(Table1[[#This Row],[pickup_clinton]],Table1[[#This Row],[State]],""),IF(Table1[[#This Row],[pickup_clinton]],CONCATENATE(AG62,IF(AG62="","",","),Table1[[#This Row],[State]]),AG62))</f>
-        <v/>
+        <v>Florida,Michigan,Pennsylvania</v>
       </c>
       <c r="AH63" s="11" t="str">
         <f>IF(Table1[[#This Row],[index]]=1,IF(Table1[[#This Row],[pickup_trump]],Table1[[#This Row],[State]],""),IF(Table1[[#This Row],[pickup_trump]],CONCATENATE(AH62,IF(AH52="","",","),Table1[[#This Row],[State]]),AH62))</f>
@@ -13847,15 +13847,15 @@
       </c>
       <c r="AI63" s="30">
         <f>IF(Table1[[#This Row],[orig_vote_stein]]=0,"",(1-Table1[[#This Row],[adjusted_spread_with_johnson_only]]/Table1[[#This Row],[orig_vote_stein]])/2)</f>
-        <v>1.1975384363755315</v>
+        <v>3.0929015374546398E-2</v>
       </c>
       <c r="AJ63" s="30">
         <f>(1-Table1[[#This Row],[adjusted_spread_with_stein_only]]/Table1[[#This Row],[orig_vote_johnson]])/2</f>
-        <v>0.73916777074439377</v>
+        <v>0.7734551674342649</v>
       </c>
       <c r="AK63" s="30" t="b">
         <f>AND(Table1[[#This Row],[stein_split_needed_pure]]&gt;=0,Table1[[#This Row],[stein_split_needed_pure]]&lt;=1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL63" s="30" t="b">
         <f>AND(Table1[[#This Row],[johnson_split_needed_pure]]&gt;=0,Table1[[#This Row],[johnson_split_needed_pure]]&lt;=1)</f>
@@ -13875,7 +13875,7 @@
       </c>
       <c r="AP63" s="51">
         <f t="array" ref="AP63">IF(NOT(Table1[[#This Row],[in_play_stein]]), 0, SUMPRODUCT(IF(Table1[stein_split_needed_pure]&gt;0.5, 0, 1), IF(Table1[in_play_stein], 1, 0), IF(Table1[stein_split_needed_pure]&gt;=Table1[[#This Row],[stein_split_needed_pure]], -Table1[electoral_votes], 0)))</f>
-        <v>0</v>
+        <v>-55</v>
       </c>
       <c r="AQ63" s="51">
         <f t="array" ref="AQ63">IF(NOT(Table1[[#This Row],[in_play_johnson]]), 0, SUMPRODUCT(IF(Table1[johnson_split_needed_pure]&gt;0.5, 0, 1), IF(Table1[in_play_johnson], 1, 0), IF(Table1[johnson_split_needed_pure]&gt;=Table1[[#This Row],[johnson_split_needed_pure]], -Table1[electoral_votes], 0)))</f>
@@ -13883,7 +13883,7 @@
       </c>
       <c r="AR63" s="44">
         <f>adjusted_electors_clinton_with_johnson_only+Table1[[#This Row],[electors_with_split_stein_added]]+Table1[[#This Row],[electors_with_split_stein_dropped]]</f>
-        <v>233</v>
+        <v>259</v>
       </c>
       <c r="AS63" s="44">
         <f>adjusted_electors_clinton_with_stein_only+Table1[[#This Row],[electors_with_split_johnson_added]]+Table1[[#This Row],[electors_with_split_johnson_dropped]]</f>
@@ -13895,7 +13895,7 @@
       </c>
       <c r="AU63" s="45">
         <f>IF(AND(Table1[[#This Row],[in_play_johnson]],Table1[[#This Row],[electors_with_split_johnson]]&gt;=270),Table1[[#This Row],[johnson_split_needed_pure]],"")</f>
-        <v>0.73916777074439377</v>
+        <v>0.7734551674342649</v>
       </c>
       <c r="AV63" s="16">
         <f>IF(Table1[[#This Row],[stein_split_needed_pure]]="","",(Table1[[#This Row],[adjusted_vote_clinton_with_johnson_only]]+Table1[[#This Row],[stein_split_needed_pure]]*Table1[[#This Row],[orig_vote_stein]])-(Table1[[#This Row],[adjusted_vote_trump_with_johnson_only]]+(1-Table1[[#This Row],[stein_split_needed_pure]])*Table1[[#This Row],[orig_vote_stein]]))</f>
@@ -13950,55 +13950,55 @@
       </c>
       <c r="L64" s="12">
         <f>pct_stein_to_clinton*Table1[[#This Row],[orig_vote_stein]]</f>
-        <v>22566</v>
+        <v>18052.8</v>
       </c>
       <c r="M64" s="12">
         <f>pct_stein_to_trump*Table1[[#This Row],[orig_vote_stein]]</f>
-        <v>22566</v>
+        <v>27079.200000000001</v>
       </c>
       <c r="N64" s="12">
         <f>pct_johnson_to_clinton*Table1[[#This Row],[orig_vote_johnson]]</f>
-        <v>43153</v>
+        <v>77675.400000000009</v>
       </c>
       <c r="O64" s="12">
         <f>pct_johnson_to_trump*Table1[[#This Row],[orig_vote_johnson]]</f>
-        <v>43153</v>
+        <v>8630.5999999999985</v>
       </c>
       <c r="P64" s="12">
         <f>Table1[[#This Row],[orig_vote_clinton]]+Table1[[#This Row],[stein_votes_to_clinton]]</f>
-        <v>957197</v>
+        <v>952683.8</v>
       </c>
       <c r="Q64" s="12">
         <f>Table1[[#This Row],[orig_vote_trump]]+Table1[[#This Row],[stein_votes_to_trump]]</f>
-        <v>765072</v>
+        <v>769585.2</v>
       </c>
       <c r="R64" s="12">
         <f>Table1[[#This Row],[orig_vote_clinton]]+Table1[[#This Row],[johnson_votes_to_clinton]]</f>
-        <v>977784</v>
+        <v>1012306.4</v>
       </c>
       <c r="S64" s="12">
         <f>Table1[[#This Row],[orig_vote_trump]]+Table1[[#This Row],[johnson_votes_to_trump]]</f>
-        <v>785659</v>
+        <v>751136.6</v>
       </c>
       <c r="T64" s="11">
         <f>Table1[[#This Row],[orig_vote_clinton]]+Table1[[#This Row],[stein_votes_to_clinton]]+Table1[[#This Row],[johnson_votes_to_clinton]]</f>
-        <v>1000350</v>
+        <v>1030359.2000000001</v>
       </c>
       <c r="U64" s="11">
         <f>Table1[[#This Row],[orig_vote_trump]]+Table1[[#This Row],[stein_votes_to_trump]]+Table1[[#This Row],[johnson_votes_to_trump]]</f>
-        <v>808225</v>
+        <v>778215.79999999993</v>
       </c>
       <c r="V64" s="11">
         <f>Table1[[#This Row],[adjusted_vote_clinton_with_stein_only]]-Table1[[#This Row],[adjusted_vote_trump_with_stein_only]]</f>
-        <v>192125</v>
+        <v>183098.60000000009</v>
       </c>
       <c r="W64" s="11">
         <f>Table1[[#This Row],[adjusted_vote_clinton_with_johnson_only]]-Table1[[#This Row],[adjusted_vote_trump_with_johnson_only]]</f>
-        <v>192125</v>
+        <v>261169.80000000005</v>
       </c>
       <c r="X64" s="12">
         <f>Table1[[#This Row],[adjusted_vote_clinton]]-Table1[[#This Row],[adjusted_vote_trump]]</f>
-        <v>192125</v>
+        <v>252143.40000000014</v>
       </c>
       <c r="Y64" s="12">
         <f>IF(Table1[[#This Row],[adjusted_spread_with_stein_only]]&gt;0,Table1[[#This Row],[electoral_votes]],0)</f>
@@ -14034,7 +14034,7 @@
       </c>
       <c r="AG64" s="11" t="str">
         <f>IF(Table1[[#This Row],[index]]=1,IF(Table1[[#This Row],[pickup_clinton]],Table1[[#This Row],[State]],""),IF(Table1[[#This Row],[pickup_clinton]],CONCATENATE(AG63,IF(AG63="","",","),Table1[[#This Row],[State]]),AG63))</f>
-        <v/>
+        <v>Florida,Michigan,Pennsylvania</v>
       </c>
       <c r="AH64" s="11" t="str">
         <f>IF(Table1[[#This Row],[index]]=1,IF(Table1[[#This Row],[pickup_trump]],Table1[[#This Row],[State]],""),IF(Table1[[#This Row],[pickup_trump]],CONCATENATE(AH63,IF(AH53="","",","),Table1[[#This Row],[State]]),AH63))</f>
@@ -14042,11 +14042,11 @@
       </c>
       <c r="AI64" s="30">
         <f>IF(Table1[[#This Row],[orig_vote_stein]]=0,"",(1-Table1[[#This Row],[adjusted_spread_with_johnson_only]]/Table1[[#This Row],[orig_vote_stein]])/2)</f>
-        <v>-1.6284786847469643</v>
+        <v>-2.3933993618718432</v>
       </c>
       <c r="AJ64" s="30">
         <f>(1-Table1[[#This Row],[adjusted_spread_with_stein_only]]/Table1[[#This Row],[orig_vote_johnson]])/2</f>
-        <v>-0.61304544295877461</v>
+        <v>-0.5607524389961307</v>
       </c>
       <c r="AK64" s="30" t="b">
         <f>AND(Table1[[#This Row],[stein_split_needed_pure]]&gt;=0,Table1[[#This Row],[stein_split_needed_pure]]&lt;=1)</f>
@@ -14078,7 +14078,7 @@
       </c>
       <c r="AR64" s="44">
         <f>adjusted_electors_clinton_with_johnson_only+Table1[[#This Row],[electors_with_split_stein_added]]+Table1[[#This Row],[electors_with_split_stein_dropped]]</f>
-        <v>233</v>
+        <v>314</v>
       </c>
       <c r="AS64" s="44">
         <f>adjusted_electors_clinton_with_stein_only+Table1[[#This Row],[electors_with_split_johnson_added]]+Table1[[#This Row],[electors_with_split_johnson_dropped]]</f>
@@ -14145,55 +14145,55 @@
       </c>
       <c r="L65" s="12">
         <f>pct_stein_to_clinton*Table1[[#This Row],[orig_vote_stein]]</f>
-        <v>6458.5</v>
+        <v>5166.8</v>
       </c>
       <c r="M65" s="12">
         <f>pct_stein_to_trump*Table1[[#This Row],[orig_vote_stein]]</f>
-        <v>6458.5</v>
+        <v>7750.2</v>
       </c>
       <c r="N65" s="12">
         <f>pct_johnson_to_clinton*Table1[[#This Row],[orig_vote_johnson]]</f>
-        <v>24357.5</v>
+        <v>43843.5</v>
       </c>
       <c r="O65" s="12">
         <f>pct_johnson_to_trump*Table1[[#This Row],[orig_vote_johnson]]</f>
-        <v>24357.5</v>
+        <v>4871.4999999999991</v>
       </c>
       <c r="P65" s="12">
         <f>Table1[[#This Row],[orig_vote_clinton]]+Table1[[#This Row],[stein_votes_to_clinton]]</f>
-        <v>855927.5</v>
+        <v>854635.8</v>
       </c>
       <c r="Q65" s="12">
         <f>Table1[[#This Row],[orig_vote_trump]]+Table1[[#This Row],[stein_votes_to_trump]]</f>
-        <v>1150069.5</v>
+        <v>1151361.2</v>
       </c>
       <c r="R65" s="12">
         <f>Table1[[#This Row],[orig_vote_clinton]]+Table1[[#This Row],[johnson_votes_to_clinton]]</f>
-        <v>873826.5</v>
+        <v>893312.5</v>
       </c>
       <c r="S65" s="12">
         <f>Table1[[#This Row],[orig_vote_trump]]+Table1[[#This Row],[johnson_votes_to_trump]]</f>
-        <v>1167968.5</v>
+        <v>1148482.5</v>
       </c>
       <c r="T65" s="11">
         <f>Table1[[#This Row],[orig_vote_clinton]]+Table1[[#This Row],[stein_votes_to_clinton]]+Table1[[#This Row],[johnson_votes_to_clinton]]</f>
-        <v>880285</v>
+        <v>898479.3</v>
       </c>
       <c r="U65" s="11">
         <f>Table1[[#This Row],[orig_vote_trump]]+Table1[[#This Row],[stein_votes_to_trump]]+Table1[[#This Row],[johnson_votes_to_trump]]</f>
-        <v>1174427</v>
+        <v>1156232.7</v>
       </c>
       <c r="V65" s="11">
         <f>Table1[[#This Row],[adjusted_vote_clinton_with_stein_only]]-Table1[[#This Row],[adjusted_vote_trump_with_stein_only]]</f>
-        <v>-294142</v>
+        <v>-296725.39999999991</v>
       </c>
       <c r="W65" s="11">
         <f>Table1[[#This Row],[adjusted_vote_clinton_with_johnson_only]]-Table1[[#This Row],[adjusted_vote_trump_with_johnson_only]]</f>
-        <v>-294142</v>
+        <v>-255170</v>
       </c>
       <c r="X65" s="12">
         <f>Table1[[#This Row],[adjusted_vote_clinton]]-Table1[[#This Row],[adjusted_vote_trump]]</f>
-        <v>-294142</v>
+        <v>-257753.39999999991</v>
       </c>
       <c r="Y65" s="12">
         <f>IF(Table1[[#This Row],[adjusted_spread_with_stein_only]]&gt;0,Table1[[#This Row],[electoral_votes]],0)</f>
@@ -14229,7 +14229,7 @@
       </c>
       <c r="AG65" s="11" t="str">
         <f>IF(Table1[[#This Row],[index]]=1,IF(Table1[[#This Row],[pickup_clinton]],Table1[[#This Row],[State]],""),IF(Table1[[#This Row],[pickup_clinton]],CONCATENATE(AG64,IF(AG64="","",","),Table1[[#This Row],[State]]),AG64))</f>
-        <v/>
+        <v>Florida,Michigan,Pennsylvania</v>
       </c>
       <c r="AH65" s="11" t="str">
         <f>IF(Table1[[#This Row],[index]]=1,IF(Table1[[#This Row],[pickup_trump]],Table1[[#This Row],[State]],""),IF(Table1[[#This Row],[pickup_trump]],CONCATENATE(AH64,IF(AH54="","",","),Table1[[#This Row],[State]]),AH64))</f>
@@ -14237,11 +14237,11 @@
       </c>
       <c r="AI65" s="30">
         <f>IF(Table1[[#This Row],[orig_vote_stein]]=0,"",(1-Table1[[#This Row],[adjusted_spread_with_johnson_only]]/Table1[[#This Row],[orig_vote_stein]])/2)</f>
-        <v>11.885848107145621</v>
+        <v>10.377293489200278</v>
       </c>
       <c r="AJ65" s="30">
         <f>(1-Table1[[#This Row],[adjusted_spread_with_stein_only]]/Table1[[#This Row],[orig_vote_johnson]])/2</f>
-        <v>3.5190085189366727</v>
+        <v>3.5455239659242523</v>
       </c>
       <c r="AK65" s="30" t="b">
         <f>AND(Table1[[#This Row],[stein_split_needed_pure]]&gt;=0,Table1[[#This Row],[stein_split_needed_pure]]&lt;=1)</f>
@@ -14273,7 +14273,7 @@
       </c>
       <c r="AR65" s="44">
         <f>adjusted_electors_clinton_with_johnson_only+Table1[[#This Row],[electors_with_split_stein_added]]+Table1[[#This Row],[electors_with_split_stein_dropped]]</f>
-        <v>233</v>
+        <v>314</v>
       </c>
       <c r="AS65" s="44">
         <f>adjusted_electors_clinton_with_stein_only+Table1[[#This Row],[electors_with_split_johnson_added]]+Table1[[#This Row],[electors_with_split_johnson_dropped]]</f>
@@ -14348,11 +14348,11 @@
       </c>
       <c r="N66" s="12">
         <f>pct_johnson_to_clinton*Table1[[#This Row],[orig_vote_johnson]]</f>
-        <v>10422.5</v>
+        <v>18760.5</v>
       </c>
       <c r="O66" s="12">
         <f>pct_johnson_to_trump*Table1[[#This Row],[orig_vote_johnson]]</f>
-        <v>10422.5</v>
+        <v>2084.4999999999995</v>
       </c>
       <c r="P66" s="12">
         <f>Table1[[#This Row],[orig_vote_clinton]]+Table1[[#This Row],[stein_votes_to_clinton]]</f>
@@ -14364,19 +14364,19 @@
       </c>
       <c r="R66" s="12">
         <f>Table1[[#This Row],[orig_vote_clinton]]+Table1[[#This Row],[johnson_votes_to_clinton]]</f>
-        <v>127864.5</v>
+        <v>136202.5</v>
       </c>
       <c r="S66" s="12">
         <f>Table1[[#This Row],[orig_vote_trump]]+Table1[[#This Row],[johnson_votes_to_trump]]</f>
-        <v>238123.5</v>
+        <v>229785.5</v>
       </c>
       <c r="T66" s="11">
         <f>Table1[[#This Row],[orig_vote_clinton]]+Table1[[#This Row],[stein_votes_to_clinton]]+Table1[[#This Row],[johnson_votes_to_clinton]]</f>
-        <v>127864.5</v>
+        <v>136202.5</v>
       </c>
       <c r="U66" s="11">
         <f>Table1[[#This Row],[orig_vote_trump]]+Table1[[#This Row],[stein_votes_to_trump]]+Table1[[#This Row],[johnson_votes_to_trump]]</f>
-        <v>238123.5</v>
+        <v>229785.5</v>
       </c>
       <c r="V66" s="11">
         <f>Table1[[#This Row],[adjusted_vote_clinton_with_stein_only]]-Table1[[#This Row],[adjusted_vote_trump_with_stein_only]]</f>
@@ -14384,11 +14384,11 @@
       </c>
       <c r="W66" s="11">
         <f>Table1[[#This Row],[adjusted_vote_clinton_with_johnson_only]]-Table1[[#This Row],[adjusted_vote_trump_with_johnson_only]]</f>
-        <v>-110259</v>
+        <v>-93583</v>
       </c>
       <c r="X66" s="12">
         <f>Table1[[#This Row],[adjusted_vote_clinton]]-Table1[[#This Row],[adjusted_vote_trump]]</f>
-        <v>-110259</v>
+        <v>-93583</v>
       </c>
       <c r="Y66" s="12">
         <f>IF(Table1[[#This Row],[adjusted_spread_with_stein_only]]&gt;0,Table1[[#This Row],[electoral_votes]],0)</f>
@@ -14424,7 +14424,7 @@
       </c>
       <c r="AG66" s="11" t="str">
         <f>IF(Table1[[#This Row],[index]]=1,IF(Table1[[#This Row],[pickup_clinton]],Table1[[#This Row],[State]],""),IF(Table1[[#This Row],[pickup_clinton]],CONCATENATE(AG65,IF(AG65="","",","),Table1[[#This Row],[State]]),AG65))</f>
-        <v/>
+        <v>Florida,Michigan,Pennsylvania</v>
       </c>
       <c r="AH66" s="11" t="str">
         <f>IF(Table1[[#This Row],[index]]=1,IF(Table1[[#This Row],[pickup_trump]],Table1[[#This Row],[State]],""),IF(Table1[[#This Row],[pickup_trump]],CONCATENATE(AH65,IF(AH55="","",","),Table1[[#This Row],[State]]),AH65))</f>
@@ -14468,7 +14468,7 @@
       </c>
       <c r="AR66" s="44">
         <f>adjusted_electors_clinton_with_johnson_only+Table1[[#This Row],[electors_with_split_stein_added]]+Table1[[#This Row],[electors_with_split_stein_dropped]]</f>
-        <v>233</v>
+        <v>314</v>
       </c>
       <c r="AS66" s="44">
         <f>adjusted_electors_clinton_with_stein_only+Table1[[#This Row],[electors_with_split_johnson_added]]+Table1[[#This Row],[electors_with_split_johnson_dropped]]</f>
@@ -14535,55 +14535,55 @@
       </c>
       <c r="L67" s="12">
         <f>pct_stein_to_clinton*Table1[[#This Row],[orig_vote_stein]]</f>
-        <v>7959.5</v>
+        <v>6367.6</v>
       </c>
       <c r="M67" s="12">
         <f>pct_stein_to_trump*Table1[[#This Row],[orig_vote_stein]]</f>
-        <v>7959.5</v>
+        <v>9551.4</v>
       </c>
       <c r="N67" s="12">
         <f>pct_johnson_to_clinton*Table1[[#This Row],[orig_vote_johnson]]</f>
-        <v>35042</v>
+        <v>63075.6</v>
       </c>
       <c r="O67" s="12">
         <f>pct_johnson_to_trump*Table1[[#This Row],[orig_vote_johnson]]</f>
-        <v>35042</v>
+        <v>7008.3999999999987</v>
       </c>
       <c r="P67" s="12">
         <f>Table1[[#This Row],[orig_vote_clinton]]+Table1[[#This Row],[stein_votes_to_clinton]]</f>
-        <v>875069.5</v>
+        <v>873477.6</v>
       </c>
       <c r="Q67" s="12">
         <f>Table1[[#This Row],[orig_vote_trump]]+Table1[[#This Row],[stein_votes_to_trump]]</f>
-        <v>1525361.5</v>
+        <v>1526953.4</v>
       </c>
       <c r="R67" s="12">
         <f>Table1[[#This Row],[orig_vote_clinton]]+Table1[[#This Row],[johnson_votes_to_clinton]]</f>
-        <v>902152</v>
+        <v>930185.6</v>
       </c>
       <c r="S67" s="12">
         <f>Table1[[#This Row],[orig_vote_trump]]+Table1[[#This Row],[johnson_votes_to_trump]]</f>
-        <v>1552444</v>
+        <v>1524410.4</v>
       </c>
       <c r="T67" s="11">
         <f>Table1[[#This Row],[orig_vote_clinton]]+Table1[[#This Row],[stein_votes_to_clinton]]+Table1[[#This Row],[johnson_votes_to_clinton]]</f>
-        <v>910111.5</v>
+        <v>936553.2</v>
       </c>
       <c r="U67" s="11">
         <f>Table1[[#This Row],[orig_vote_trump]]+Table1[[#This Row],[stein_votes_to_trump]]+Table1[[#This Row],[johnson_votes_to_trump]]</f>
-        <v>1560403.5</v>
+        <v>1533961.7999999998</v>
       </c>
       <c r="V67" s="11">
         <f>Table1[[#This Row],[adjusted_vote_clinton_with_stein_only]]-Table1[[#This Row],[adjusted_vote_trump_with_stein_only]]</f>
-        <v>-650292</v>
+        <v>-653475.79999999993</v>
       </c>
       <c r="W67" s="11">
         <f>Table1[[#This Row],[adjusted_vote_clinton_with_johnson_only]]-Table1[[#This Row],[adjusted_vote_trump_with_johnson_only]]</f>
-        <v>-650292</v>
+        <v>-594224.79999999993</v>
       </c>
       <c r="X67" s="12">
         <f>Table1[[#This Row],[adjusted_vote_clinton]]-Table1[[#This Row],[adjusted_vote_trump]]</f>
-        <v>-650292</v>
+        <v>-597408.59999999986</v>
       </c>
       <c r="Y67" s="12">
         <f>IF(Table1[[#This Row],[adjusted_spread_with_stein_only]]&gt;0,Table1[[#This Row],[electoral_votes]],0)</f>
@@ -14619,7 +14619,7 @@
       </c>
       <c r="AG67" s="11" t="str">
         <f>IF(Table1[[#This Row],[index]]=1,IF(Table1[[#This Row],[pickup_clinton]],Table1[[#This Row],[State]],""),IF(Table1[[#This Row],[pickup_clinton]],CONCATENATE(AG66,IF(AG66="","",","),Table1[[#This Row],[State]]),AG66))</f>
-        <v/>
+        <v>Florida,Michigan,Pennsylvania</v>
       </c>
       <c r="AH67" s="11" t="str">
         <f>IF(Table1[[#This Row],[index]]=1,IF(Table1[[#This Row],[pickup_trump]],Table1[[#This Row],[State]],""),IF(Table1[[#This Row],[pickup_trump]],CONCATENATE(AH66,IF(AH56="","",","),Table1[[#This Row],[State]]),AH66))</f>
@@ -14627,11 +14627,11 @@
       </c>
       <c r="AI67" s="30">
         <f>IF(Table1[[#This Row],[orig_vote_stein]]=0,"",(1-Table1[[#This Row],[adjusted_spread_with_johnson_only]]/Table1[[#This Row],[orig_vote_stein]])/2)</f>
-        <v>20.925026697656889</v>
+        <v>19.164011558514979</v>
       </c>
       <c r="AJ67" s="30">
         <f>(1-Table1[[#This Row],[adjusted_spread_with_stein_only]]/Table1[[#This Row],[orig_vote_johnson]])/2</f>
-        <v>5.1393756064151592</v>
+        <v>5.1620897779807082</v>
       </c>
       <c r="AK67" s="30" t="b">
         <f>AND(Table1[[#This Row],[stein_split_needed_pure]]&gt;=0,Table1[[#This Row],[stein_split_needed_pure]]&lt;=1)</f>
@@ -14663,7 +14663,7 @@
       </c>
       <c r="AR67" s="44">
         <f>adjusted_electors_clinton_with_johnson_only+Table1[[#This Row],[electors_with_split_stein_added]]+Table1[[#This Row],[electors_with_split_stein_dropped]]</f>
-        <v>233</v>
+        <v>314</v>
       </c>
       <c r="AS67" s="44">
         <f>adjusted_electors_clinton_with_stein_only+Table1[[#This Row],[electors_with_split_johnson_added]]+Table1[[#This Row],[electors_with_split_johnson_dropped]]</f>
@@ -14730,55 +14730,55 @@
       </c>
       <c r="L68" s="12">
         <f>pct_stein_to_clinton*Table1[[#This Row],[orig_vote_stein]]</f>
-        <v>35653.5</v>
+        <v>28522.800000000003</v>
       </c>
       <c r="M68" s="12">
         <f>pct_stein_to_trump*Table1[[#This Row],[orig_vote_stein]]</f>
-        <v>35653.5</v>
+        <v>42784.2</v>
       </c>
       <c r="N68" s="12">
         <f>pct_johnson_to_clinton*Table1[[#This Row],[orig_vote_johnson]]</f>
-        <v>141262</v>
+        <v>254271.6</v>
       </c>
       <c r="O68" s="12">
         <f>pct_johnson_to_trump*Table1[[#This Row],[orig_vote_johnson]]</f>
-        <v>141262</v>
+        <v>28252.399999999994</v>
       </c>
       <c r="P68" s="12">
         <f>Table1[[#This Row],[orig_vote_clinton]]+Table1[[#This Row],[stein_votes_to_clinton]]</f>
-        <v>3903469.5</v>
+        <v>3896338.8</v>
       </c>
       <c r="Q68" s="12">
         <f>Table1[[#This Row],[orig_vote_trump]]+Table1[[#This Row],[stein_votes_to_trump]]</f>
-        <v>4717243.5</v>
+        <v>4724374.2</v>
       </c>
       <c r="R68" s="12">
         <f>Table1[[#This Row],[orig_vote_clinton]]+Table1[[#This Row],[johnson_votes_to_clinton]]</f>
-        <v>4009078</v>
+        <v>4122087.6</v>
       </c>
       <c r="S68" s="12">
         <f>Table1[[#This Row],[orig_vote_trump]]+Table1[[#This Row],[johnson_votes_to_trump]]</f>
-        <v>4822852</v>
+        <v>4709842.4000000004</v>
       </c>
       <c r="T68" s="11">
         <f>Table1[[#This Row],[orig_vote_clinton]]+Table1[[#This Row],[stein_votes_to_clinton]]+Table1[[#This Row],[johnson_votes_to_clinton]]</f>
-        <v>4044731.5</v>
+        <v>4150610.4</v>
       </c>
       <c r="U68" s="11">
         <f>Table1[[#This Row],[orig_vote_trump]]+Table1[[#This Row],[stein_votes_to_trump]]+Table1[[#This Row],[johnson_votes_to_trump]]</f>
-        <v>4858505.5</v>
+        <v>4752626.6000000006</v>
       </c>
       <c r="V68" s="11">
         <f>Table1[[#This Row],[adjusted_vote_clinton_with_stein_only]]-Table1[[#This Row],[adjusted_vote_trump_with_stein_only]]</f>
-        <v>-813774</v>
+        <v>-828035.40000000037</v>
       </c>
       <c r="W68" s="11">
         <f>Table1[[#This Row],[adjusted_vote_clinton_with_johnson_only]]-Table1[[#This Row],[adjusted_vote_trump_with_johnson_only]]</f>
-        <v>-813774</v>
+        <v>-587754.80000000028</v>
       </c>
       <c r="X68" s="12">
         <f>Table1[[#This Row],[adjusted_vote_clinton]]-Table1[[#This Row],[adjusted_vote_trump]]</f>
-        <v>-813774</v>
+        <v>-602016.20000000065</v>
       </c>
       <c r="Y68" s="12">
         <f>IF(Table1[[#This Row],[adjusted_spread_with_stein_only]]&gt;0,Table1[[#This Row],[electoral_votes]],0)</f>
@@ -14814,7 +14814,7 @@
       </c>
       <c r="AG68" s="11" t="str">
         <f>IF(Table1[[#This Row],[index]]=1,IF(Table1[[#This Row],[pickup_clinton]],Table1[[#This Row],[State]],""),IF(Table1[[#This Row],[pickup_clinton]],CONCATENATE(AG67,IF(AG67="","",","),Table1[[#This Row],[State]]),AG67))</f>
-        <v/>
+        <v>Florida,Michigan,Pennsylvania</v>
       </c>
       <c r="AH68" s="11" t="str">
         <f>IF(Table1[[#This Row],[index]]=1,IF(Table1[[#This Row],[pickup_trump]],Table1[[#This Row],[State]],""),IF(Table1[[#This Row],[pickup_trump]],CONCATENATE(AH67,IF(AH57="","",","),Table1[[#This Row],[State]]),AH67))</f>
@@ -14822,11 +14822,11 @@
       </c>
       <c r="AI68" s="30">
         <f>IF(Table1[[#This Row],[orig_vote_stein]]=0,"",(1-Table1[[#This Row],[adjusted_spread_with_johnson_only]]/Table1[[#This Row],[orig_vote_stein]])/2)</f>
-        <v>6.2061298329757246</v>
+        <v>4.6212980492798765</v>
       </c>
       <c r="AJ68" s="30">
         <f>(1-Table1[[#This Row],[adjusted_spread_with_stein_only]]/Table1[[#This Row],[orig_vote_johnson]])/2</f>
-        <v>1.9401856125497303</v>
+        <v>1.9654248842576212</v>
       </c>
       <c r="AK68" s="30" t="b">
         <f>AND(Table1[[#This Row],[stein_split_needed_pure]]&gt;=0,Table1[[#This Row],[stein_split_needed_pure]]&lt;=1)</f>
@@ -14858,7 +14858,7 @@
       </c>
       <c r="AR68" s="44">
         <f>adjusted_electors_clinton_with_johnson_only+Table1[[#This Row],[electors_with_split_stein_added]]+Table1[[#This Row],[electors_with_split_stein_dropped]]</f>
-        <v>233</v>
+        <v>314</v>
       </c>
       <c r="AS68" s="44">
         <f>adjusted_electors_clinton_with_stein_only+Table1[[#This Row],[electors_with_split_johnson_added]]+Table1[[#This Row],[electors_with_split_johnson_dropped]]</f>
@@ -14925,55 +14925,55 @@
       </c>
       <c r="L69" s="12">
         <f>pct_stein_to_clinton*Table1[[#This Row],[orig_vote_stein]]</f>
-        <v>2742</v>
+        <v>2193.6</v>
       </c>
       <c r="M69" s="12">
         <f>pct_stein_to_trump*Table1[[#This Row],[orig_vote_stein]]</f>
-        <v>2742</v>
+        <v>3290.4</v>
       </c>
       <c r="N69" s="12">
         <f>pct_johnson_to_clinton*Table1[[#This Row],[orig_vote_johnson]]</f>
-        <v>111429</v>
+        <v>200572.2</v>
       </c>
       <c r="O69" s="12">
         <f>pct_johnson_to_trump*Table1[[#This Row],[orig_vote_johnson]]</f>
-        <v>111429</v>
+        <v>22285.799999999996</v>
       </c>
       <c r="P69" s="12">
         <f>Table1[[#This Row],[orig_vote_clinton]]+Table1[[#This Row],[stein_votes_to_clinton]]</f>
-        <v>276930</v>
+        <v>276381.59999999998</v>
       </c>
       <c r="Q69" s="12">
         <f>Table1[[#This Row],[orig_vote_trump]]+Table1[[#This Row],[stein_votes_to_trump]]</f>
-        <v>454828</v>
+        <v>455376.4</v>
       </c>
       <c r="R69" s="12">
         <f>Table1[[#This Row],[orig_vote_clinton]]+Table1[[#This Row],[johnson_votes_to_clinton]]</f>
-        <v>385617</v>
+        <v>474760.2</v>
       </c>
       <c r="S69" s="12">
         <f>Table1[[#This Row],[orig_vote_trump]]+Table1[[#This Row],[johnson_votes_to_trump]]</f>
-        <v>563515</v>
+        <v>474371.8</v>
       </c>
       <c r="T69" s="11">
         <f>Table1[[#This Row],[orig_vote_clinton]]+Table1[[#This Row],[stein_votes_to_clinton]]+Table1[[#This Row],[johnson_votes_to_clinton]]</f>
-        <v>388359</v>
+        <v>476953.8</v>
       </c>
       <c r="U69" s="11">
         <f>Table1[[#This Row],[orig_vote_trump]]+Table1[[#This Row],[stein_votes_to_trump]]+Table1[[#This Row],[johnson_votes_to_trump]]</f>
-        <v>566257</v>
+        <v>477662.2</v>
       </c>
       <c r="V69" s="11">
         <f>Table1[[#This Row],[adjusted_vote_clinton_with_stein_only]]-Table1[[#This Row],[adjusted_vote_trump_with_stein_only]]</f>
-        <v>-177898</v>
+        <v>-178994.80000000005</v>
       </c>
       <c r="W69" s="11">
         <f>Table1[[#This Row],[adjusted_vote_clinton_with_johnson_only]]-Table1[[#This Row],[adjusted_vote_trump_with_johnson_only]]</f>
-        <v>-177898</v>
+        <v>388.40000000002328</v>
       </c>
       <c r="X69" s="12">
         <f>Table1[[#This Row],[adjusted_vote_clinton]]-Table1[[#This Row],[adjusted_vote_trump]]</f>
-        <v>-177898</v>
+        <v>-708.40000000002328</v>
       </c>
       <c r="Y69" s="12">
         <f>IF(Table1[[#This Row],[adjusted_spread_with_stein_only]]&gt;0,Table1[[#This Row],[electoral_votes]],0)</f>
@@ -14981,7 +14981,7 @@
       </c>
       <c r="Z69" s="12">
         <f>IF(Table1[[#This Row],[adjusted_spread_with_johnson_only]]&gt;0,Table1[[#This Row],[electoral_votes]],0)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AA69" s="11">
         <f>IF(Table1[[#This Row],[adjusted_spread]]&gt;0,Table1[[#This Row],[electoral_votes]],0)</f>
@@ -15009,7 +15009,7 @@
       </c>
       <c r="AG69" s="11" t="str">
         <f>IF(Table1[[#This Row],[index]]=1,IF(Table1[[#This Row],[pickup_clinton]],Table1[[#This Row],[State]],""),IF(Table1[[#This Row],[pickup_clinton]],CONCATENATE(AG68,IF(AG68="","",","),Table1[[#This Row],[State]]),AG68))</f>
-        <v/>
+        <v>Florida,Michigan,Pennsylvania</v>
       </c>
       <c r="AH69" s="11" t="str">
         <f>IF(Table1[[#This Row],[index]]=1,IF(Table1[[#This Row],[pickup_trump]],Table1[[#This Row],[State]],""),IF(Table1[[#This Row],[pickup_trump]],CONCATENATE(AH68,IF(AH58="","",","),Table1[[#This Row],[State]]),AH68))</f>
@@ -15017,15 +15017,15 @@
       </c>
       <c r="AI69" s="30">
         <f>IF(Table1[[#This Row],[orig_vote_stein]]=0,"",(1-Table1[[#This Row],[adjusted_spread_with_johnson_only]]/Table1[[#This Row],[orig_vote_stein]])/2)</f>
-        <v>16.719730123997081</v>
+        <v>0.46458789204959672</v>
       </c>
       <c r="AJ69" s="30">
         <f>(1-Table1[[#This Row],[adjusted_spread_with_stein_only]]/Table1[[#This Row],[orig_vote_johnson]])/2</f>
-        <v>0.89912859309515469</v>
+        <v>0.90158935286146347</v>
       </c>
       <c r="AK69" s="30" t="b">
         <f>AND(Table1[[#This Row],[stein_split_needed_pure]]&gt;=0,Table1[[#This Row],[stein_split_needed_pure]]&lt;=1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL69" s="30" t="b">
         <f>AND(Table1[[#This Row],[johnson_split_needed_pure]]&gt;=0,Table1[[#This Row],[johnson_split_needed_pure]]&lt;=1)</f>
@@ -15045,7 +15045,7 @@
       </c>
       <c r="AP69" s="51">
         <f t="array" ref="AP69">IF(NOT(Table1[[#This Row],[in_play_stein]]), 0, SUMPRODUCT(IF(Table1[stein_split_needed_pure]&gt;0.5, 0, 1), IF(Table1[in_play_stein], 1, 0), IF(Table1[stein_split_needed_pure]&gt;=Table1[[#This Row],[stein_split_needed_pure]], -Table1[electoral_votes], 0)))</f>
-        <v>0</v>
+        <v>-6</v>
       </c>
       <c r="AQ69" s="51">
         <f t="array" ref="AQ69">IF(NOT(Table1[[#This Row],[in_play_johnson]]), 0, SUMPRODUCT(IF(Table1[johnson_split_needed_pure]&gt;0.5, 0, 1), IF(Table1[in_play_johnson], 1, 0), IF(Table1[johnson_split_needed_pure]&gt;=Table1[[#This Row],[johnson_split_needed_pure]], -Table1[electoral_votes], 0)))</f>
@@ -15053,19 +15053,19 @@
       </c>
       <c r="AR69" s="44">
         <f>adjusted_electors_clinton_with_johnson_only+Table1[[#This Row],[electors_with_split_stein_added]]+Table1[[#This Row],[electors_with_split_stein_dropped]]</f>
-        <v>233</v>
+        <v>308</v>
       </c>
       <c r="AS69" s="44">
         <f>adjusted_electors_clinton_with_stein_only+Table1[[#This Row],[electors_with_split_johnson_added]]+Table1[[#This Row],[electors_with_split_johnson_dropped]]</f>
         <v>314</v>
       </c>
-      <c r="AT69" s="30" t="str">
+      <c r="AT69" s="30">
         <f>IF(AND(Table1[[#This Row],[in_play_stein]],Table1[[#This Row],[electors_with_split_stein]]&gt;=270),Table1[[#This Row],[stein_split_needed_pure]],"")</f>
-        <v/>
+        <v>0.46458789204959672</v>
       </c>
       <c r="AU69" s="45">
         <f>IF(AND(Table1[[#This Row],[in_play_johnson]],Table1[[#This Row],[electors_with_split_johnson]]&gt;=270),Table1[[#This Row],[johnson_split_needed_pure]],"")</f>
-        <v>0.89912859309515469</v>
+        <v>0.90158935286146347</v>
       </c>
       <c r="AV69" s="16">
         <f>IF(Table1[[#This Row],[stein_split_needed_pure]]="","",(Table1[[#This Row],[adjusted_vote_clinton_with_johnson_only]]+Table1[[#This Row],[stein_split_needed_pure]]*Table1[[#This Row],[orig_vote_stein]])-(Table1[[#This Row],[adjusted_vote_trump_with_johnson_only]]+(1-Table1[[#This Row],[stein_split_needed_pure]])*Table1[[#This Row],[orig_vote_stein]]))</f>
@@ -15120,55 +15120,55 @@
       </c>
       <c r="L70" s="12">
         <f>pct_stein_to_clinton*Table1[[#This Row],[orig_vote_stein]]</f>
-        <v>3374</v>
+        <v>2699.2000000000003</v>
       </c>
       <c r="M70" s="12">
         <f>pct_stein_to_trump*Table1[[#This Row],[orig_vote_stein]]</f>
-        <v>3374</v>
+        <v>4048.7999999999997</v>
       </c>
       <c r="N70" s="12">
         <f>pct_johnson_to_clinton*Table1[[#This Row],[orig_vote_johnson]]</f>
-        <v>5023.5</v>
+        <v>9042.3000000000011</v>
       </c>
       <c r="O70" s="12">
         <f>pct_johnson_to_trump*Table1[[#This Row],[orig_vote_johnson]]</f>
-        <v>5023.5</v>
+        <v>1004.6999999999998</v>
       </c>
       <c r="P70" s="12">
         <f>Table1[[#This Row],[orig_vote_clinton]]+Table1[[#This Row],[stein_votes_to_clinton]]</f>
-        <v>181553</v>
+        <v>180878.2</v>
       </c>
       <c r="Q70" s="12">
         <f>Table1[[#This Row],[orig_vote_trump]]+Table1[[#This Row],[stein_votes_to_trump]]</f>
-        <v>98427</v>
+        <v>99101.8</v>
       </c>
       <c r="R70" s="12">
         <f>Table1[[#This Row],[orig_vote_clinton]]+Table1[[#This Row],[johnson_votes_to_clinton]]</f>
-        <v>183202.5</v>
+        <v>187221.3</v>
       </c>
       <c r="S70" s="12">
         <f>Table1[[#This Row],[orig_vote_trump]]+Table1[[#This Row],[johnson_votes_to_trump]]</f>
-        <v>100076.5</v>
+        <v>96057.7</v>
       </c>
       <c r="T70" s="11">
         <f>Table1[[#This Row],[orig_vote_clinton]]+Table1[[#This Row],[stein_votes_to_clinton]]+Table1[[#This Row],[johnson_votes_to_clinton]]</f>
-        <v>186576.5</v>
+        <v>189920.5</v>
       </c>
       <c r="U70" s="11">
         <f>Table1[[#This Row],[orig_vote_trump]]+Table1[[#This Row],[stein_votes_to_trump]]+Table1[[#This Row],[johnson_votes_to_trump]]</f>
-        <v>103450.5</v>
+        <v>100106.5</v>
       </c>
       <c r="V70" s="11">
         <f>Table1[[#This Row],[adjusted_vote_clinton_with_stein_only]]-Table1[[#This Row],[adjusted_vote_trump_with_stein_only]]</f>
-        <v>83126</v>
+        <v>81776.400000000009</v>
       </c>
       <c r="W70" s="11">
         <f>Table1[[#This Row],[adjusted_vote_clinton_with_johnson_only]]-Table1[[#This Row],[adjusted_vote_trump_with_johnson_only]]</f>
-        <v>83126</v>
+        <v>91163.599999999991</v>
       </c>
       <c r="X70" s="12">
         <f>Table1[[#This Row],[adjusted_vote_clinton]]-Table1[[#This Row],[adjusted_vote_trump]]</f>
-        <v>83126</v>
+        <v>89814</v>
       </c>
       <c r="Y70" s="12">
         <f>IF(Table1[[#This Row],[adjusted_spread_with_stein_only]]&gt;0,Table1[[#This Row],[electoral_votes]],0)</f>
@@ -15204,7 +15204,7 @@
       </c>
       <c r="AG70" s="11" t="str">
         <f>IF(Table1[[#This Row],[index]]=1,IF(Table1[[#This Row],[pickup_clinton]],Table1[[#This Row],[State]],""),IF(Table1[[#This Row],[pickup_clinton]],CONCATENATE(AG69,IF(AG69="","",","),Table1[[#This Row],[State]]),AG69))</f>
-        <v/>
+        <v>Florida,Michigan,Pennsylvania</v>
       </c>
       <c r="AH70" s="11" t="str">
         <f>IF(Table1[[#This Row],[index]]=1,IF(Table1[[#This Row],[pickup_trump]],Table1[[#This Row],[State]],""),IF(Table1[[#This Row],[pickup_trump]],CONCATENATE(AH69,IF(AH59="","",","),Table1[[#This Row],[State]]),AH69))</f>
@@ -15212,11 +15212,11 @@
       </c>
       <c r="AI70" s="30">
         <f>IF(Table1[[#This Row],[orig_vote_stein]]=0,"",(1-Table1[[#This Row],[adjusted_spread_with_johnson_only]]/Table1[[#This Row],[orig_vote_stein]])/2)</f>
-        <v>-5.6593064611736814</v>
+        <v>-6.2548606994665077</v>
       </c>
       <c r="AJ70" s="30">
         <f>(1-Table1[[#This Row],[adjusted_spread_with_stein_only]]/Table1[[#This Row],[orig_vote_johnson]])/2</f>
-        <v>-3.6368567731661194</v>
+        <v>-3.5696924455061216</v>
       </c>
       <c r="AK70" s="30" t="b">
         <f>AND(Table1[[#This Row],[stein_split_needed_pure]]&gt;=0,Table1[[#This Row],[stein_split_needed_pure]]&lt;=1)</f>
@@ -15248,7 +15248,7 @@
       </c>
       <c r="AR70" s="44">
         <f>adjusted_electors_clinton_with_johnson_only+Table1[[#This Row],[electors_with_split_stein_added]]+Table1[[#This Row],[electors_with_split_stein_dropped]]</f>
-        <v>233</v>
+        <v>314</v>
       </c>
       <c r="AS70" s="44">
         <f>adjusted_electors_clinton_with_stein_only+Table1[[#This Row],[electors_with_split_johnson_added]]+Table1[[#This Row],[electors_with_split_johnson_dropped]]</f>
@@ -15315,55 +15315,55 @@
       </c>
       <c r="L71" s="12">
         <f>pct_stein_to_clinton*Table1[[#This Row],[orig_vote_stein]]</f>
-        <v>13636</v>
+        <v>10908.800000000001</v>
       </c>
       <c r="M71" s="12">
         <f>pct_stein_to_trump*Table1[[#This Row],[orig_vote_stein]]</f>
-        <v>13636</v>
+        <v>16363.199999999999</v>
       </c>
       <c r="N71" s="12">
         <f>pct_johnson_to_clinton*Table1[[#This Row],[orig_vote_johnson]]</f>
-        <v>58300</v>
+        <v>104940</v>
       </c>
       <c r="O71" s="12">
         <f>pct_johnson_to_trump*Table1[[#This Row],[orig_vote_johnson]]</f>
-        <v>58300</v>
+        <v>11659.999999999998</v>
       </c>
       <c r="P71" s="12">
         <f>Table1[[#This Row],[orig_vote_clinton]]+Table1[[#This Row],[stein_votes_to_clinton]]</f>
-        <v>1930481</v>
+        <v>1927753.8</v>
       </c>
       <c r="Q71" s="12">
         <f>Table1[[#This Row],[orig_vote_trump]]+Table1[[#This Row],[stein_votes_to_trump]]</f>
-        <v>1744792</v>
+        <v>1747519.2</v>
       </c>
       <c r="R71" s="12">
         <f>Table1[[#This Row],[orig_vote_clinton]]+Table1[[#This Row],[johnson_votes_to_clinton]]</f>
-        <v>1975145</v>
+        <v>2021785</v>
       </c>
       <c r="S71" s="12">
         <f>Table1[[#This Row],[orig_vote_trump]]+Table1[[#This Row],[johnson_votes_to_trump]]</f>
-        <v>1789456</v>
+        <v>1742816</v>
       </c>
       <c r="T71" s="11">
         <f>Table1[[#This Row],[orig_vote_clinton]]+Table1[[#This Row],[stein_votes_to_clinton]]+Table1[[#This Row],[johnson_votes_to_clinton]]</f>
-        <v>1988781</v>
+        <v>2032693.8</v>
       </c>
       <c r="U71" s="11">
         <f>Table1[[#This Row],[orig_vote_trump]]+Table1[[#This Row],[stein_votes_to_trump]]+Table1[[#This Row],[johnson_votes_to_trump]]</f>
-        <v>1803092</v>
+        <v>1759179.2</v>
       </c>
       <c r="V71" s="11">
         <f>Table1[[#This Row],[adjusted_vote_clinton_with_stein_only]]-Table1[[#This Row],[adjusted_vote_trump_with_stein_only]]</f>
-        <v>185689</v>
+        <v>180234.60000000009</v>
       </c>
       <c r="W71" s="11">
         <f>Table1[[#This Row],[adjusted_vote_clinton_with_johnson_only]]-Table1[[#This Row],[adjusted_vote_trump_with_johnson_only]]</f>
-        <v>185689</v>
+        <v>278969</v>
       </c>
       <c r="X71" s="12">
         <f>Table1[[#This Row],[adjusted_vote_clinton]]-Table1[[#This Row],[adjusted_vote_trump]]</f>
-        <v>185689</v>
+        <v>273514.60000000009</v>
       </c>
       <c r="Y71" s="12">
         <f>IF(Table1[[#This Row],[adjusted_spread_with_stein_only]]&gt;0,Table1[[#This Row],[electoral_votes]],0)</f>
@@ -15399,7 +15399,7 @@
       </c>
       <c r="AG71" s="11" t="str">
         <f>IF(Table1[[#This Row],[index]]=1,IF(Table1[[#This Row],[pickup_clinton]],Table1[[#This Row],[State]],""),IF(Table1[[#This Row],[pickup_clinton]],CONCATENATE(AG70,IF(AG70="","",","),Table1[[#This Row],[State]]),AG70))</f>
-        <v/>
+        <v>Florida,Michigan,Pennsylvania</v>
       </c>
       <c r="AH71" s="11" t="str">
         <f>IF(Table1[[#This Row],[index]]=1,IF(Table1[[#This Row],[pickup_trump]],Table1[[#This Row],[State]],""),IF(Table1[[#This Row],[pickup_trump]],CONCATENATE(AH70,IF(AH60="","",","),Table1[[#This Row],[State]]),AH70))</f>
@@ -15407,11 +15407,11 @@
       </c>
       <c r="AI71" s="30">
         <f>IF(Table1[[#This Row],[orig_vote_stein]]=0,"",(1-Table1[[#This Row],[adjusted_spread_with_johnson_only]]/Table1[[#This Row],[orig_vote_stein]])/2)</f>
-        <v>-2.9043891170431211</v>
+        <v>-4.6145680551481369</v>
       </c>
       <c r="AJ71" s="30">
         <f>(1-Table1[[#This Row],[adjusted_spread_with_stein_only]]/Table1[[#This Row],[orig_vote_johnson]])/2</f>
-        <v>-0.29626500857632931</v>
+        <v>-0.27287564322470026</v>
       </c>
       <c r="AK71" s="30" t="b">
         <f>AND(Table1[[#This Row],[stein_split_needed_pure]]&gt;=0,Table1[[#This Row],[stein_split_needed_pure]]&lt;=1)</f>
@@ -15443,7 +15443,7 @@
       </c>
       <c r="AR71" s="44">
         <f>adjusted_electors_clinton_with_johnson_only+Table1[[#This Row],[electors_with_split_stein_added]]+Table1[[#This Row],[electors_with_split_stein_dropped]]</f>
-        <v>233</v>
+        <v>314</v>
       </c>
       <c r="AS71" s="44">
         <f>adjusted_electors_clinton_with_stein_only+Table1[[#This Row],[electors_with_split_johnson_added]]+Table1[[#This Row],[electors_with_split_johnson_dropped]]</f>
@@ -15510,55 +15510,55 @@
       </c>
       <c r="L72" s="12">
         <f>pct_stein_to_clinton*Table1[[#This Row],[orig_vote_stein]]</f>
-        <v>15208</v>
+        <v>12166.400000000001</v>
       </c>
       <c r="M72" s="12">
         <f>pct_stein_to_trump*Table1[[#This Row],[orig_vote_stein]]</f>
-        <v>15208</v>
+        <v>18249.599999999999</v>
       </c>
       <c r="N72" s="12">
         <f>pct_johnson_to_clinton*Table1[[#This Row],[orig_vote_johnson]]</f>
-        <v>58300</v>
+        <v>104940</v>
       </c>
       <c r="O72" s="12">
         <f>pct_johnson_to_trump*Table1[[#This Row],[orig_vote_johnson]]</f>
-        <v>58300</v>
+        <v>11659.999999999998</v>
       </c>
       <c r="P72" s="12">
         <f>Table1[[#This Row],[orig_vote_clinton]]+Table1[[#This Row],[stein_votes_to_clinton]]</f>
-        <v>1932053</v>
+        <v>1929011.4</v>
       </c>
       <c r="Q72" s="12">
         <f>Table1[[#This Row],[orig_vote_trump]]+Table1[[#This Row],[stein_votes_to_trump]]</f>
-        <v>1746364</v>
+        <v>1749405.6</v>
       </c>
       <c r="R72" s="12">
         <f>Table1[[#This Row],[orig_vote_clinton]]+Table1[[#This Row],[johnson_votes_to_clinton]]</f>
-        <v>1975145</v>
+        <v>2021785</v>
       </c>
       <c r="S72" s="12">
         <f>Table1[[#This Row],[orig_vote_trump]]+Table1[[#This Row],[johnson_votes_to_trump]]</f>
-        <v>1789456</v>
+        <v>1742816</v>
       </c>
       <c r="T72" s="11">
         <f>Table1[[#This Row],[orig_vote_clinton]]+Table1[[#This Row],[stein_votes_to_clinton]]+Table1[[#This Row],[johnson_votes_to_clinton]]</f>
-        <v>1990353</v>
+        <v>2033951.4</v>
       </c>
       <c r="U72" s="11">
         <f>Table1[[#This Row],[orig_vote_trump]]+Table1[[#This Row],[stein_votes_to_trump]]+Table1[[#This Row],[johnson_votes_to_trump]]</f>
-        <v>1804664</v>
+        <v>1761065.6</v>
       </c>
       <c r="V72" s="11">
         <f>Table1[[#This Row],[adjusted_vote_clinton_with_stein_only]]-Table1[[#This Row],[adjusted_vote_trump_with_stein_only]]</f>
-        <v>185689</v>
+        <v>179605.79999999981</v>
       </c>
       <c r="W72" s="11">
         <f>Table1[[#This Row],[adjusted_vote_clinton_with_johnson_only]]-Table1[[#This Row],[adjusted_vote_trump_with_johnson_only]]</f>
-        <v>185689</v>
+        <v>278969</v>
       </c>
       <c r="X72" s="12">
         <f>Table1[[#This Row],[adjusted_vote_clinton]]-Table1[[#This Row],[adjusted_vote_trump]]</f>
-        <v>185689</v>
+        <v>272885.79999999981</v>
       </c>
       <c r="Y72" s="12">
         <f>IF(Table1[[#This Row],[adjusted_spread_with_stein_only]]&gt;0,Table1[[#This Row],[electoral_votes]],0)</f>
@@ -15594,7 +15594,7 @@
       </c>
       <c r="AG72" s="11" t="str">
         <f>IF(Table1[[#This Row],[index]]=1,IF(Table1[[#This Row],[pickup_clinton]],Table1[[#This Row],[State]],""),IF(Table1[[#This Row],[pickup_clinton]],CONCATENATE(AG71,IF(AG71="","",","),Table1[[#This Row],[State]]),AG71))</f>
-        <v/>
+        <v>Florida,Michigan,Pennsylvania</v>
       </c>
       <c r="AH72" s="11" t="str">
         <f>IF(Table1[[#This Row],[index]]=1,IF(Table1[[#This Row],[pickup_trump]],Table1[[#This Row],[State]],""),IF(Table1[[#This Row],[pickup_trump]],CONCATENATE(AH71,IF(AH61="","",","),Table1[[#This Row],[State]]),AH71))</f>
@@ -15602,11 +15602,11 @@
       </c>
       <c r="AI72" s="30">
         <f>IF(Table1[[#This Row],[orig_vote_stein]]=0,"",(1-Table1[[#This Row],[adjusted_spread_with_johnson_only]]/Table1[[#This Row],[orig_vote_stein]])/2)</f>
-        <v>-2.5524888216728039</v>
+        <v>-4.0858922935297208</v>
       </c>
       <c r="AJ72" s="30">
         <f>(1-Table1[[#This Row],[adjusted_spread_with_stein_only]]/Table1[[#This Row],[orig_vote_johnson]])/2</f>
-        <v>-0.29626500857632931</v>
+        <v>-0.27017924528301807</v>
       </c>
       <c r="AK72" s="30" t="b">
         <f>AND(Table1[[#This Row],[stein_split_needed_pure]]&gt;=0,Table1[[#This Row],[stein_split_needed_pure]]&lt;=1)</f>
@@ -15638,7 +15638,7 @@
       </c>
       <c r="AR72" s="44">
         <f>adjusted_electors_clinton_with_johnson_only+Table1[[#This Row],[electors_with_split_stein_added]]+Table1[[#This Row],[electors_with_split_stein_dropped]]</f>
-        <v>233</v>
+        <v>314</v>
       </c>
       <c r="AS72" s="44">
         <f>adjusted_electors_clinton_with_stein_only+Table1[[#This Row],[electors_with_split_johnson_added]]+Table1[[#This Row],[electors_with_split_johnson_dropped]]</f>
@@ -15705,55 +15705,55 @@
       </c>
       <c r="L73" s="12">
         <f>pct_stein_to_clinton*Table1[[#This Row],[orig_vote_stein]]</f>
-        <v>4000</v>
+        <v>3200</v>
       </c>
       <c r="M73" s="12">
         <f>pct_stein_to_trump*Table1[[#This Row],[orig_vote_stein]]</f>
-        <v>4000</v>
+        <v>4800</v>
       </c>
       <c r="N73" s="12">
         <f>pct_johnson_to_clinton*Table1[[#This Row],[orig_vote_johnson]]</f>
-        <v>11399</v>
+        <v>20518.2</v>
       </c>
       <c r="O73" s="12">
         <f>pct_johnson_to_trump*Table1[[#This Row],[orig_vote_johnson]]</f>
-        <v>11399</v>
+        <v>2279.7999999999993</v>
       </c>
       <c r="P73" s="12">
         <f>Table1[[#This Row],[orig_vote_clinton]]+Table1[[#This Row],[stein_votes_to_clinton]]</f>
-        <v>191457</v>
+        <v>190657</v>
       </c>
       <c r="Q73" s="12">
         <f>Table1[[#This Row],[orig_vote_trump]]+Table1[[#This Row],[stein_votes_to_trump]]</f>
-        <v>490198</v>
+        <v>490998</v>
       </c>
       <c r="R73" s="12">
         <f>Table1[[#This Row],[orig_vote_clinton]]+Table1[[#This Row],[johnson_votes_to_clinton]]</f>
-        <v>198856</v>
+        <v>207975.2</v>
       </c>
       <c r="S73" s="12">
         <f>Table1[[#This Row],[orig_vote_trump]]+Table1[[#This Row],[johnson_votes_to_trump]]</f>
-        <v>497597</v>
+        <v>488477.8</v>
       </c>
       <c r="T73" s="11">
         <f>Table1[[#This Row],[orig_vote_clinton]]+Table1[[#This Row],[stein_votes_to_clinton]]+Table1[[#This Row],[johnson_votes_to_clinton]]</f>
-        <v>202856</v>
+        <v>211175.2</v>
       </c>
       <c r="U73" s="11">
         <f>Table1[[#This Row],[orig_vote_trump]]+Table1[[#This Row],[stein_votes_to_trump]]+Table1[[#This Row],[johnson_votes_to_trump]]</f>
-        <v>501597</v>
+        <v>493277.8</v>
       </c>
       <c r="V73" s="11">
         <f>Table1[[#This Row],[adjusted_vote_clinton_with_stein_only]]-Table1[[#This Row],[adjusted_vote_trump_with_stein_only]]</f>
-        <v>-298741</v>
+        <v>-300341</v>
       </c>
       <c r="W73" s="11">
         <f>Table1[[#This Row],[adjusted_vote_clinton_with_johnson_only]]-Table1[[#This Row],[adjusted_vote_trump_with_johnson_only]]</f>
-        <v>-298741</v>
+        <v>-280502.59999999998</v>
       </c>
       <c r="X73" s="12">
         <f>Table1[[#This Row],[adjusted_vote_clinton]]-Table1[[#This Row],[adjusted_vote_trump]]</f>
-        <v>-298741</v>
+        <v>-282102.59999999998</v>
       </c>
       <c r="Y73" s="12">
         <f>IF(Table1[[#This Row],[adjusted_spread_with_stein_only]]&gt;0,Table1[[#This Row],[electoral_votes]],0)</f>
@@ -15789,7 +15789,7 @@
       </c>
       <c r="AG73" s="11" t="str">
         <f>IF(Table1[[#This Row],[index]]=1,IF(Table1[[#This Row],[pickup_clinton]],Table1[[#This Row],[State]],""),IF(Table1[[#This Row],[pickup_clinton]],CONCATENATE(AG72,IF(AG72="","",","),Table1[[#This Row],[State]]),AG72))</f>
-        <v/>
+        <v>Florida,Michigan,Pennsylvania</v>
       </c>
       <c r="AH73" s="11" t="str">
         <f>IF(Table1[[#This Row],[index]]=1,IF(Table1[[#This Row],[pickup_trump]],Table1[[#This Row],[State]],""),IF(Table1[[#This Row],[pickup_trump]],CONCATENATE(AH72,IF(AH62="","",","),Table1[[#This Row],[State]]),AH72))</f>
@@ -15797,11 +15797,11 @@
       </c>
       <c r="AI73" s="30">
         <f>IF(Table1[[#This Row],[orig_vote_stein]]=0,"",(1-Table1[[#This Row],[adjusted_spread_with_johnson_only]]/Table1[[#This Row],[orig_vote_stein]])/2)</f>
-        <v>19.171312499999999</v>
+        <v>18.031412499999998</v>
       </c>
       <c r="AJ73" s="30">
         <f>(1-Table1[[#This Row],[adjusted_spread_with_stein_only]]/Table1[[#This Row],[orig_vote_johnson]])/2</f>
-        <v>7.0519124484603912</v>
+        <v>7.0870032458987628</v>
       </c>
       <c r="AK73" s="30" t="b">
         <f>AND(Table1[[#This Row],[stein_split_needed_pure]]&gt;=0,Table1[[#This Row],[stein_split_needed_pure]]&lt;=1)</f>
@@ -15833,7 +15833,7 @@
       </c>
       <c r="AR73" s="44">
         <f>adjusted_electors_clinton_with_johnson_only+Table1[[#This Row],[electors_with_split_stein_added]]+Table1[[#This Row],[electors_with_split_stein_dropped]]</f>
-        <v>233</v>
+        <v>314</v>
       </c>
       <c r="AS73" s="44">
         <f>adjusted_electors_clinton_with_stein_only+Table1[[#This Row],[electors_with_split_johnson_added]]+Table1[[#This Row],[electors_with_split_johnson_dropped]]</f>
@@ -15900,55 +15900,55 @@
       </c>
       <c r="L74" s="12">
         <f>pct_stein_to_clinton*Table1[[#This Row],[orig_vote_stein]]</f>
-        <v>15490</v>
+        <v>12392</v>
       </c>
       <c r="M74" s="12">
         <f>pct_stein_to_trump*Table1[[#This Row],[orig_vote_stein]]</f>
-        <v>15490</v>
+        <v>18588</v>
       </c>
       <c r="N74" s="12">
         <f>pct_johnson_to_clinton*Table1[[#This Row],[orig_vote_johnson]]</f>
-        <v>53221</v>
+        <v>95797.8</v>
       </c>
       <c r="O74" s="12">
         <f>pct_johnson_to_trump*Table1[[#This Row],[orig_vote_johnson]]</f>
-        <v>53221</v>
+        <v>10644.199999999997</v>
       </c>
       <c r="P74" s="12">
         <f>Table1[[#This Row],[orig_vote_clinton]]+Table1[[#This Row],[stein_votes_to_clinton]]</f>
-        <v>1397700</v>
+        <v>1394602</v>
       </c>
       <c r="Q74" s="12">
         <f>Table1[[#This Row],[orig_vote_trump]]+Table1[[#This Row],[stein_votes_to_trump]]</f>
-        <v>1424957</v>
+        <v>1428055</v>
       </c>
       <c r="R74" s="12">
         <f>Table1[[#This Row],[orig_vote_clinton]]+Table1[[#This Row],[johnson_votes_to_clinton]]</f>
-        <v>1435431</v>
+        <v>1478007.8</v>
       </c>
       <c r="S74" s="12">
         <f>Table1[[#This Row],[orig_vote_trump]]+Table1[[#This Row],[johnson_votes_to_trump]]</f>
-        <v>1462688</v>
+        <v>1420111.2</v>
       </c>
       <c r="T74" s="11">
         <f>Table1[[#This Row],[orig_vote_clinton]]+Table1[[#This Row],[stein_votes_to_clinton]]+Table1[[#This Row],[johnson_votes_to_clinton]]</f>
-        <v>1450921</v>
+        <v>1490399.8</v>
       </c>
       <c r="U74" s="11">
         <f>Table1[[#This Row],[orig_vote_trump]]+Table1[[#This Row],[stein_votes_to_trump]]+Table1[[#This Row],[johnson_votes_to_trump]]</f>
-        <v>1478178</v>
+        <v>1438699.2</v>
       </c>
       <c r="V74" s="11">
         <f>Table1[[#This Row],[adjusted_vote_clinton_with_stein_only]]-Table1[[#This Row],[adjusted_vote_trump_with_stein_only]]</f>
-        <v>-27257</v>
+        <v>-33453</v>
       </c>
       <c r="W74" s="11">
         <f>Table1[[#This Row],[adjusted_vote_clinton_with_johnson_only]]-Table1[[#This Row],[adjusted_vote_trump_with_johnson_only]]</f>
-        <v>-27257</v>
+        <v>57896.600000000093</v>
       </c>
       <c r="X74" s="12">
         <f>Table1[[#This Row],[adjusted_vote_clinton]]-Table1[[#This Row],[adjusted_vote_trump]]</f>
-        <v>-27257</v>
+        <v>51700.600000000093</v>
       </c>
       <c r="Y74" s="12">
         <f>IF(Table1[[#This Row],[adjusted_spread_with_stein_only]]&gt;0,Table1[[#This Row],[electoral_votes]],0)</f>
@@ -15956,15 +15956,15 @@
       </c>
       <c r="Z74" s="12">
         <f>IF(Table1[[#This Row],[adjusted_spread_with_johnson_only]]&gt;0,Table1[[#This Row],[electoral_votes]],0)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AA74" s="11">
         <f>IF(Table1[[#This Row],[adjusted_spread]]&gt;0,Table1[[#This Row],[electoral_votes]],0)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AB74" s="12">
         <f>IF(Table1[[#This Row],[adjusted_spread]]&lt;0,Table1[[#This Row],[electoral_votes]],0)</f>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AC74" s="12" t="str">
         <f>IF(Table1[[#This Row],[orig_spread]]&lt;0,"Trump",IF(Table1[[#This Row],[orig_spread]]&gt;0,"Clinton",""))</f>
@@ -15972,11 +15972,11 @@
       </c>
       <c r="AD74" s="12" t="str">
         <f>IF(Table1[[#This Row],[adjusted_spread]]&lt;0,"Trump",IF(Table1[[#This Row],[adjusted_spread]]&gt;0,"Clinton",""))</f>
-        <v>Trump</v>
+        <v>Clinton</v>
       </c>
       <c r="AE74" s="11" t="b">
         <f>AND(Table1[[#This Row],[orig_outcome]]="Trump",Table1[[#This Row],[adjusted_outcome]]="Clinton")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF74" s="11" t="b">
         <f>AND(Table1[[#This Row],[orig_outcome]]="Clinton",Table1[[#This Row],[adjusted_outcome]]="Trump")</f>
@@ -15984,7 +15984,7 @@
       </c>
       <c r="AG74" s="11" t="str">
         <f>IF(Table1[[#This Row],[index]]=1,IF(Table1[[#This Row],[pickup_clinton]],Table1[[#This Row],[State]],""),IF(Table1[[#This Row],[pickup_clinton]],CONCATENATE(AG73,IF(AG73="","",","),Table1[[#This Row],[State]]),AG73))</f>
-        <v/>
+        <v>Florida,Michigan,Pennsylvania,Wisconsin</v>
       </c>
       <c r="AH74" s="11" t="str">
         <f>IF(Table1[[#This Row],[index]]=1,IF(Table1[[#This Row],[pickup_trump]],Table1[[#This Row],[State]],""),IF(Table1[[#This Row],[pickup_trump]],CONCATENATE(AH73,IF(AH63="","",","),Table1[[#This Row],[State]]),AH73))</f>
@@ -15992,15 +15992,15 @@
       </c>
       <c r="AI74" s="30">
         <f>IF(Table1[[#This Row],[orig_vote_stein]]=0,"",(1-Table1[[#This Row],[adjusted_spread_with_johnson_only]]/Table1[[#This Row],[orig_vote_stein]])/2)</f>
-        <v>0.93991284699806332</v>
+        <v>-0.43441897998708989</v>
       </c>
       <c r="AJ74" s="30">
         <f>(1-Table1[[#This Row],[adjusted_spread_with_stein_only]]/Table1[[#This Row],[orig_vote_johnson]])/2</f>
-        <v>0.62803686514721635</v>
+        <v>0.65714191766408003</v>
       </c>
       <c r="AK74" s="30" t="b">
         <f>AND(Table1[[#This Row],[stein_split_needed_pure]]&gt;=0,Table1[[#This Row],[stein_split_needed_pure]]&lt;=1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL74" s="30" t="b">
         <f>AND(Table1[[#This Row],[johnson_split_needed_pure]]&gt;=0,Table1[[#This Row],[johnson_split_needed_pure]]&lt;=1)</f>
@@ -16012,7 +16012,7 @@
       </c>
       <c r="AN74" s="51">
         <f t="array" ref="AN74">IF(NOT(Table1[[#This Row],[in_play_stein]]), 0, SUMPRODUCT(IF(Table1[stein_split_needed_pure]&lt;0.5, 0, 1), IF(Table1[in_play_stein], 1, 0), IF(Table1[stein_split_needed_pure]&lt;=Table1[[#This Row],[stein_split_needed_pure]], Table1[electoral_votes], 0)))</f>
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="AO74" s="51">
         <f t="array" ref="AO74">IF(NOT(Table1[[#This Row],[in_play_johnson]]), 0, SUMPRODUCT(IF(Table1[johnson_split_needed_pure]&lt;0.5, 0, 1), IF(Table1[in_play_johnson], 1, 0), IF(Table1[johnson_split_needed_pure]&lt;=Table1[[#This Row],[johnson_split_needed_pure]], Table1[electoral_votes], 0)))</f>
@@ -16028,7 +16028,7 @@
       </c>
       <c r="AR74" s="44">
         <f>adjusted_electors_clinton_with_johnson_only+Table1[[#This Row],[electors_with_split_stein_added]]+Table1[[#This Row],[electors_with_split_stein_dropped]]</f>
-        <v>259</v>
+        <v>314</v>
       </c>
       <c r="AS74" s="44">
         <f>adjusted_electors_clinton_with_stein_only+Table1[[#This Row],[electors_with_split_johnson_added]]+Table1[[#This Row],[electors_with_split_johnson_dropped]]</f>
@@ -16095,55 +16095,55 @@
       </c>
       <c r="L75" s="12">
         <f>pct_stein_to_clinton*Table1[[#This Row],[orig_vote_stein]]</f>
-        <v>1256</v>
+        <v>1004.8000000000001</v>
       </c>
       <c r="M75" s="12">
         <f>pct_stein_to_trump*Table1[[#This Row],[orig_vote_stein]]</f>
-        <v>1256</v>
+        <v>1507.2</v>
       </c>
       <c r="N75" s="12">
         <f>pct_johnson_to_clinton*Table1[[#This Row],[orig_vote_johnson]]</f>
-        <v>6642.5</v>
+        <v>11956.5</v>
       </c>
       <c r="O75" s="12">
         <f>pct_johnson_to_trump*Table1[[#This Row],[orig_vote_johnson]]</f>
-        <v>6642.5</v>
+        <v>1328.4999999999998</v>
       </c>
       <c r="P75" s="12">
         <f>Table1[[#This Row],[orig_vote_clinton]]+Table1[[#This Row],[stein_votes_to_clinton]]</f>
-        <v>57205</v>
+        <v>56953.8</v>
       </c>
       <c r="Q75" s="12">
         <f>Table1[[#This Row],[orig_vote_trump]]+Table1[[#This Row],[stein_votes_to_trump]]</f>
-        <v>175504</v>
+        <v>175755.2</v>
       </c>
       <c r="R75" s="12">
         <f>Table1[[#This Row],[orig_vote_clinton]]+Table1[[#This Row],[johnson_votes_to_clinton]]</f>
-        <v>62591.5</v>
+        <v>67905.5</v>
       </c>
       <c r="S75" s="12">
         <f>Table1[[#This Row],[orig_vote_trump]]+Table1[[#This Row],[johnson_votes_to_trump]]</f>
-        <v>180890.5</v>
+        <v>175576.5</v>
       </c>
       <c r="T75" s="11">
         <f>Table1[[#This Row],[orig_vote_clinton]]+Table1[[#This Row],[stein_votes_to_clinton]]+Table1[[#This Row],[johnson_votes_to_clinton]]</f>
-        <v>63847.5</v>
+        <v>68910.3</v>
       </c>
       <c r="U75" s="11">
         <f>Table1[[#This Row],[orig_vote_trump]]+Table1[[#This Row],[stein_votes_to_trump]]+Table1[[#This Row],[johnson_votes_to_trump]]</f>
-        <v>182146.5</v>
+        <v>177083.7</v>
       </c>
       <c r="V75" s="11">
         <f>Table1[[#This Row],[adjusted_vote_clinton_with_stein_only]]-Table1[[#This Row],[adjusted_vote_trump_with_stein_only]]</f>
-        <v>-118299</v>
+        <v>-118801.40000000001</v>
       </c>
       <c r="W75" s="11">
         <f>Table1[[#This Row],[adjusted_vote_clinton_with_johnson_only]]-Table1[[#This Row],[adjusted_vote_trump_with_johnson_only]]</f>
-        <v>-118299</v>
+        <v>-107671</v>
       </c>
       <c r="X75" s="12">
         <f>Table1[[#This Row],[adjusted_vote_clinton]]-Table1[[#This Row],[adjusted_vote_trump]]</f>
-        <v>-118299</v>
+        <v>-108173.40000000001</v>
       </c>
       <c r="Y75" s="12">
         <f>IF(Table1[[#This Row],[adjusted_spread_with_stein_only]]&gt;0,Table1[[#This Row],[electoral_votes]],0)</f>
@@ -16179,7 +16179,7 @@
       </c>
       <c r="AG75" s="11" t="str">
         <f>IF(Table1[[#This Row],[index]]=1,IF(Table1[[#This Row],[pickup_clinton]],Table1[[#This Row],[State]],""),IF(Table1[[#This Row],[pickup_clinton]],CONCATENATE(AG74,IF(AG74="","",","),Table1[[#This Row],[State]]),AG74))</f>
-        <v/>
+        <v>Florida,Michigan,Pennsylvania,Wisconsin</v>
       </c>
       <c r="AH75" s="11" t="str">
         <f>IF(Table1[[#This Row],[index]]=1,IF(Table1[[#This Row],[pickup_trump]],Table1[[#This Row],[State]],""),IF(Table1[[#This Row],[pickup_trump]],CONCATENATE(AH74,IF(AH64="","",","),Table1[[#This Row],[State]]),AH74))</f>
@@ -16187,11 +16187,11 @@
       </c>
       <c r="AI75" s="30">
         <f>IF(Table1[[#This Row],[orig_vote_stein]]=0,"",(1-Table1[[#This Row],[adjusted_spread_with_johnson_only]]/Table1[[#This Row],[orig_vote_stein]])/2)</f>
-        <v>24.046775477707005</v>
+        <v>21.931329617834393</v>
       </c>
       <c r="AJ75" s="30">
         <f>(1-Table1[[#This Row],[adjusted_spread_with_stein_only]]/Table1[[#This Row],[orig_vote_johnson]])/2</f>
-        <v>4.9523522770041399</v>
+        <v>4.9712608204742192</v>
       </c>
       <c r="AK75" s="30" t="b">
         <f>AND(Table1[[#This Row],[stein_split_needed_pure]]&gt;=0,Table1[[#This Row],[stein_split_needed_pure]]&lt;=1)</f>
@@ -16223,7 +16223,7 @@
       </c>
       <c r="AR75" s="44">
         <f>adjusted_electors_clinton_with_johnson_only+Table1[[#This Row],[electors_with_split_stein_added]]+Table1[[#This Row],[electors_with_split_stein_dropped]]</f>
-        <v>233</v>
+        <v>314</v>
       </c>
       <c r="AS75" s="44">
         <f>adjusted_electors_clinton_with_stein_only+Table1[[#This Row],[electors_with_split_johnson_added]]+Table1[[#This Row],[electors_with_split_johnson_dropped]]</f>
